--- a/features/original.xlsx
+++ b/features/original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J247"/>
+  <dimension ref="A1:K247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>distance_barycentre</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>subsampled_outlier</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>supersampled_outlier</t>
         </is>
@@ -510,9 +515,12 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.5833692785551206</v>
       </c>
       <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,10 +553,13 @@
           <t>testModels/db/0/m1/m1.off</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
+      <c r="I3" t="n">
+        <v>0.4551239187853133</v>
       </c>
       <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -581,10 +592,13 @@
           <t>testModels/db/0/m2/m2.off</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v>0.5509480836102678</v>
       </c>
       <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -617,10 +631,13 @@
           <t>testModels/db/0/m3/m3.off</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
+      <c r="I5" t="n">
+        <v>0.7138964227799601</v>
       </c>
       <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -653,10 +670,13 @@
           <t>testModels/db/0/m4/m4.off</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v>0.7167299028897499</v>
       </c>
       <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -689,10 +709,13 @@
           <t>testModels/db/0/m5/m5.off</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v>0.5891684456837839</v>
       </c>
       <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -725,10 +748,13 @@
           <t>testModels/db/0/m6/m6.off</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v>0.7350670881757851</v>
       </c>
       <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -761,10 +787,13 @@
           <t>testModels/db/0/m7/m7.off</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
+      <c r="I9" t="n">
+        <v>0.6769725559850669</v>
       </c>
       <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -797,10 +826,13 @@
           <t>testModels/db/0/m8/m8.off</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
+      <c r="I10" t="n">
+        <v>0.6975254655816926</v>
       </c>
       <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -833,10 +865,13 @@
           <t>testModels/db/0/m9/m9.off</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
+      <c r="I11" t="n">
+        <v>11.0604390210595</v>
       </c>
       <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -869,10 +904,13 @@
           <t>testModels/db/1/m100/m100.off</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
+      <c r="I12" t="n">
+        <v>0.617230475763601</v>
       </c>
       <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -905,10 +943,13 @@
           <t>testModels/db/1/m101/m101.off</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v>0.8750635992922768</v>
       </c>
       <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -941,10 +982,13 @@
           <t>testModels/db/1/m102/m102.off</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
+      <c r="I14" t="n">
+        <v>0.5797146577155331</v>
       </c>
       <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -977,10 +1021,13 @@
           <t>testModels/db/1/m103/m103.off</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v>0.7798726009303663</v>
       </c>
       <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1013,10 +1060,13 @@
           <t>testModels/db/1/m104/m104.off</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
+      <c r="I16" t="n">
+        <v>0.7004238388061579</v>
       </c>
       <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1049,10 +1099,13 @@
           <t>testModels/db/1/m105/m105.off</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
+      <c r="I17" t="n">
+        <v>0.720381260007417</v>
       </c>
       <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1085,10 +1138,13 @@
           <t>testModels/db/1/m106/m106.off</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
+      <c r="I18" t="n">
+        <v>0.7169114809430549</v>
       </c>
       <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1121,10 +1177,13 @@
           <t>testModels/db/1/m107/m107.off</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="I19" t="n">
+        <v>0.7041051577722928</v>
       </c>
       <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1157,10 +1216,13 @@
           <t>testModels/db/1/m108/m108.off</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="I20" t="n">
+        <v>0.7883864757508037</v>
       </c>
       <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1193,10 +1255,13 @@
           <t>testModels/db/1/m109/m109.off</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="I21" t="n">
+        <v>0.5665445074166562</v>
       </c>
       <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1229,10 +1294,13 @@
           <t>testModels/db/1/m110/m110.off</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
+      <c r="I22" t="n">
+        <v>0.5943193461023402</v>
       </c>
       <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1265,10 +1333,13 @@
           <t>testModels/db/1/m111/m111.off</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="I23" t="n">
+        <v>0.5773744061375005</v>
       </c>
       <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1301,10 +1372,13 @@
           <t>testModels/db/1/m112/m112.off</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="I24" t="n">
+        <v>0.8421914177505204</v>
       </c>
       <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1337,10 +1411,13 @@
           <t>testModels/db/10/m1000/m1000.off</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="I25" t="n">
+        <v>0.9287522775164535</v>
       </c>
       <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1373,10 +1450,13 @@
           <t>testModels/db/10/m1001/m1001.off</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="I26" t="n">
+        <v>0.5665998934600771</v>
       </c>
       <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1409,10 +1489,13 @@
           <t>testModels/db/10/m1002/m1002.off</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="I27" t="n">
+        <v>36.76001108224993</v>
       </c>
       <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1445,10 +1528,13 @@
           <t>testModels/db/10/m1003/m1003.off</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="I28" t="n">
+        <v>2.829112919506064</v>
       </c>
       <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1481,10 +1567,13 @@
           <t>testModels/db/10/m1004/m1004.off</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="I29" t="n">
+        <v>1.60035386373809</v>
       </c>
       <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1517,10 +1606,13 @@
           <t>testModels/db/10/m1005/m1005.off</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="I30" t="n">
+        <v>3.047092386015169</v>
       </c>
       <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1553,10 +1645,13 @@
           <t>testModels/db/10/m1006/m1006.off</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="I31" t="n">
+        <v>1.876525832695281</v>
       </c>
       <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1589,10 +1684,13 @@
           <t>testModels/db/10/m1007/m1007.off</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="I32" t="n">
+        <v>14.94397686443064</v>
       </c>
       <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1625,10 +1723,13 @@
           <t>testModels/db/10/m1008/m1008.off</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="I33" t="n">
+        <v>0.4602829826751681</v>
       </c>
       <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1661,10 +1762,13 @@
           <t>testModels/db/10/m1009/m1009.off</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="I34" t="n">
+        <v>2.312477163242846</v>
       </c>
       <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1697,10 +1801,13 @@
           <t>testModels/db/10/m1010/m1010.off</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="I35" t="n">
+        <v>2.218883589454054</v>
       </c>
       <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1733,10 +1840,13 @@
           <t>testModels/db/10/m1011/m1011.off</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="I36" t="n">
+        <v>1.40129883032089</v>
       </c>
       <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1769,10 +1879,13 @@
           <t>testModels/db/10/m1012/m1012.off</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="I37" t="n">
+        <v>6.697467331631407</v>
       </c>
       <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1805,10 +1918,13 @@
           <t>testModels/db/11/m1100/m1100.off</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
+      <c r="I38" t="n">
+        <v>0.5374154606745417</v>
       </c>
       <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1841,10 +1957,13 @@
           <t>testModels/db/11/m1101/m1101.off</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
+      <c r="I39" t="n">
+        <v>0.5894297571576562</v>
       </c>
       <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1877,10 +1996,13 @@
           <t>testModels/db/11/m1102/m1102.off</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
+      <c r="I40" t="n">
+        <v>0.6681650375107182</v>
       </c>
       <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1913,10 +2035,13 @@
           <t>testModels/db/11/m1103/m1103.off</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
+      <c r="I41" t="n">
+        <v>0.7051657940854634</v>
       </c>
       <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1949,10 +2074,13 @@
           <t>testModels/db/11/m1104/m1104.off</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
+      <c r="I42" t="n">
+        <v>0.5468003297544165</v>
       </c>
       <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1985,10 +2113,13 @@
           <t>testModels/db/11/m1105/m1105.off</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="I43" t="n">
+        <v>0.6450712313608011</v>
       </c>
       <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2021,10 +2152,13 @@
           <t>testModels/db/11/m1106/m1106.off</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="I44" t="n">
+        <v>0.4422728383787655</v>
       </c>
       <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2057,10 +2191,13 @@
           <t>testModels/db/11/m1107/m1107.off</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="I45" t="n">
+        <v>0.5086847653847676</v>
       </c>
       <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2093,10 +2230,13 @@
           <t>testModels/db/11/m1108/m1108.off</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="I46" t="n">
+        <v>2.66430241025552</v>
       </c>
       <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2129,10 +2269,13 @@
           <t>testModels/db/11/m1109/m1109.off</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="I47" t="n">
+        <v>555.5409493419526</v>
       </c>
       <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2165,10 +2308,13 @@
           <t>testModels/db/11/m1110/m1110.off</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
+      <c r="I48" t="n">
+        <v>0.5298898577961842</v>
       </c>
       <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2201,10 +2347,13 @@
           <t>testModels/db/11/m1111/m1111.off</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
+      <c r="I49" t="n">
+        <v>0.5934552605671437</v>
       </c>
       <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2237,10 +2386,13 @@
           <t>testModels/db/11/m1112/m1112.off</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
+      <c r="I50" t="n">
+        <v>3.475545362880868</v>
       </c>
       <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2273,10 +2425,13 @@
           <t>testModels/db/12/m1200/m1200.off</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
+      <c r="I51" t="n">
+        <v>0.5612599461755092</v>
       </c>
       <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2309,10 +2464,13 @@
           <t>testModels/db/12/m1201/m1201.off</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="I52" t="n">
+        <v>0.3580824644805655</v>
       </c>
       <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2345,10 +2503,13 @@
           <t>testModels/db/12/m1202/m1202.off</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
+      <c r="I53" t="n">
+        <v>0.5499636795036806</v>
       </c>
       <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2381,10 +2542,13 @@
           <t>testModels/db/12/m1203/m1203.off</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
+      <c r="I54" t="n">
+        <v>0.6285065483059072</v>
       </c>
       <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2417,10 +2581,13 @@
           <t>testModels/db/12/m1204/m1204.off</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
+      <c r="I55" t="n">
+        <v>0.6605424659875109</v>
       </c>
       <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2453,10 +2620,13 @@
           <t>testModels/db/12/m1205/m1205.off</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
+      <c r="I56" t="n">
+        <v>2.767969582236098</v>
       </c>
       <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2489,10 +2659,13 @@
           <t>testModels/db/12/m1206/m1206.off</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
+      <c r="I57" t="n">
+        <v>0.5692872062278712</v>
       </c>
       <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2525,10 +2698,13 @@
           <t>testModels/db/12/m1207/m1207.off</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
+      <c r="I58" t="n">
+        <v>0.7885412833955276</v>
       </c>
       <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2561,10 +2737,13 @@
           <t>testModels/db/12/m1208/m1208.off</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
+      <c r="I59" t="n">
+        <v>0.8508020822459635</v>
       </c>
       <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2597,10 +2776,13 @@
           <t>testModels/db/12/m1209/m1209.off</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
+      <c r="I60" t="n">
+        <v>0.7126481134184162</v>
       </c>
       <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2633,10 +2815,13 @@
           <t>testModels/db/12/m1210/m1210.off</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
+      <c r="I61" t="n">
+        <v>0.206089011229017</v>
       </c>
       <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2669,10 +2854,13 @@
           <t>testModels/db/12/m1211/m1211.off</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>1</v>
+      <c r="I62" t="n">
+        <v>2.812198903068106</v>
       </c>
       <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2705,10 +2893,13 @@
           <t>testModels/db/12/m1212/m1212.off</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="I63" t="n">
+        <v>2.017612802001679</v>
       </c>
       <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2741,10 +2932,13 @@
           <t>testModels/db/13/m1300/m1300.off</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
+      <c r="I64" t="n">
+        <v>0.5890943699485118</v>
       </c>
       <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2777,10 +2971,13 @@
           <t>testModels/db/13/m1301/m1301.off</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
+      <c r="I65" t="n">
+        <v>0.5552752156943827</v>
       </c>
       <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2813,11 +3010,14 @@
           <t>testModels/db/13/m1302/m1302.off</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="I66" t="n">
+        <v>0.3319983216080078</v>
       </c>
       <c r="J66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2849,10 +3049,13 @@
           <t>testModels/db/13/m1303/m1303.off</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
+      <c r="I67" t="n">
+        <v>1.117499070233687</v>
       </c>
       <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2885,11 +3088,14 @@
           <t>testModels/db/13/m1304/m1304.off</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="I68" t="n">
+        <v>0.6405115886122699</v>
       </c>
       <c r="J68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2921,10 +3127,13 @@
           <t>testModels/db/13/m1305/m1305.off</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="I69" t="n">
+        <v>0.6219743019925619</v>
       </c>
       <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2957,10 +3166,13 @@
           <t>testModels/db/13/m1306/m1306.off</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="I70" t="n">
+        <v>1.636563159574256</v>
       </c>
       <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2993,10 +3205,13 @@
           <t>testModels/db/13/m1307/m1307.off</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="I71" t="n">
+        <v>0.8687734293818027</v>
       </c>
       <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3029,10 +3244,13 @@
           <t>testModels/db/13/m1308/m1308.off</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="I72" t="n">
+        <v>0.6345127315821533</v>
       </c>
       <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3065,10 +3283,13 @@
           <t>testModels/db/13/m1309/m1309.off</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="I73" t="n">
+        <v>0.4346234580226721</v>
       </c>
       <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3101,10 +3322,13 @@
           <t>testModels/db/13/m1310/m1310.off</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="I74" t="n">
+        <v>0.7370804741394653</v>
       </c>
       <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3137,11 +3361,14 @@
           <t>testModels/db/13/m1311/m1311.off</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="I75" t="n">
+        <v>0.6822714190403661</v>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3173,10 +3400,13 @@
           <t>testModels/db/13/m1312/m1312.off</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
+      <c r="I76" t="n">
+        <v>0.5996034562190253</v>
       </c>
       <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3209,10 +3439,13 @@
           <t>testModels/db/14/m1400/m1400.off</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="I77" t="n">
+        <v>1.16974626638147</v>
       </c>
       <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3245,10 +3478,13 @@
           <t>testModels/db/14/m1401/m1401.off</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="I78" t="n">
+        <v>0.6404811368568801</v>
       </c>
       <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3281,10 +3517,13 @@
           <t>testModels/db/14/m1402/m1402.off</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
+      <c r="I79" t="n">
+        <v>3.564486434977824</v>
       </c>
       <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3317,10 +3556,13 @@
           <t>testModels/db/14/m1403/m1403.off</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>1</v>
+      <c r="I80" t="n">
+        <v>0.819742337942043</v>
       </c>
       <c r="J80" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3353,10 +3595,13 @@
           <t>testModels/db/14/m1404/m1404.off</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="I81" t="n">
+        <v>0.6586212464423078</v>
       </c>
       <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3389,10 +3634,13 @@
           <t>testModels/db/14/m1405/m1405.off</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
+      <c r="I82" t="n">
+        <v>0.3613023257726861</v>
       </c>
       <c r="J82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3425,10 +3673,13 @@
           <t>testModels/db/14/m1406/m1406.off</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
+      <c r="I83" t="n">
+        <v>0.8639761027006455</v>
       </c>
       <c r="J83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3461,10 +3712,13 @@
           <t>testModels/db/14/m1407/m1407.off</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="I84" t="n">
+        <v>0.8382463080197116</v>
       </c>
       <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3497,10 +3751,13 @@
           <t>testModels/db/14/m1408/m1408.off</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="I85" t="n">
+        <v>0.5546446857438891</v>
       </c>
       <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3533,10 +3790,13 @@
           <t>testModels/db/14/m1409/m1409.off</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
+      <c r="I86" t="n">
+        <v>1.287513252233688</v>
       </c>
       <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3569,10 +3829,13 @@
           <t>testModels/db/14/m1410/m1410.off</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="I87" t="n">
+        <v>1.323723885002757</v>
       </c>
       <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3605,10 +3868,13 @@
           <t>testModels/db/14/m1411/m1411.off</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>1</v>
+      <c r="I88" t="n">
+        <v>0.642768959615704</v>
       </c>
       <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3641,10 +3907,13 @@
           <t>testModels/db/14/m1412/m1412.off</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="I89" t="n">
+        <v>0.7738656385434007</v>
       </c>
       <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3677,10 +3946,13 @@
           <t>testModels/db/15/m1500/m1500.off</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="I90" t="n">
+        <v>0.6549786956999486</v>
       </c>
       <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3713,10 +3985,13 @@
           <t>testModels/db/15/m1501/m1501.off</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="I91" t="n">
+        <v>0.7422720498921764</v>
       </c>
       <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3749,10 +4024,13 @@
           <t>testModels/db/15/m1502/m1502.off</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="I92" t="n">
+        <v>0.4548392093646955</v>
       </c>
       <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3785,10 +4063,13 @@
           <t>testModels/db/15/m1503/m1503.off</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="I93" t="n">
+        <v>0.3789775151125117</v>
       </c>
       <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3821,10 +4102,13 @@
           <t>testModels/db/15/m1504/m1504.off</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="I94" t="n">
+        <v>0.5468981341886293</v>
       </c>
       <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3857,10 +4141,13 @@
           <t>testModels/db/15/m1505/m1505.off</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="I95" t="n">
+        <v>0.4651962912917554</v>
       </c>
       <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3893,10 +4180,13 @@
           <t>testModels/db/15/m1506/m1506.off</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="I96" t="n">
+        <v>1.560915220978554</v>
       </c>
       <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3929,10 +4219,13 @@
           <t>testModels/db/15/m1507/m1507.off</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="I97" t="n">
+        <v>0.5178890063493991</v>
       </c>
       <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3965,10 +4258,13 @@
           <t>testModels/db/15/m1508/m1508.off</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="I98" t="n">
+        <v>0.5926709516310176</v>
       </c>
       <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4001,10 +4297,13 @@
           <t>testModels/db/15/m1509/m1509.off</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="I99" t="n">
+        <v>0.6414435012033664</v>
       </c>
       <c r="J99" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4037,10 +4336,13 @@
           <t>testModels/db/15/m1510/m1510.off</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="I100" t="n">
+        <v>0.5404144798045344</v>
       </c>
       <c r="J100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4073,10 +4375,13 @@
           <t>testModels/db/15/m1511/m1511.off</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="I101" t="n">
+        <v>0.6713896582725891</v>
       </c>
       <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4109,10 +4414,13 @@
           <t>testModels/db/15/m1512/m1512.off</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="I102" t="n">
+        <v>0.5751799931608572</v>
       </c>
       <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4145,10 +4453,13 @@
           <t>testModels/db/16/m1600/m1600.off</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>1</v>
+      <c r="I103" t="n">
+        <v>0.4938009535455633</v>
       </c>
       <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4181,10 +4492,13 @@
           <t>testModels/db/16/m1601/m1601.off</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
+      <c r="I104" t="n">
+        <v>0.5129148151804925</v>
       </c>
       <c r="J104" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4217,10 +4531,13 @@
           <t>testModels/db/16/m1602/m1602.off</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
+      <c r="I105" t="n">
+        <v>10.65330892710382</v>
       </c>
       <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4253,10 +4570,13 @@
           <t>testModels/db/16/m1603/m1603.off</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>1</v>
+      <c r="I106" t="n">
+        <v>0.4736077918143534</v>
       </c>
       <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4289,10 +4609,13 @@
           <t>testModels/db/16/m1604/m1604.off</t>
         </is>
       </c>
-      <c r="I107" t="b">
-        <v>1</v>
+      <c r="I107" t="n">
+        <v>0.4837704005043448</v>
       </c>
       <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4325,10 +4648,13 @@
           <t>testModels/db/16/m1605/m1605.off</t>
         </is>
       </c>
-      <c r="I108" t="b">
-        <v>1</v>
+      <c r="I108" t="n">
+        <v>0.5900303134020558</v>
       </c>
       <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4361,10 +4687,13 @@
           <t>testModels/db/16/m1606/m1606.off</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
+      <c r="I109" t="n">
+        <v>0.5786225054700455</v>
       </c>
       <c r="J109" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4397,10 +4726,13 @@
           <t>testModels/db/16/m1607/m1607.off</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>1</v>
+      <c r="I110" t="n">
+        <v>9.621629683250177</v>
       </c>
       <c r="J110" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4433,10 +4765,13 @@
           <t>testModels/db/16/m1608/m1608.off</t>
         </is>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
+      <c r="I111" t="n">
+        <v>0.7503495583547535</v>
       </c>
       <c r="J111" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4469,10 +4804,13 @@
           <t>testModels/db/16/m1609/m1609.off</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>1</v>
+      <c r="I112" t="n">
+        <v>0.5293811403815504</v>
       </c>
       <c r="J112" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4505,10 +4843,13 @@
           <t>testModels/db/16/m1610/m1610.off</t>
         </is>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
+      <c r="I113" t="n">
+        <v>0.5935444082093195</v>
       </c>
       <c r="J113" t="b">
+        <v>0</v>
+      </c>
+      <c r="K113" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4541,10 +4882,13 @@
           <t>testModels/db/16/m1611/m1611.off</t>
         </is>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
+      <c r="I114" t="n">
+        <v>0.7198678966021049</v>
       </c>
       <c r="J114" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4577,10 +4921,13 @@
           <t>testModels/db/16/m1612/m1612.off</t>
         </is>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
+      <c r="I115" t="n">
+        <v>4.360426081208259</v>
       </c>
       <c r="J115" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4613,10 +4960,13 @@
           <t>testModels/db/17/m1700/m1700.off</t>
         </is>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
+      <c r="I116" t="n">
+        <v>0.6198455781716755</v>
       </c>
       <c r="J116" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4649,10 +4999,13 @@
           <t>testModels/db/17/m1701/m1701.off</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
+      <c r="I117" t="n">
+        <v>0.7912623713546214</v>
       </c>
       <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4685,10 +5038,13 @@
           <t>testModels/db/17/m1702/m1702.off</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
+      <c r="I118" t="n">
+        <v>0.6476045935389062</v>
       </c>
       <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4721,10 +5077,13 @@
           <t>testModels/db/17/m1703/m1703.off</t>
         </is>
       </c>
-      <c r="I119" t="b">
-        <v>1</v>
+      <c r="I119" t="n">
+        <v>0.74768074137693</v>
       </c>
       <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4757,10 +5116,13 @@
           <t>testModels/db/17/m1704/m1704.off</t>
         </is>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
+      <c r="I120" t="n">
+        <v>0.6565078561121291</v>
       </c>
       <c r="J120" t="b">
+        <v>0</v>
+      </c>
+      <c r="K120" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4793,10 +5155,13 @@
           <t>testModels/db/17/m1705/m1705.off</t>
         </is>
       </c>
-      <c r="I121" t="b">
-        <v>1</v>
+      <c r="I121" t="n">
+        <v>0.5795370022426829</v>
       </c>
       <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4829,10 +5194,13 @@
           <t>testModels/db/17/m1706/m1706.off</t>
         </is>
       </c>
-      <c r="I122" t="b">
-        <v>1</v>
+      <c r="I122" t="n">
+        <v>1.924747619700219</v>
       </c>
       <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4865,10 +5233,13 @@
           <t>testModels/db/17/m1707/m1707.off</t>
         </is>
       </c>
-      <c r="I123" t="b">
-        <v>1</v>
+      <c r="I123" t="n">
+        <v>2.87391802916773</v>
       </c>
       <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4901,10 +5272,13 @@
           <t>testModels/db/17/m1708/m1708.off</t>
         </is>
       </c>
-      <c r="I124" t="b">
-        <v>1</v>
+      <c r="I124" t="n">
+        <v>0.5480399341627323</v>
       </c>
       <c r="J124" t="b">
+        <v>1</v>
+      </c>
+      <c r="K124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4937,10 +5311,13 @@
           <t>testModels/db/17/m1709/m1709.off</t>
         </is>
       </c>
-      <c r="I125" t="b">
-        <v>1</v>
+      <c r="I125" t="n">
+        <v>0.02282710625452686</v>
       </c>
       <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4973,10 +5350,13 @@
           <t>testModels/db/17/m1710/m1710.off</t>
         </is>
       </c>
-      <c r="I126" t="b">
-        <v>1</v>
+      <c r="I126" t="n">
+        <v>0.5770248902467106</v>
       </c>
       <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5009,10 +5389,13 @@
           <t>testModels/db/17/m1711/m1711.off</t>
         </is>
       </c>
-      <c r="I127" t="b">
-        <v>1</v>
+      <c r="I127" t="n">
+        <v>0.5483873210121538</v>
       </c>
       <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5045,10 +5428,13 @@
           <t>testModels/db/17/m1712/m1712.off</t>
         </is>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
+      <c r="I128" t="n">
+        <v>0.5631075208341388</v>
       </c>
       <c r="J128" t="b">
+        <v>0</v>
+      </c>
+      <c r="K128" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5081,10 +5467,13 @@
           <t>testModels/db/18/m1800/m1800.off</t>
         </is>
       </c>
-      <c r="I129" t="b">
-        <v>1</v>
+      <c r="I129" t="n">
+        <v>0.6213244117082173</v>
       </c>
       <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5117,10 +5506,13 @@
           <t>testModels/db/18/m1801/m1801.off</t>
         </is>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
+      <c r="I130" t="n">
+        <v>1.10978267848802</v>
       </c>
       <c r="J130" t="b">
+        <v>0</v>
+      </c>
+      <c r="K130" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5153,10 +5545,13 @@
           <t>testModels/db/18/m1802/m1802.off</t>
         </is>
       </c>
-      <c r="I131" t="b">
-        <v>1</v>
+      <c r="I131" t="n">
+        <v>0.5709874283546265</v>
       </c>
       <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5189,10 +5584,13 @@
           <t>testModels/db/18/m1803/m1803.off</t>
         </is>
       </c>
-      <c r="I132" t="b">
-        <v>1</v>
+      <c r="I132" t="n">
+        <v>3.339593683144616</v>
       </c>
       <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5225,10 +5623,13 @@
           <t>testModels/db/18/m1804/m1804.off</t>
         </is>
       </c>
-      <c r="I133" t="b">
-        <v>1</v>
+      <c r="I133" t="n">
+        <v>0.5727008617910611</v>
       </c>
       <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5261,10 +5662,13 @@
           <t>testModels/db/18/m1805/m1805.off</t>
         </is>
       </c>
-      <c r="I134" t="b">
-        <v>0</v>
+      <c r="I134" t="n">
+        <v>0.3106496813581565</v>
       </c>
       <c r="J134" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5297,10 +5701,13 @@
           <t>testModels/db/18/m1806/m1806.off</t>
         </is>
       </c>
-      <c r="I135" t="b">
-        <v>1</v>
+      <c r="I135" t="n">
+        <v>0.6023279965570014</v>
       </c>
       <c r="J135" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5333,10 +5740,13 @@
           <t>testModels/db/18/m1807/m1807.off</t>
         </is>
       </c>
-      <c r="I136" t="b">
-        <v>0</v>
+      <c r="I136" t="n">
+        <v>0.6667638443153735</v>
       </c>
       <c r="J136" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5369,10 +5779,13 @@
           <t>testModels/db/18/m1808/m1808.off</t>
         </is>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
+      <c r="I137" t="n">
+        <v>0.7098625048574279</v>
       </c>
       <c r="J137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5405,10 +5818,13 @@
           <t>testModels/db/18/m1809/m1809.off</t>
         </is>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
+      <c r="I138" t="n">
+        <v>0.5967372119898237</v>
       </c>
       <c r="J138" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5441,10 +5857,13 @@
           <t>testModels/db/18/m1810/m1810.off</t>
         </is>
       </c>
-      <c r="I139" t="b">
-        <v>1</v>
+      <c r="I139" t="n">
+        <v>0.6526083143767877</v>
       </c>
       <c r="J139" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5477,10 +5896,13 @@
           <t>testModels/db/18/m1811/m1811.off</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>1</v>
+      <c r="I140" t="n">
+        <v>1.476636120981594</v>
       </c>
       <c r="J140" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5513,10 +5935,13 @@
           <t>testModels/db/18/m1812/m1812.off</t>
         </is>
       </c>
-      <c r="I141" t="b">
-        <v>1</v>
+      <c r="I141" t="n">
+        <v>1.103140169297351</v>
       </c>
       <c r="J141" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5549,10 +5974,13 @@
           <t>testModels/db/18/m1813/m1813.off</t>
         </is>
       </c>
-      <c r="I142" t="b">
-        <v>1</v>
+      <c r="I142" t="n">
+        <v>0.7968329866019411</v>
       </c>
       <c r="J142" t="b">
+        <v>1</v>
+      </c>
+      <c r="K142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5585,11 +6013,14 @@
           <t>testModels/db/18/m1814/m1814.off</t>
         </is>
       </c>
-      <c r="I143" t="b">
-        <v>0</v>
+      <c r="I143" t="n">
+        <v>0.7296480297390275</v>
       </c>
       <c r="J143" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -5621,10 +6052,13 @@
           <t>testModels/db/2/m200/m200.off</t>
         </is>
       </c>
-      <c r="I144" t="b">
-        <v>0</v>
+      <c r="I144" t="n">
+        <v>0.2948098828131037</v>
       </c>
       <c r="J144" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5657,10 +6091,13 @@
           <t>testModels/db/2/m201/m201.off</t>
         </is>
       </c>
-      <c r="I145" t="b">
-        <v>0</v>
+      <c r="I145" t="n">
+        <v>0.4995024295394319</v>
       </c>
       <c r="J145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5693,10 +6130,13 @@
           <t>testModels/db/2/m202/m202.off</t>
         </is>
       </c>
-      <c r="I146" t="b">
-        <v>1</v>
+      <c r="I146" t="n">
+        <v>0.5650001280664023</v>
       </c>
       <c r="J146" t="b">
+        <v>1</v>
+      </c>
+      <c r="K146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5729,10 +6169,13 @@
           <t>testModels/db/2/m203/m203.off</t>
         </is>
       </c>
-      <c r="I147" t="b">
-        <v>1</v>
+      <c r="I147" t="n">
+        <v>0.471185126747117</v>
       </c>
       <c r="J147" t="b">
+        <v>1</v>
+      </c>
+      <c r="K147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5765,10 +6208,13 @@
           <t>testModels/db/2/m204/m204.off</t>
         </is>
       </c>
-      <c r="I148" t="b">
-        <v>0</v>
+      <c r="I148" t="n">
+        <v>0.5552728333083351</v>
       </c>
       <c r="J148" t="b">
+        <v>0</v>
+      </c>
+      <c r="K148" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5801,10 +6247,13 @@
           <t>testModels/db/2/m205/m205.off</t>
         </is>
       </c>
-      <c r="I149" t="b">
-        <v>1</v>
+      <c r="I149" t="n">
+        <v>0.6014943298523155</v>
       </c>
       <c r="J149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5837,10 +6286,13 @@
           <t>testModels/db/2/m206/m206.off</t>
         </is>
       </c>
-      <c r="I150" t="b">
-        <v>0</v>
+      <c r="I150" t="n">
+        <v>0.8027768093249181</v>
       </c>
       <c r="J150" t="b">
+        <v>0</v>
+      </c>
+      <c r="K150" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5873,10 +6325,13 @@
           <t>testModels/db/2/m207/m207.off</t>
         </is>
       </c>
-      <c r="I151" t="b">
-        <v>0</v>
+      <c r="I151" t="n">
+        <v>0.7981822167103412</v>
       </c>
       <c r="J151" t="b">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5909,10 +6364,13 @@
           <t>testModels/db/2/m208/m208.off</t>
         </is>
       </c>
-      <c r="I152" t="b">
-        <v>1</v>
+      <c r="I152" t="n">
+        <v>0.6121087592214904</v>
       </c>
       <c r="J152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5945,10 +6403,13 @@
           <t>testModels/db/2/m209/m209.off</t>
         </is>
       </c>
-      <c r="I153" t="b">
-        <v>1</v>
+      <c r="I153" t="n">
+        <v>0.7153164380604121</v>
       </c>
       <c r="J153" t="b">
+        <v>1</v>
+      </c>
+      <c r="K153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5981,10 +6442,13 @@
           <t>testModels/db/2/m210/m210.off</t>
         </is>
       </c>
-      <c r="I154" t="b">
-        <v>1</v>
+      <c r="I154" t="n">
+        <v>0.6634231530029858</v>
       </c>
       <c r="J154" t="b">
+        <v>1</v>
+      </c>
+      <c r="K154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6017,10 +6481,13 @@
           <t>testModels/db/2/m211/m211.off</t>
         </is>
       </c>
-      <c r="I155" t="b">
-        <v>0</v>
+      <c r="I155" t="n">
+        <v>0.585953083725378</v>
       </c>
       <c r="J155" t="b">
+        <v>0</v>
+      </c>
+      <c r="K155" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6053,10 +6520,13 @@
           <t>testModels/db/2/m212/m212.off</t>
         </is>
       </c>
-      <c r="I156" t="b">
-        <v>0</v>
+      <c r="I156" t="n">
+        <v>0.6063492839013889</v>
       </c>
       <c r="J156" t="b">
+        <v>0</v>
+      </c>
+      <c r="K156" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6089,10 +6559,13 @@
           <t>testModels/db/3/m300/m300.off</t>
         </is>
       </c>
-      <c r="I157" t="b">
-        <v>1</v>
+      <c r="I157" t="n">
+        <v>1.275494816908894</v>
       </c>
       <c r="J157" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6125,10 +6598,13 @@
           <t>testModels/db/3/m301/m301.off</t>
         </is>
       </c>
-      <c r="I158" t="b">
-        <v>0</v>
+      <c r="I158" t="n">
+        <v>0.7668358929631715</v>
       </c>
       <c r="J158" t="b">
+        <v>0</v>
+      </c>
+      <c r="K158" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6161,10 +6637,13 @@
           <t>testModels/db/3/m302/m302.off</t>
         </is>
       </c>
-      <c r="I159" t="b">
-        <v>0</v>
+      <c r="I159" t="n">
+        <v>0.6912807370527623</v>
       </c>
       <c r="J159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K159" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6197,10 +6676,13 @@
           <t>testModels/db/3/m303/m303.off</t>
         </is>
       </c>
-      <c r="I160" t="b">
-        <v>0</v>
+      <c r="I160" t="n">
+        <v>0.5819743024468653</v>
       </c>
       <c r="J160" t="b">
+        <v>0</v>
+      </c>
+      <c r="K160" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6233,10 +6715,13 @@
           <t>testModels/db/3/m304/m304.off</t>
         </is>
       </c>
-      <c r="I161" t="b">
-        <v>0</v>
+      <c r="I161" t="n">
+        <v>0.8735197457876698</v>
       </c>
       <c r="J161" t="b">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6269,10 +6754,13 @@
           <t>testModels/db/3/m305/m305.off</t>
         </is>
       </c>
-      <c r="I162" t="b">
-        <v>0</v>
+      <c r="I162" t="n">
+        <v>0.6641498529799693</v>
       </c>
       <c r="J162" t="b">
+        <v>0</v>
+      </c>
+      <c r="K162" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6305,10 +6793,13 @@
           <t>testModels/db/3/m306/m306.off</t>
         </is>
       </c>
-      <c r="I163" t="b">
-        <v>0</v>
+      <c r="I163" t="n">
+        <v>0.9062922246344396</v>
       </c>
       <c r="J163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6341,10 +6832,13 @@
           <t>testModels/db/3/m307/m307.off</t>
         </is>
       </c>
-      <c r="I164" t="b">
-        <v>0</v>
+      <c r="I164" t="n">
+        <v>0.5853048029009464</v>
       </c>
       <c r="J164" t="b">
+        <v>0</v>
+      </c>
+      <c r="K164" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6377,10 +6871,13 @@
           <t>testModels/db/3/m308/m308.off</t>
         </is>
       </c>
-      <c r="I165" t="b">
-        <v>0</v>
+      <c r="I165" t="n">
+        <v>0.2612976627589222</v>
       </c>
       <c r="J165" t="b">
+        <v>0</v>
+      </c>
+      <c r="K165" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6413,10 +6910,13 @@
           <t>testModels/db/3/m309/m309.off</t>
         </is>
       </c>
-      <c r="I166" t="b">
-        <v>0</v>
+      <c r="I166" t="n">
+        <v>0.3047996693557312</v>
       </c>
       <c r="J166" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6449,10 +6949,13 @@
           <t>testModels/db/3/m310/m310.off</t>
         </is>
       </c>
-      <c r="I167" t="b">
-        <v>0</v>
+      <c r="I167" t="n">
+        <v>0.2873133122593487</v>
       </c>
       <c r="J167" t="b">
+        <v>0</v>
+      </c>
+      <c r="K167" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6485,10 +6988,13 @@
           <t>testModels/db/3/m311/m311.off</t>
         </is>
       </c>
-      <c r="I168" t="b">
-        <v>0</v>
+      <c r="I168" t="n">
+        <v>0.2589699424232592</v>
       </c>
       <c r="J168" t="b">
+        <v>0</v>
+      </c>
+      <c r="K168" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6521,10 +7027,13 @@
           <t>testModels/db/3/m312/m312.off</t>
         </is>
       </c>
-      <c r="I169" t="b">
-        <v>0</v>
+      <c r="I169" t="n">
+        <v>0.2677723957968401</v>
       </c>
       <c r="J169" t="b">
+        <v>0</v>
+      </c>
+      <c r="K169" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6557,10 +7066,13 @@
           <t>testModels/db/4/m400/m400.off</t>
         </is>
       </c>
-      <c r="I170" t="b">
-        <v>1</v>
+      <c r="I170" t="n">
+        <v>0.6736874996811439</v>
       </c>
       <c r="J170" t="b">
+        <v>1</v>
+      </c>
+      <c r="K170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6593,10 +7105,13 @@
           <t>testModels/db/4/m401/m401.off</t>
         </is>
       </c>
-      <c r="I171" t="b">
-        <v>0</v>
+      <c r="I171" t="n">
+        <v>0.8512148037298419</v>
       </c>
       <c r="J171" t="b">
+        <v>0</v>
+      </c>
+      <c r="K171" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6629,10 +7144,13 @@
           <t>testModels/db/4/m402/m402.off</t>
         </is>
       </c>
-      <c r="I172" t="b">
-        <v>0</v>
+      <c r="I172" t="n">
+        <v>0.5412540668923238</v>
       </c>
       <c r="J172" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6665,10 +7183,13 @@
           <t>testModels/db/4/m403/m403.off</t>
         </is>
       </c>
-      <c r="I173" t="b">
-        <v>0</v>
+      <c r="I173" t="n">
+        <v>0.7360560226147552</v>
       </c>
       <c r="J173" t="b">
+        <v>0</v>
+      </c>
+      <c r="K173" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6701,11 +7222,14 @@
           <t>testModels/db/4/m404/m404.off</t>
         </is>
       </c>
-      <c r="I174" t="b">
-        <v>0</v>
+      <c r="I174" t="n">
+        <v>0.6062568140491283</v>
       </c>
       <c r="J174" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6737,10 +7261,13 @@
           <t>testModels/db/4/m405/m405.off</t>
         </is>
       </c>
-      <c r="I175" t="b">
-        <v>0</v>
+      <c r="I175" t="n">
+        <v>0.7656466655144938</v>
       </c>
       <c r="J175" t="b">
+        <v>0</v>
+      </c>
+      <c r="K175" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6773,10 +7300,13 @@
           <t>testModels/db/4/m406/m406.off</t>
         </is>
       </c>
-      <c r="I176" t="b">
-        <v>0</v>
+      <c r="I176" t="n">
+        <v>0.5727114092479244</v>
       </c>
       <c r="J176" t="b">
+        <v>0</v>
+      </c>
+      <c r="K176" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6809,10 +7339,13 @@
           <t>testModels/db/4/m407/m407.off</t>
         </is>
       </c>
-      <c r="I177" t="b">
-        <v>1</v>
+      <c r="I177" t="n">
+        <v>0.7388373022554811</v>
       </c>
       <c r="J177" t="b">
+        <v>1</v>
+      </c>
+      <c r="K177" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6845,10 +7378,13 @@
           <t>testModels/db/4/m408/m408.off</t>
         </is>
       </c>
-      <c r="I178" t="b">
-        <v>0</v>
+      <c r="I178" t="n">
+        <v>0.6418806266942023</v>
       </c>
       <c r="J178" t="b">
+        <v>0</v>
+      </c>
+      <c r="K178" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6881,10 +7417,13 @@
           <t>testModels/db/4/m409/m409.off</t>
         </is>
       </c>
-      <c r="I179" t="b">
-        <v>0</v>
+      <c r="I179" t="n">
+        <v>0.633128834637152</v>
       </c>
       <c r="J179" t="b">
+        <v>0</v>
+      </c>
+      <c r="K179" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6917,10 +7456,13 @@
           <t>testModels/db/4/m410/m410.off</t>
         </is>
       </c>
-      <c r="I180" t="b">
-        <v>0</v>
+      <c r="I180" t="n">
+        <v>0.8040751622962321</v>
       </c>
       <c r="J180" t="b">
+        <v>0</v>
+      </c>
+      <c r="K180" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6953,10 +7495,13 @@
           <t>testModels/db/4/m411/m411.off</t>
         </is>
       </c>
-      <c r="I181" t="b">
-        <v>0</v>
+      <c r="I181" t="n">
+        <v>0.5673686192841481</v>
       </c>
       <c r="J181" t="b">
+        <v>0</v>
+      </c>
+      <c r="K181" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6989,10 +7534,13 @@
           <t>testModels/db/4/m412/m412.off</t>
         </is>
       </c>
-      <c r="I182" t="b">
-        <v>0</v>
+      <c r="I182" t="n">
+        <v>0.6055354349551082</v>
       </c>
       <c r="J182" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7025,10 +7573,13 @@
           <t>testModels/db/5/m500/m500.off</t>
         </is>
       </c>
-      <c r="I183" t="b">
-        <v>1</v>
+      <c r="I183" t="n">
+        <v>0.740793984655466</v>
       </c>
       <c r="J183" t="b">
+        <v>1</v>
+      </c>
+      <c r="K183" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7061,11 +7612,14 @@
           <t>testModels/db/5/m501/m501.off</t>
         </is>
       </c>
-      <c r="I184" t="b">
-        <v>0</v>
+      <c r="I184" t="n">
+        <v>0.6588412181605431</v>
       </c>
       <c r="J184" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -7097,10 +7651,13 @@
           <t>testModels/db/5/m502/m502.off</t>
         </is>
       </c>
-      <c r="I185" t="b">
-        <v>1</v>
+      <c r="I185" t="n">
+        <v>0.7246083651851024</v>
       </c>
       <c r="J185" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7133,10 +7690,13 @@
           <t>testModels/db/5/m503/m503.off</t>
         </is>
       </c>
-      <c r="I186" t="b">
-        <v>1</v>
+      <c r="I186" t="n">
+        <v>0.754608296946927</v>
       </c>
       <c r="J186" t="b">
+        <v>1</v>
+      </c>
+      <c r="K186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7169,10 +7729,13 @@
           <t>testModels/db/5/m504/m504.off</t>
         </is>
       </c>
-      <c r="I187" t="b">
-        <v>0</v>
+      <c r="I187" t="n">
+        <v>0.657789951852266</v>
       </c>
       <c r="J187" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7205,10 +7768,13 @@
           <t>testModels/db/5/m505/m505.off</t>
         </is>
       </c>
-      <c r="I188" t="b">
-        <v>0</v>
+      <c r="I188" t="n">
+        <v>0.7704377465745151</v>
       </c>
       <c r="J188" t="b">
+        <v>0</v>
+      </c>
+      <c r="K188" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7241,10 +7807,13 @@
           <t>testModels/db/5/m506/m506.off</t>
         </is>
       </c>
-      <c r="I189" t="b">
-        <v>0</v>
+      <c r="I189" t="n">
+        <v>0.5437897527694318</v>
       </c>
       <c r="J189" t="b">
+        <v>0</v>
+      </c>
+      <c r="K189" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7277,10 +7846,13 @@
           <t>testModels/db/5/m507/m507.off</t>
         </is>
       </c>
-      <c r="I190" t="b">
-        <v>0</v>
+      <c r="I190" t="n">
+        <v>0.5495868890426785</v>
       </c>
       <c r="J190" t="b">
+        <v>0</v>
+      </c>
+      <c r="K190" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7313,11 +7885,14 @@
           <t>testModels/db/5/m508/m508.off</t>
         </is>
       </c>
-      <c r="I191" t="b">
-        <v>0</v>
+      <c r="I191" t="n">
+        <v>0.6214631070286883</v>
       </c>
       <c r="J191" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K191" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -7349,10 +7924,13 @@
           <t>testModels/db/5/m509/m509.off</t>
         </is>
       </c>
-      <c r="I192" t="b">
-        <v>0</v>
+      <c r="I192" t="n">
+        <v>0.689373729035565</v>
       </c>
       <c r="J192" t="b">
+        <v>0</v>
+      </c>
+      <c r="K192" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7385,10 +7963,13 @@
           <t>testModels/db/5/m510/m510.off</t>
         </is>
       </c>
-      <c r="I193" t="b">
-        <v>0</v>
+      <c r="I193" t="n">
+        <v>0.5641498460595107</v>
       </c>
       <c r="J193" t="b">
+        <v>0</v>
+      </c>
+      <c r="K193" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7421,10 +8002,13 @@
           <t>testModels/db/5/m511/m511.off</t>
         </is>
       </c>
-      <c r="I194" t="b">
-        <v>1</v>
+      <c r="I194" t="n">
+        <v>0.9682295669190819</v>
       </c>
       <c r="J194" t="b">
+        <v>1</v>
+      </c>
+      <c r="K194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7457,10 +8041,13 @@
           <t>testModels/db/5/m512/m512.off</t>
         </is>
       </c>
-      <c r="I195" t="b">
-        <v>1</v>
+      <c r="I195" t="n">
+        <v>0.6660548679857683</v>
       </c>
       <c r="J195" t="b">
+        <v>1</v>
+      </c>
+      <c r="K195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7493,10 +8080,13 @@
           <t>testModels/db/6/m600/m600.off</t>
         </is>
       </c>
-      <c r="I196" t="b">
-        <v>0</v>
+      <c r="I196" t="n">
+        <v>0.9975832605519875</v>
       </c>
       <c r="J196" t="b">
+        <v>0</v>
+      </c>
+      <c r="K196" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7529,10 +8119,13 @@
           <t>testModels/db/6/m601/m601.off</t>
         </is>
       </c>
-      <c r="I197" t="b">
-        <v>0</v>
+      <c r="I197" t="n">
+        <v>0.7173779527946508</v>
       </c>
       <c r="J197" t="b">
+        <v>0</v>
+      </c>
+      <c r="K197" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7565,10 +8158,13 @@
           <t>testModels/db/6/m602/m602.off</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>0</v>
+      <c r="I198" t="n">
+        <v>0.7107106887155397</v>
       </c>
       <c r="J198" t="b">
+        <v>0</v>
+      </c>
+      <c r="K198" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7601,10 +8197,13 @@
           <t>testModels/db/6/m603/m603.off</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
+      <c r="I199" t="n">
+        <v>0.8651792668165202</v>
       </c>
       <c r="J199" t="b">
+        <v>1</v>
+      </c>
+      <c r="K199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7637,10 +8236,13 @@
           <t>testModels/db/6/m604/m604.off</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>0</v>
+      <c r="I200" t="n">
+        <v>0.3470908542920413</v>
       </c>
       <c r="J200" t="b">
+        <v>0</v>
+      </c>
+      <c r="K200" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7673,10 +8275,13 @@
           <t>testModels/db/6/m605/m605.off</t>
         </is>
       </c>
-      <c r="I201" t="b">
-        <v>1</v>
+      <c r="I201" t="n">
+        <v>0.4625212177846422</v>
       </c>
       <c r="J201" t="b">
+        <v>1</v>
+      </c>
+      <c r="K201" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7709,10 +8314,13 @@
           <t>testModels/db/6/m606/m606.off</t>
         </is>
       </c>
-      <c r="I202" t="b">
-        <v>1</v>
+      <c r="I202" t="n">
+        <v>0.5287336557623648</v>
       </c>
       <c r="J202" t="b">
+        <v>1</v>
+      </c>
+      <c r="K202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7745,11 +8353,14 @@
           <t>testModels/db/6/m607/m607.off</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>0</v>
+      <c r="I203" t="n">
+        <v>2.97862239633214</v>
       </c>
       <c r="J203" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K203" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -7781,10 +8392,13 @@
           <t>testModels/db/6/m608/m608.off</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
+      <c r="I204" t="n">
+        <v>0.3534369058200094</v>
       </c>
       <c r="J204" t="b">
+        <v>1</v>
+      </c>
+      <c r="K204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7817,10 +8431,13 @@
           <t>testModels/db/6/m609/m609.off</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>0</v>
+      <c r="I205" t="n">
+        <v>0.316434615409602</v>
       </c>
       <c r="J205" t="b">
+        <v>0</v>
+      </c>
+      <c r="K205" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7853,10 +8470,13 @@
           <t>testModels/db/6/m610/m610.off</t>
         </is>
       </c>
-      <c r="I206" t="b">
-        <v>0</v>
+      <c r="I206" t="n">
+        <v>0.7218031856560362</v>
       </c>
       <c r="J206" t="b">
+        <v>0</v>
+      </c>
+      <c r="K206" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7889,10 +8509,13 @@
           <t>testModels/db/6/m611/m611.off</t>
         </is>
       </c>
-      <c r="I207" t="b">
-        <v>1</v>
+      <c r="I207" t="n">
+        <v>0.6517020269898955</v>
       </c>
       <c r="J207" t="b">
+        <v>1</v>
+      </c>
+      <c r="K207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7925,10 +8548,13 @@
           <t>testModels/db/6/m612/m612.off</t>
         </is>
       </c>
-      <c r="I208" t="b">
-        <v>1</v>
+      <c r="I208" t="n">
+        <v>0.6285804801766731</v>
       </c>
       <c r="J208" t="b">
+        <v>1</v>
+      </c>
+      <c r="K208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7961,10 +8587,13 @@
           <t>testModels/db/7/m700/m700.off</t>
         </is>
       </c>
-      <c r="I209" t="b">
-        <v>1</v>
+      <c r="I209" t="n">
+        <v>0.3686454845230034</v>
       </c>
       <c r="J209" t="b">
+        <v>1</v>
+      </c>
+      <c r="K209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7997,11 +8626,14 @@
           <t>testModels/db/7/m701/m701.off</t>
         </is>
       </c>
-      <c r="I210" t="b">
-        <v>0</v>
+      <c r="I210" t="n">
+        <v>0.4205559755155684</v>
       </c>
       <c r="J210" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K210" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -8033,11 +8665,14 @@
           <t>testModels/db/7/m702/m702.off</t>
         </is>
       </c>
-      <c r="I211" t="b">
-        <v>0</v>
+      <c r="I211" t="n">
+        <v>0.261309265844208</v>
       </c>
       <c r="J211" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K211" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -8069,10 +8704,13 @@
           <t>testModels/db/7/m703/m703.off</t>
         </is>
       </c>
-      <c r="I212" t="b">
-        <v>1</v>
+      <c r="I212" t="n">
+        <v>0.4066528654874887</v>
       </c>
       <c r="J212" t="b">
+        <v>1</v>
+      </c>
+      <c r="K212" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8105,10 +8743,13 @@
           <t>testModels/db/7/m704/m704.off</t>
         </is>
       </c>
-      <c r="I213" t="b">
-        <v>1</v>
+      <c r="I213" t="n">
+        <v>0.3426018239453588</v>
       </c>
       <c r="J213" t="b">
+        <v>1</v>
+      </c>
+      <c r="K213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8141,10 +8782,13 @@
           <t>testModels/db/7/m705/m705.off</t>
         </is>
       </c>
-      <c r="I214" t="b">
-        <v>0</v>
+      <c r="I214" t="n">
+        <v>0.3527274951791061</v>
       </c>
       <c r="J214" t="b">
+        <v>0</v>
+      </c>
+      <c r="K214" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8177,10 +8821,13 @@
           <t>testModels/db/7/m706/m706.off</t>
         </is>
       </c>
-      <c r="I215" t="b">
-        <v>0</v>
+      <c r="I215" t="n">
+        <v>1.653113822556624</v>
       </c>
       <c r="J215" t="b">
+        <v>0</v>
+      </c>
+      <c r="K215" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8213,10 +8860,13 @@
           <t>testModels/db/7/m707/m707.off</t>
         </is>
       </c>
-      <c r="I216" t="b">
-        <v>0</v>
+      <c r="I216" t="n">
+        <v>0.3649288564355794</v>
       </c>
       <c r="J216" t="b">
+        <v>0</v>
+      </c>
+      <c r="K216" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8249,10 +8899,13 @@
           <t>testModels/db/7/m708/m708.off</t>
         </is>
       </c>
-      <c r="I217" t="b">
-        <v>0</v>
+      <c r="I217" t="n">
+        <v>0.7192654525196647</v>
       </c>
       <c r="J217" t="b">
+        <v>0</v>
+      </c>
+      <c r="K217" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8285,10 +8938,13 @@
           <t>testModels/db/7/m709/m709.off</t>
         </is>
       </c>
-      <c r="I218" t="b">
-        <v>0</v>
+      <c r="I218" t="n">
+        <v>0.7488291165068052</v>
       </c>
       <c r="J218" t="b">
+        <v>0</v>
+      </c>
+      <c r="K218" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8321,10 +8977,13 @@
           <t>testModels/db/7/m710/m710.off</t>
         </is>
       </c>
-      <c r="I219" t="b">
-        <v>0</v>
+      <c r="I219" t="n">
+        <v>0.5753770261076903</v>
       </c>
       <c r="J219" t="b">
+        <v>0</v>
+      </c>
+      <c r="K219" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8357,10 +9016,13 @@
           <t>testModels/db/7/m711/m711.off</t>
         </is>
       </c>
-      <c r="I220" t="b">
-        <v>0</v>
+      <c r="I220" t="n">
+        <v>0.4361623866390801</v>
       </c>
       <c r="J220" t="b">
+        <v>0</v>
+      </c>
+      <c r="K220" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8393,10 +9055,13 @@
           <t>testModels/db/7/m712/m712.off</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>0</v>
+      <c r="I221" t="n">
+        <v>0.6908561025698483</v>
       </c>
       <c r="J221" t="b">
+        <v>0</v>
+      </c>
+      <c r="K221" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8429,10 +9094,13 @@
           <t>testModels/db/8/m800/m800.off</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
+      <c r="I222" t="n">
+        <v>0.7793533532512145</v>
       </c>
       <c r="J222" t="b">
+        <v>1</v>
+      </c>
+      <c r="K222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8465,10 +9133,13 @@
           <t>testModels/db/8/m801/m801.off</t>
         </is>
       </c>
-      <c r="I223" t="b">
-        <v>0</v>
+      <c r="I223" t="n">
+        <v>0.6294068538400275</v>
       </c>
       <c r="J223" t="b">
+        <v>0</v>
+      </c>
+      <c r="K223" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8501,10 +9172,13 @@
           <t>testModels/db/8/m802/m802.off</t>
         </is>
       </c>
-      <c r="I224" t="b">
-        <v>1</v>
+      <c r="I224" t="n">
+        <v>2.610747824521273</v>
       </c>
       <c r="J224" t="b">
+        <v>1</v>
+      </c>
+      <c r="K224" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8537,10 +9211,13 @@
           <t>testModels/db/8/m803/m803.off</t>
         </is>
       </c>
-      <c r="I225" t="b">
-        <v>0</v>
+      <c r="I225" t="n">
+        <v>7.079580740501704</v>
       </c>
       <c r="J225" t="b">
+        <v>0</v>
+      </c>
+      <c r="K225" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8573,10 +9250,13 @@
           <t>testModels/db/8/m804/m804.off</t>
         </is>
       </c>
-      <c r="I226" t="b">
-        <v>1</v>
+      <c r="I226" t="n">
+        <v>0.6460485190928317</v>
       </c>
       <c r="J226" t="b">
+        <v>1</v>
+      </c>
+      <c r="K226" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8609,10 +9289,13 @@
           <t>testModels/db/8/m805/m805.off</t>
         </is>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
+      <c r="I227" t="n">
+        <v>0.7962567321333174</v>
       </c>
       <c r="J227" t="b">
+        <v>1</v>
+      </c>
+      <c r="K227" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8645,10 +9328,13 @@
           <t>testModels/db/8/m806/m806.off</t>
         </is>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
+      <c r="I228" t="n">
+        <v>0.6268887507624301</v>
       </c>
       <c r="J228" t="b">
+        <v>1</v>
+      </c>
+      <c r="K228" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8681,10 +9367,13 @@
           <t>testModels/db/8/m807/m807.off</t>
         </is>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
+      <c r="I229" t="n">
+        <v>0.6331449943282442</v>
       </c>
       <c r="J229" t="b">
+        <v>1</v>
+      </c>
+      <c r="K229" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8717,10 +9406,13 @@
           <t>testModels/db/8/m808/m808.off</t>
         </is>
       </c>
-      <c r="I230" t="b">
-        <v>1</v>
+      <c r="I230" t="n">
+        <v>21.10832560523566</v>
       </c>
       <c r="J230" t="b">
+        <v>1</v>
+      </c>
+      <c r="K230" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8753,10 +9445,13 @@
           <t>testModels/db/8/m809/m809.off</t>
         </is>
       </c>
-      <c r="I231" t="b">
-        <v>1</v>
+      <c r="I231" t="n">
+        <v>0.4423214917244146</v>
       </c>
       <c r="J231" t="b">
+        <v>1</v>
+      </c>
+      <c r="K231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8789,10 +9484,13 @@
           <t>testModels/db/8/m810/m810.off</t>
         </is>
       </c>
-      <c r="I232" t="b">
-        <v>1</v>
+      <c r="I232" t="n">
+        <v>0.5584035751321208</v>
       </c>
       <c r="J232" t="b">
+        <v>1</v>
+      </c>
+      <c r="K232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8825,10 +9523,13 @@
           <t>testModels/db/8/m811/m811.off</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
+      <c r="I233" t="n">
+        <v>1.104476624916185</v>
       </c>
       <c r="J233" t="b">
+        <v>1</v>
+      </c>
+      <c r="K233" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8861,10 +9562,13 @@
           <t>testModels/db/8/m812/m812.off</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
+      <c r="I234" t="n">
+        <v>1.210301467677619</v>
       </c>
       <c r="J234" t="b">
+        <v>1</v>
+      </c>
+      <c r="K234" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8897,10 +9601,13 @@
           <t>testModels/db/9/m900/m900.off</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
+      <c r="I235" t="n">
+        <v>0.8150144859999663</v>
       </c>
       <c r="J235" t="b">
+        <v>1</v>
+      </c>
+      <c r="K235" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8933,10 +9640,13 @@
           <t>testModels/db/9/m901/m901.off</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
+      <c r="I236" t="n">
+        <v>0.8683544604370087</v>
       </c>
       <c r="J236" t="b">
+        <v>1</v>
+      </c>
+      <c r="K236" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8969,10 +9679,13 @@
           <t>testModels/db/9/m902/m902.off</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
+      <c r="I237" t="n">
+        <v>0.7204514683276981</v>
       </c>
       <c r="J237" t="b">
+        <v>1</v>
+      </c>
+      <c r="K237" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9005,10 +9718,13 @@
           <t>testModels/db/9/m903/m903.off</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
+      <c r="I238" t="n">
+        <v>0.6354507231863391</v>
       </c>
       <c r="J238" t="b">
+        <v>1</v>
+      </c>
+      <c r="K238" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9041,10 +9757,13 @@
           <t>testModels/db/9/m904/m904.off</t>
         </is>
       </c>
-      <c r="I239" t="b">
-        <v>1</v>
+      <c r="I239" t="n">
+        <v>0.4239753447226846</v>
       </c>
       <c r="J239" t="b">
+        <v>1</v>
+      </c>
+      <c r="K239" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9077,10 +9796,13 @@
           <t>testModels/db/9/m905/m905.off</t>
         </is>
       </c>
-      <c r="I240" t="b">
-        <v>1</v>
+      <c r="I240" t="n">
+        <v>1.950102583589145</v>
       </c>
       <c r="J240" t="b">
+        <v>1</v>
+      </c>
+      <c r="K240" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9113,10 +9835,13 @@
           <t>testModels/db/9/m906/m906.off</t>
         </is>
       </c>
-      <c r="I241" t="b">
-        <v>1</v>
+      <c r="I241" t="n">
+        <v>0.6503986406336092</v>
       </c>
       <c r="J241" t="b">
+        <v>1</v>
+      </c>
+      <c r="K241" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9149,10 +9874,13 @@
           <t>testModels/db/9/m907/m907.off</t>
         </is>
       </c>
-      <c r="I242" t="b">
-        <v>1</v>
+      <c r="I242" t="n">
+        <v>35.60583620048602</v>
       </c>
       <c r="J242" t="b">
+        <v>1</v>
+      </c>
+      <c r="K242" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9185,10 +9913,13 @@
           <t>testModels/db/9/m908/m908.off</t>
         </is>
       </c>
-      <c r="I243" t="b">
-        <v>1</v>
+      <c r="I243" t="n">
+        <v>0.6806853857961497</v>
       </c>
       <c r="J243" t="b">
+        <v>1</v>
+      </c>
+      <c r="K243" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9221,10 +9952,13 @@
           <t>testModels/db/9/m909/m909.off</t>
         </is>
       </c>
-      <c r="I244" t="b">
-        <v>0</v>
+      <c r="I244" t="n">
+        <v>0.736009067081599</v>
       </c>
       <c r="J244" t="b">
+        <v>0</v>
+      </c>
+      <c r="K244" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9257,10 +9991,13 @@
           <t>testModels/db/9/m910/m910.off</t>
         </is>
       </c>
-      <c r="I245" t="b">
-        <v>1</v>
+      <c r="I245" t="n">
+        <v>2.068818970307112</v>
       </c>
       <c r="J245" t="b">
+        <v>1</v>
+      </c>
+      <c r="K245" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9293,10 +10030,13 @@
           <t>testModels/db/9/m911/m911.off</t>
         </is>
       </c>
-      <c r="I246" t="b">
-        <v>1</v>
+      <c r="I246" t="n">
+        <v>14.53512791946737</v>
       </c>
       <c r="J246" t="b">
+        <v>1</v>
+      </c>
+      <c r="K246" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9329,10 +10069,13 @@
           <t>testModels/db/9/m912/m912.off</t>
         </is>
       </c>
-      <c r="I247" t="b">
-        <v>1</v>
+      <c r="I247" t="n">
+        <v>0.7344602083317461</v>
       </c>
       <c r="J247" t="b">
+        <v>1</v>
+      </c>
+      <c r="K247" t="b">
         <v>0</v>
       </c>
     </row>

--- a/features/original.xlsx
+++ b/features/original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K247"/>
+  <dimension ref="A1:L247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,15 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>distance_barycentre</t>
+          <t>center_mass</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>subsampled_outlier</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>supersampled_outlier</t>
         </is>
@@ -514,13 +519,18 @@
           <t>testModels/db/0/m0/m0.off</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>0.5833692785551206</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[0.3338  0.27524 0.39134]</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.30655993840855</v>
       </c>
       <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,13 +563,18 @@
           <t>testModels/db/0/m1/m1.off</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>0.4551239187853133</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[0.22685 0.21716 0.32942]</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.13669153135125</v>
       </c>
       <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -592,13 +607,18 @@
           <t>testModels/db/0/m2/m2.off</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>0.5509480836102678</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0.32096 0.26085 0.36399]</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2757459366555</v>
       </c>
       <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -631,13 +651,18 @@
           <t>testModels/db/0/m3/m3.off</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>0.7138964227799601</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[0.4796  0.31391 0.42554]</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4575223871524</v>
       </c>
       <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -670,13 +695,18 @@
           <t>testModels/db/0/m4/m4.off</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>0.7167299028897499</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[ 0.12036 -0.70121 -0.08675]</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0.15520719289875</v>
       </c>
       <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -709,13 +739,18 @@
           <t>testModels/db/0/m5/m5.off</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>0.5891684456837839</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[0.31276 0.28692 0.40863]</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2412601344584</v>
       </c>
       <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -748,13 +783,18 @@
           <t>testModels/db/0/m6/m6.off</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>0.7350670881757851</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[0.34655 0.47303 0.44325]</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4137792986902</v>
       </c>
       <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -787,13 +827,18 @@
           <t>testModels/db/0/m7/m7.off</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>0.6769725559850669</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[0.2996  0.37981 0.47358]</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2864681436477</v>
       </c>
       <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -826,13 +871,18 @@
           <t>testModels/db/0/m8/m8.off</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>0.6975254655816926</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[0.26053 0.51883 0.38664]</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3486246117801</v>
       </c>
       <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -865,13 +915,18 @@
           <t>testModels/db/0/m9/m9.off</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>11.0604390210595</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[ 0.50194 11.04056  0.43287]</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0.35013334705725</v>
       </c>
       <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -904,13 +959,18 @@
           <t>testModels/db/1/m100/m100.off</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>0.617230475763601</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[0.2914  0.2242  0.49578]</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0.21949979381205</v>
       </c>
       <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -943,13 +1003,18 @@
           <t>testModels/db/1/m101/m101.off</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>0.8750635992922768</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[0.21684 0.47747 0.70053]</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0.2406917928752999</v>
       </c>
       <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -982,13 +1047,18 @@
           <t>testModels/db/1/m102/m102.off</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>0.5797146577155331</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[0.21525 0.26477 0.46865]</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1520326298799</v>
       </c>
       <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1021,13 +1091,18 @@
           <t>testModels/db/1/m103/m103.off</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>0.7798726009303663</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[0.1426  0.62842 0.43926]</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.14984652717595</v>
       </c>
       <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1060,13 +1135,18 @@
           <t>testModels/db/1/m104/m104.off</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>0.7004238388061579</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[0.49539 0.47059 0.15403]</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1849215228111</v>
       </c>
       <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1099,13 +1179,18 @@
           <t>testModels/db/1/m105/m105.off</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>0.720381260007417</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[0.15    0.5408  0.45165]</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0.21408164502945</v>
       </c>
       <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1138,13 +1223,18 @@
           <t>testModels/db/1/m106/m106.off</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>0.7169114809430549</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[0.12361 0.38183 0.59404]</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0.11349285504</v>
       </c>
       <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1177,13 +1267,18 @@
           <t>testModels/db/1/m107/m107.off</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>0.7041051577722928</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[0.14444 0.52042 0.45173]</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1958584251483</v>
       </c>
       <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1216,13 +1311,18 @@
           <t>testModels/db/1/m108/m108.off</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>0.7883864757508037</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[0.57152 0.5199  0.15692]</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2158320410406</v>
       </c>
       <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1255,13 +1355,18 @@
           <t>testModels/db/1/m109/m109.off</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>0.5665445074166562</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[0.39722 0.31741 0.24988]</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3382912707369999</v>
       </c>
       <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1294,13 +1399,18 @@
           <t>testModels/db/1/m110/m110.off</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>0.5943193461023402</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[0.24707 0.31258 0.44098]</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2939200007275</v>
       </c>
       <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1333,13 +1443,18 @@
           <t>testModels/db/1/m111/m111.off</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>0.5773744061375005</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[0.21977 0.3188  0.42829]</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0.24167553026045</v>
       </c>
       <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1372,13 +1487,18 @@
           <t>testModels/db/1/m112/m112.off</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>0.8421914177505204</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[0.45673 0.63818 0.30562]</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5465292191511999</v>
       </c>
       <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1411,13 +1531,18 @@
           <t>testModels/db/10/m1000/m1000.off</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>0.9287522775164535</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[ 0.50971 -0.60521  0.48632]</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0.6396504912319999</v>
       </c>
       <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1450,13 +1575,18 @@
           <t>testModels/db/10/m1001/m1001.off</t>
         </is>
       </c>
-      <c r="I26" t="n">
-        <v>0.5665998934600771</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[0.35437 0.26538 0.3536 ]</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0.36339438</v>
       </c>
       <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1489,13 +1619,18 @@
           <t>testModels/db/10/m1002/m1002.off</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>36.76001108224993</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[  0.93078 -36.67351   2.3422 ]</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0.6687993559893</v>
       </c>
       <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1528,13 +1663,18 @@
           <t>testModels/db/10/m1003/m1003.off</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>2.829112919506064</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[0.45072 2.7656  0.39009]</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8344160736335999</v>
       </c>
       <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1567,13 +1707,18 @@
           <t>testModels/db/10/m1004/m1004.off</t>
         </is>
       </c>
-      <c r="I29" t="n">
-        <v>1.60035386373809</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[0.38301 1.54942 0.11717]</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0.58610156302355</v>
       </c>
       <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1606,13 +1751,18 @@
           <t>testModels/db/10/m1005/m1005.off</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>3.047092386015169</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[ 0.25235 -3.02591  0.25488]</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0.20376973537075</v>
       </c>
       <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1645,13 +1795,18 @@
           <t>testModels/db/10/m1006/m1006.off</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>1.876525832695281</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[0.6961  1.57667 0.74224]</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4711576637420999</v>
       </c>
       <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1684,13 +1839,18 @@
           <t>testModels/db/10/m1007/m1007.off</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>14.94397686443064</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[  0.64605 -14.89311  -1.04891]</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0.50159135133015</v>
       </c>
       <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1723,13 +1883,18 @@
           <t>testModels/db/10/m1008/m1008.off</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>0.4602829826751681</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[ 0.37225 -0.08517  0.25697]</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0.6686612839449999</v>
       </c>
       <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1762,13 +1927,18 @@
           <t>testModels/db/10/m1009/m1009.off</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>2.312477163242846</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[ 0.35391 -2.25266  0.38447]</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3602333179622</v>
       </c>
       <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1801,13 +1971,18 @@
           <t>testModels/db/10/m1010/m1010.off</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>2.218883589454054</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[0.50137 2.125   0.39554]</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0.4932343272991999</v>
       </c>
       <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1840,13 +2015,18 @@
           <t>testModels/db/10/m1011/m1011.off</t>
         </is>
       </c>
-      <c r="I36" t="n">
-        <v>1.40129883032089</v>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[ 0.46551 -1.25139  0.42539]</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0.66857728021875</v>
       </c>
       <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1879,13 +2059,18 @@
           <t>testModels/db/10/m1012/m1012.off</t>
         </is>
       </c>
-      <c r="I37" t="n">
-        <v>6.697467331631407</v>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[ 0.04165 -6.66756  0.6309 ]</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0.4852904050862999</v>
       </c>
       <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1918,13 +2103,18 @@
           <t>testModels/db/11/m1100/m1100.off</t>
         </is>
       </c>
-      <c r="I38" t="n">
-        <v>0.5374154606745417</v>
-      </c>
-      <c r="J38" t="b">
-        <v>1</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[0.12992 0.49669 0.15885]</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0358110831519</v>
       </c>
       <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1957,13 +2147,18 @@
           <t>testModels/db/11/m1101/m1101.off</t>
         </is>
       </c>
-      <c r="I39" t="n">
-        <v>0.5894297571576562</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[0.12567 0.57442 0.04093]</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0.00567314313805</v>
       </c>
       <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1996,13 +2191,18 @@
           <t>testModels/db/11/m1102/m1102.off</t>
         </is>
       </c>
-      <c r="I40" t="n">
-        <v>0.6681650375107182</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[0.11303 0.6575  0.03694]</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.005296771457279999</v>
       </c>
       <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2035,13 +2235,18 @@
           <t>testModels/db/11/m1103/m1103.off</t>
         </is>
       </c>
-      <c r="I41" t="n">
-        <v>0.7051657940854634</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[0.11172 0.69397 0.05637]</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0.007662401278960001</v>
       </c>
       <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2074,13 +2279,18 @@
           <t>testModels/db/11/m1104/m1104.off</t>
         </is>
       </c>
-      <c r="I42" t="n">
-        <v>0.5468003297544165</v>
-      </c>
-      <c r="J42" t="b">
-        <v>1</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[0.15579 0.52193 0.04802]</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01177359342705</v>
       </c>
       <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2113,13 +2323,18 @@
           <t>testModels/db/11/m1105/m1105.off</t>
         </is>
       </c>
-      <c r="I43" t="n">
-        <v>0.6450712313608011</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[0.61554 0.18221 0.06342]</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0.0176481641208</v>
       </c>
       <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2152,13 +2367,18 @@
           <t>testModels/db/11/m1106/m1106.off</t>
         </is>
       </c>
-      <c r="I44" t="n">
-        <v>0.4422728383787655</v>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[0.40875 0.16021 0.05349]</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0.014774983832475</v>
       </c>
       <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2191,13 +2411,18 @@
           <t>testModels/db/11/m1107/m1107.off</t>
         </is>
       </c>
-      <c r="I45" t="n">
-        <v>0.5086847653847676</v>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[ 0.26337 -0.12316  0.4174 ]</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0.0201794797352</v>
       </c>
       <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2230,13 +2455,18 @@
           <t>testModels/db/11/m1108/m1108.off</t>
         </is>
       </c>
-      <c r="I46" t="n">
-        <v>2.66430241025552</v>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[ 0.70123 -2.56917  0.07835]</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0.03613536741282</v>
       </c>
       <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2269,13 +2499,18 @@
           <t>testModels/db/11/m1109/m1109.off</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>555.5409493419526</v>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[ -0.74986 555.48224  -8.04175]</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0.07049502607000001</v>
       </c>
       <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2308,13 +2543,18 @@
           <t>testModels/db/11/m1110/m1110.off</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>0.5298898577961842</v>
-      </c>
-      <c r="J48" t="b">
-        <v>1</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[0.0859  0.47746 0.21317]</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0.04253667849274999</v>
       </c>
       <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2347,13 +2587,18 @@
           <t>testModels/db/11/m1111/m1111.off</t>
         </is>
       </c>
-      <c r="I49" t="n">
-        <v>0.5934552605671437</v>
-      </c>
-      <c r="J49" t="b">
-        <v>1</v>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[0.18684 0.55625 0.08871]</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0555498363525</v>
       </c>
       <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2386,13 +2631,18 @@
           <t>testModels/db/11/m1112/m1112.off</t>
         </is>
       </c>
-      <c r="I50" t="n">
-        <v>3.475545362880868</v>
-      </c>
-      <c r="J50" t="b">
-        <v>1</v>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[-0.07558 -3.47315 -0.10452]</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>0.03610291686859999</v>
       </c>
       <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2425,13 +2675,18 @@
           <t>testModels/db/12/m1200/m1200.off</t>
         </is>
       </c>
-      <c r="I51" t="n">
-        <v>0.5612599461755092</v>
-      </c>
-      <c r="J51" t="b">
-        <v>1</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[0.25469 0.07518 0.49447]</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>0.12001996886445</v>
       </c>
       <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2464,13 +2719,18 @@
           <t>testModels/db/12/m1201/m1201.off</t>
         </is>
       </c>
-      <c r="I52" t="n">
-        <v>0.3580824644805655</v>
-      </c>
-      <c r="J52" t="b">
-        <v>0</v>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[ 0.34536 -0.08818 -0.03426]</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1842149637729</v>
       </c>
       <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2503,13 +2763,18 @@
           <t>testModels/db/12/m1202/m1202.off</t>
         </is>
       </c>
-      <c r="I53" t="n">
-        <v>0.5499636795036806</v>
-      </c>
-      <c r="J53" t="b">
-        <v>1</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[0.29561 0.07745 0.45725]</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1072671295525</v>
       </c>
       <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2542,13 +2807,18 @@
           <t>testModels/db/12/m1203/m1203.off</t>
         </is>
       </c>
-      <c r="I54" t="n">
-        <v>0.6285065483059072</v>
-      </c>
-      <c r="J54" t="b">
-        <v>1</v>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[0.25843 0.56094 0.11652]</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>0.11261987743</v>
       </c>
       <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2581,13 +2851,18 @@
           <t>testModels/db/12/m1204/m1204.off</t>
         </is>
       </c>
-      <c r="I55" t="n">
-        <v>0.6605424659875109</v>
-      </c>
-      <c r="J55" t="b">
-        <v>1</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[0.34597 0.11028 0.55178]</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>0.1879373359802</v>
       </c>
       <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2620,13 +2895,18 @@
           <t>testModels/db/12/m1205/m1205.off</t>
         </is>
       </c>
-      <c r="I56" t="n">
-        <v>2.767969582236098</v>
-      </c>
-      <c r="J56" t="b">
-        <v>1</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[0.48671 2.71782 0.19551]</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>0.1366358164875</v>
       </c>
       <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2659,13 +2939,18 @@
           <t>testModels/db/12/m1206/m1206.off</t>
         </is>
       </c>
-      <c r="I57" t="n">
-        <v>0.5692872062278712</v>
-      </c>
-      <c r="J57" t="b">
-        <v>1</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[0.43004 0.07646 0.36512]</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1560866223667202</v>
       </c>
       <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2698,13 +2983,18 @@
           <t>testModels/db/12/m1207/m1207.off</t>
         </is>
       </c>
-      <c r="I58" t="n">
-        <v>0.7885412833955276</v>
-      </c>
-      <c r="J58" t="b">
-        <v>1</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[0.71366 0.07172 0.32764]</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>0.04203211683450001</v>
       </c>
       <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2737,13 +3027,18 @@
           <t>testModels/db/12/m1208/m1208.off</t>
         </is>
       </c>
-      <c r="I59" t="n">
-        <v>0.8508020822459635</v>
-      </c>
-      <c r="J59" t="b">
-        <v>1</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[0.34902 0.1261  0.76561]</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0.12773090537</v>
       </c>
       <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2776,13 +3071,18 @@
           <t>testModels/db/12/m1209/m1209.off</t>
         </is>
       </c>
-      <c r="I60" t="n">
-        <v>0.7126481134184162</v>
-      </c>
-      <c r="J60" t="b">
-        <v>1</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[0.50031 0.09729 0.49809]</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>0.216677963555</v>
       </c>
       <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2815,13 +3115,18 @@
           <t>testModels/db/12/m1210/m1210.off</t>
         </is>
       </c>
-      <c r="I61" t="n">
-        <v>0.206089011229017</v>
-      </c>
-      <c r="J61" t="b">
-        <v>1</v>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[0.19287 0.02987 0.06621]</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0.124648111575</v>
       </c>
       <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2854,13 +3159,18 @@
           <t>testModels/db/12/m1211/m1211.off</t>
         </is>
       </c>
-      <c r="I62" t="n">
-        <v>2.812198903068106</v>
-      </c>
-      <c r="J62" t="b">
-        <v>1</v>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[ 0.62244  0.43605 -2.70756]</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>0.2484029286024999</v>
       </c>
       <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2893,13 +3203,18 @@
           <t>testModels/db/12/m1212/m1212.off</t>
         </is>
       </c>
-      <c r="I63" t="n">
-        <v>2.017612802001679</v>
-      </c>
-      <c r="J63" t="b">
-        <v>0</v>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[0.56637 0.27271 1.91719]</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>0.1672867212288</v>
       </c>
       <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2932,13 +3247,18 @@
           <t>testModels/db/13/m1300/m1300.off</t>
         </is>
       </c>
-      <c r="I64" t="n">
-        <v>0.5890943699485118</v>
-      </c>
-      <c r="J64" t="b">
-        <v>1</v>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[0.37423 0.03826 0.45334]</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0.09872842770584998</v>
       </c>
       <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2971,13 +3291,18 @@
           <t>testModels/db/13/m1301/m1301.off</t>
         </is>
       </c>
-      <c r="I65" t="n">
-        <v>0.5552752156943827</v>
-      </c>
-      <c r="J65" t="b">
-        <v>1</v>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[0.33701 0.06132 0.43703]</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0.066256415535</v>
       </c>
       <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3010,13 +3335,18 @@
           <t>testModels/db/13/m1302/m1302.off</t>
         </is>
       </c>
-      <c r="I66" t="n">
-        <v>0.3319983216080078</v>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[0.09855 0.11776 0.29435]</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0470046237255</v>
       </c>
       <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3049,13 +3379,18 @@
           <t>testModels/db/13/m1303/m1303.off</t>
         </is>
       </c>
-      <c r="I67" t="n">
-        <v>1.117499070233687</v>
-      </c>
-      <c r="J67" t="b">
-        <v>1</v>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[ 0.53583 -0.95418  0.22636]</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>0.1985021710586999</v>
       </c>
       <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3088,13 +3423,18 @@
           <t>testModels/db/13/m1304/m1304.off</t>
         </is>
       </c>
-      <c r="I68" t="n">
-        <v>0.6405115886122699</v>
-      </c>
-      <c r="J68" t="b">
-        <v>0</v>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[0.1422  0.19537 0.59318]</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0.07990405931970002</v>
       </c>
       <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3127,13 +3467,18 @@
           <t>testModels/db/13/m1305/m1305.off</t>
         </is>
       </c>
-      <c r="I69" t="n">
-        <v>0.6219743019925619</v>
-      </c>
-      <c r="J69" t="b">
-        <v>0</v>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[0.60234 0.1217  0.09605]</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0331246069806</v>
       </c>
       <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3166,13 +3511,18 @@
           <t>testModels/db/13/m1306/m1306.off</t>
         </is>
       </c>
-      <c r="I70" t="n">
-        <v>1.636563159574256</v>
-      </c>
-      <c r="J70" t="b">
-        <v>0</v>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[0.39563 0.15965 1.57998]</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1974030053342999</v>
       </c>
       <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3205,13 +3555,18 @@
           <t>testModels/db/13/m1307/m1307.off</t>
         </is>
       </c>
-      <c r="I71" t="n">
-        <v>0.8687734293818027</v>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[0.37587 0.14934 0.76889]</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>0.2160193265505</v>
       </c>
       <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3244,13 +3599,18 @@
           <t>testModels/db/13/m1308/m1308.off</t>
         </is>
       </c>
-      <c r="I72" t="n">
-        <v>0.6345127315821533</v>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[0.43055 0.11464 0.45177]</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0.19138752451875</v>
       </c>
       <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3283,13 +3643,18 @@
           <t>testModels/db/13/m1309/m1309.off</t>
         </is>
       </c>
-      <c r="I73" t="n">
-        <v>0.4346234580226721</v>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[ 0.41695 -0.02927  0.11915]</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>0.14159001367225</v>
       </c>
       <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3322,13 +3687,18 @@
           <t>testModels/db/13/m1310/m1310.off</t>
         </is>
       </c>
-      <c r="I74" t="n">
-        <v>0.7370804741394653</v>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[0.40898 0.11903 0.60155]</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>0.1952923078799999</v>
       </c>
       <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3361,13 +3731,18 @@
           <t>testModels/db/13/m1311/m1311.off</t>
         </is>
       </c>
-      <c r="I75" t="n">
-        <v>0.6822714190403661</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[0.44071 0.09476 0.51214]</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>0.1431480521615</v>
       </c>
       <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3400,13 +3775,18 @@
           <t>testModels/db/13/m1312/m1312.off</t>
         </is>
       </c>
-      <c r="I76" t="n">
-        <v>0.5996034562190253</v>
-      </c>
-      <c r="J76" t="b">
-        <v>1</v>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[0.5001  0.17761 0.27906]</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>0.2215414359629999</v>
       </c>
       <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3439,13 +3819,18 @@
           <t>testModels/db/14/m1400/m1400.off</t>
         </is>
       </c>
-      <c r="I77" t="n">
-        <v>1.16974626638147</v>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[0.32759 1.11689 0.11637]</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2061737382922</v>
       </c>
       <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3478,13 +3863,18 @@
           <t>testModels/db/14/m1401/m1401.off</t>
         </is>
       </c>
-      <c r="I78" t="n">
-        <v>0.6404811368568801</v>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[0.39782 0.37775 0.33055]</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>0.585685399061</v>
       </c>
       <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3517,13 +3907,18 @@
           <t>testModels/db/14/m1402/m1402.off</t>
         </is>
       </c>
-      <c r="I79" t="n">
-        <v>3.564486434977824</v>
-      </c>
-      <c r="J79" t="b">
-        <v>1</v>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[ 0.16796 -1.03949 -3.40541]</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5856046431026</v>
       </c>
       <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3556,13 +3951,18 @@
           <t>testModels/db/14/m1403/m1403.off</t>
         </is>
       </c>
-      <c r="I80" t="n">
-        <v>0.819742337942043</v>
-      </c>
-      <c r="J80" t="b">
-        <v>1</v>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[ 0.5     -0.19756 -0.61883]</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4645027603037999</v>
       </c>
       <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3595,13 +3995,18 @@
           <t>testModels/db/14/m1404/m1404.off</t>
         </is>
       </c>
-      <c r="I81" t="n">
-        <v>0.6586212464423078</v>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[0.3211  0.23671 0.52407]</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>0.2329240077266</v>
       </c>
       <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3634,13 +4039,18 @@
           <t>testModels/db/14/m1405/m1405.off</t>
         </is>
       </c>
-      <c r="I82" t="n">
-        <v>0.3613023257726861</v>
-      </c>
-      <c r="J82" t="b">
-        <v>1</v>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[ 0.3599  -0.03094 -0.00716]</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5865306699874999</v>
       </c>
       <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3673,13 +4083,18 @@
           <t>testModels/db/14/m1406/m1406.off</t>
         </is>
       </c>
-      <c r="I83" t="n">
-        <v>0.8639761027006455</v>
-      </c>
-      <c r="J83" t="b">
-        <v>1</v>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[-0.66915 -0.02081 -0.54613]</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>0.0841694023968</v>
       </c>
       <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3712,13 +4127,18 @@
           <t>testModels/db/14/m1407/m1407.off</t>
         </is>
       </c>
-      <c r="I84" t="n">
-        <v>0.8382463080197116</v>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[0.4194  0.712   0.14076]</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>0.17019194710475</v>
       </c>
       <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3751,13 +4171,18 @@
           <t>testModels/db/14/m1408/m1408.off</t>
         </is>
       </c>
-      <c r="I85" t="n">
-        <v>0.5546446857438891</v>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[0.42832 0.17937 0.30331]</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>0.24976478682495</v>
       </c>
       <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3790,13 +4215,18 @@
           <t>testModels/db/14/m1409/m1409.off</t>
         </is>
       </c>
-      <c r="I86" t="n">
-        <v>1.287513252233688</v>
-      </c>
-      <c r="J86" t="b">
-        <v>1</v>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[-0.07785  0.8428   0.97021]</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>0.1642592688858</v>
       </c>
       <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3829,13 +4259,18 @@
           <t>testModels/db/14/m1410/m1410.off</t>
         </is>
       </c>
-      <c r="I87" t="n">
-        <v>1.323723885002757</v>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[-0.36698 -1.20374 -0.41057]</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>0.1278829525601129</v>
       </c>
       <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3868,13 +4303,18 @@
           <t>testModels/db/14/m1411/m1411.off</t>
         </is>
       </c>
-      <c r="I88" t="n">
-        <v>0.642768959615704</v>
-      </c>
-      <c r="J88" t="b">
-        <v>1</v>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[0.60142 0.16156 0.15921]</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0939039850931</v>
       </c>
       <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3907,13 +4347,18 @@
           <t>testModels/db/14/m1412/m1412.off</t>
         </is>
       </c>
-      <c r="I89" t="n">
-        <v>0.7738656385434007</v>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[0.68541 0.21149 0.29044]</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>0.08440098270834998</v>
       </c>
       <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3946,13 +4391,18 @@
           <t>testModels/db/15/m1500/m1500.off</t>
         </is>
       </c>
-      <c r="I90" t="n">
-        <v>0.6549786956999486</v>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[0.22643 0.1993  0.58139]</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1361507547867</v>
       </c>
       <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3985,13 +4435,18 @@
           <t>testModels/db/15/m1501/m1501.off</t>
         </is>
       </c>
-      <c r="I91" t="n">
-        <v>0.7422720498921764</v>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[0.27773 0.2798  0.62893]</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>0.19576849474065</v>
       </c>
       <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4024,13 +4479,18 @@
           <t>testModels/db/15/m1502/m1502.off</t>
         </is>
       </c>
-      <c r="I92" t="n">
-        <v>0.4548392093646955</v>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[0.42365 0.04181 0.16016]</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>0.0826927006095</v>
       </c>
       <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4063,13 +4523,18 @@
           <t>testModels/db/15/m1503/m1503.off</t>
         </is>
       </c>
-      <c r="I93" t="n">
-        <v>0.3789775151125117</v>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[0.34284 0.09837 0.12809]</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>0.03216136113819999</v>
       </c>
       <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4102,13 +4567,18 @@
           <t>testModels/db/15/m1504/m1504.off</t>
         </is>
       </c>
-      <c r="I94" t="n">
-        <v>0.5468981341886293</v>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[0.23779 0.05134 0.48981]</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0758695732669</v>
       </c>
       <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4141,13 +4611,18 @@
           <t>testModels/db/15/m1505/m1505.off</t>
         </is>
       </c>
-      <c r="I95" t="n">
-        <v>0.4651962912917554</v>
-      </c>
-      <c r="J95" t="b">
-        <v>0</v>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[0.20814 0.07373 0.40945]</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0645418395294</v>
       </c>
       <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4180,13 +4655,18 @@
           <t>testModels/db/15/m1506/m1506.off</t>
         </is>
       </c>
-      <c r="I96" t="n">
-        <v>1.560915220978554</v>
-      </c>
-      <c r="J96" t="b">
-        <v>0</v>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>[0.34827 1.43765 0.49832]</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>0.1288943364284</v>
       </c>
       <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4219,13 +4699,18 @@
           <t>testModels/db/15/m1507/m1507.off</t>
         </is>
       </c>
-      <c r="I97" t="n">
-        <v>0.5178890063493991</v>
-      </c>
-      <c r="J97" t="b">
-        <v>0</v>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[0.23162 0.08924 0.45453]</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>0.07374694566604999</v>
       </c>
       <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4258,13 +4743,18 @@
           <t>testModels/db/15/m1508/m1508.off</t>
         </is>
       </c>
-      <c r="I98" t="n">
-        <v>0.5926709516310176</v>
-      </c>
-      <c r="J98" t="b">
-        <v>0</v>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>[0.49715 0.04413 0.31961]</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>0.07039702126274998</v>
       </c>
       <c r="K98" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4297,13 +4787,18 @@
           <t>testModels/db/15/m1509/m1509.off</t>
         </is>
       </c>
-      <c r="I99" t="n">
-        <v>0.6414435012033664</v>
-      </c>
-      <c r="J99" t="b">
-        <v>0</v>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>[0.29106 0.16618 0.54691]</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>0.1811462751618</v>
       </c>
       <c r="K99" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4336,13 +4831,18 @@
           <t>testModels/db/15/m1510/m1510.off</t>
         </is>
       </c>
-      <c r="I100" t="n">
-        <v>0.5404144798045344</v>
-      </c>
-      <c r="J100" t="b">
-        <v>0</v>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[0.25768 0.09251 0.46593]</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>0.09692012567019999</v>
       </c>
       <c r="K100" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4375,13 +4875,18 @@
           <t>testModels/db/15/m1511/m1511.off</t>
         </is>
       </c>
-      <c r="I101" t="n">
-        <v>0.6713896582725891</v>
-      </c>
-      <c r="J101" t="b">
-        <v>0</v>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[0.30445 0.08735 0.59198]</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>0.119308459153</v>
       </c>
       <c r="K101" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4414,13 +4919,18 @@
           <t>testModels/db/15/m1512/m1512.off</t>
         </is>
       </c>
-      <c r="I102" t="n">
-        <v>0.5751799931608572</v>
-      </c>
-      <c r="J102" t="b">
-        <v>0</v>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>[0.53662 0.16367 0.1268 ]</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>0.07504459125004999</v>
       </c>
       <c r="K102" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4453,13 +4963,18 @@
           <t>testModels/db/16/m1600/m1600.off</t>
         </is>
       </c>
-      <c r="I103" t="n">
-        <v>0.4938009535455633</v>
-      </c>
-      <c r="J103" t="b">
-        <v>1</v>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>[0.23492 0.36545 0.23473]</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>0.16730878970505</v>
       </c>
       <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4492,13 +5007,18 @@
           <t>testModels/db/16/m1601/m1601.off</t>
         </is>
       </c>
-      <c r="I104" t="n">
-        <v>0.5129148151804925</v>
-      </c>
-      <c r="J104" t="b">
-        <v>0</v>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>[0.29056 0.30705 0.29047]</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>0.267326072757</v>
       </c>
       <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4531,13 +5051,18 @@
           <t>testModels/db/16/m1602/m1602.off</t>
         </is>
       </c>
-      <c r="I105" t="n">
-        <v>10.65330892710382</v>
-      </c>
-      <c r="J105" t="b">
-        <v>0</v>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>[ 0.21517 10.64896  0.21541]</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>0.1372117698392</v>
       </c>
       <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4570,13 +5095,18 @@
           <t>testModels/db/16/m1603/m1603.off</t>
         </is>
       </c>
-      <c r="I106" t="n">
-        <v>0.4736077918143534</v>
-      </c>
-      <c r="J106" t="b">
-        <v>1</v>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>[0.20474 0.37498 0.20439]</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>0.12268194633695</v>
       </c>
       <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4609,13 +5139,18 @@
           <t>testModels/db/16/m1604/m1604.off</t>
         </is>
       </c>
-      <c r="I107" t="n">
-        <v>0.4837704005043448</v>
-      </c>
-      <c r="J107" t="b">
-        <v>1</v>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>[0.2197  0.36789 0.22455]</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>0.14381334482895</v>
       </c>
       <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4648,13 +5183,18 @@
           <t>testModels/db/16/m1605/m1605.off</t>
         </is>
       </c>
-      <c r="I108" t="n">
-        <v>0.5900303134020558</v>
-      </c>
-      <c r="J108" t="b">
-        <v>1</v>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>[0.34164 0.32351 0.35603]</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>0.3810551544445499</v>
       </c>
       <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4687,13 +5227,18 @@
           <t>testModels/db/16/m1606/m1606.off</t>
         </is>
       </c>
-      <c r="I109" t="n">
-        <v>0.5786225054700455</v>
-      </c>
-      <c r="J109" t="b">
-        <v>0</v>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>[0.34754 0.32821 0.32604]</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>0.3432074538341999</v>
       </c>
       <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4726,13 +5271,18 @@
           <t>testModels/db/16/m1607/m1607.off</t>
         </is>
       </c>
-      <c r="I110" t="n">
-        <v>9.621629683250177</v>
-      </c>
-      <c r="J110" t="b">
-        <v>1</v>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>[0.27381 9.61377 0.27599]</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>0.2316390123008</v>
       </c>
       <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4765,13 +5315,18 @@
           <t>testModels/db/16/m1608/m1608.off</t>
         </is>
       </c>
-      <c r="I111" t="n">
-        <v>0.7503495583547535</v>
-      </c>
-      <c r="J111" t="b">
-        <v>1</v>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>[0.425   0.44919 0.425  ]</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>0.6079999999999999</v>
       </c>
       <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4804,13 +5359,18 @@
           <t>testModels/db/16/m1609/m1609.off</t>
         </is>
       </c>
-      <c r="I112" t="n">
-        <v>0.5293811403815504</v>
-      </c>
-      <c r="J112" t="b">
-        <v>1</v>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>[0.27568 0.35811 0.27568]</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>0.23880042525455</v>
       </c>
       <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4843,13 +5403,18 @@
           <t>testModels/db/16/m1610/m1610.off</t>
         </is>
       </c>
-      <c r="I113" t="n">
-        <v>0.5935444082093195</v>
-      </c>
-      <c r="J113" t="b">
-        <v>0</v>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>[0.33557 0.35663 0.33541]</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>0.3663335584208999</v>
       </c>
       <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4882,13 +5447,18 @@
           <t>testModels/db/16/m1611/m1611.off</t>
         </is>
       </c>
-      <c r="I114" t="n">
-        <v>0.7198678966021049</v>
-      </c>
-      <c r="J114" t="b">
-        <v>0</v>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>[0.61155 0.26853 0.26853]</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>0.22536144437375</v>
       </c>
       <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4921,13 +5491,18 @@
           <t>testModels/db/16/m1612/m1612.off</t>
         </is>
       </c>
-      <c r="I115" t="n">
-        <v>4.360426081208259</v>
-      </c>
-      <c r="J115" t="b">
-        <v>0</v>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>[0.22461 4.34884 0.22458]</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>0.1513558239525</v>
       </c>
       <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4960,13 +5535,18 @@
           <t>testModels/db/17/m1700/m1700.off</t>
         </is>
       </c>
-      <c r="I116" t="n">
-        <v>0.6198455781716755</v>
-      </c>
-      <c r="J116" t="b">
-        <v>0</v>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>[ 0.50313 -0.06476  0.3562 ]</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>0.38632799271675</v>
       </c>
       <c r="K116" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4999,13 +5579,18 @@
           <t>testModels/db/17/m1701/m1701.off</t>
         </is>
       </c>
-      <c r="I117" t="n">
-        <v>0.7912623713546214</v>
-      </c>
-      <c r="J117" t="b">
-        <v>1</v>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>[0.5     0.55113 0.26898]</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>0.2997184795742999</v>
       </c>
       <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5038,13 +5623,18 @@
           <t>testModels/db/17/m1702/m1702.off</t>
         </is>
       </c>
-      <c r="I118" t="n">
-        <v>0.6476045935389062</v>
-      </c>
-      <c r="J118" t="b">
-        <v>1</v>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>[0.5     0.31679 0.26274]</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>0.2787690292414</v>
       </c>
       <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5077,13 +5667,18 @@
           <t>testModels/db/17/m1703/m1703.off</t>
         </is>
       </c>
-      <c r="I119" t="n">
-        <v>0.74768074137693</v>
-      </c>
-      <c r="J119" t="b">
-        <v>1</v>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>[0.35418 0.41692 0.50967]</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>0.6194081680999999</v>
       </c>
       <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5116,13 +5711,18 @@
           <t>testModels/db/17/m1704/m1704.off</t>
         </is>
       </c>
-      <c r="I120" t="n">
-        <v>0.6565078561121291</v>
-      </c>
-      <c r="J120" t="b">
-        <v>0</v>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>[0.42804 0.33992 0.36365]</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>0.5461226671774999</v>
       </c>
       <c r="K120" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5155,13 +5755,18 @@
           <t>testModels/db/17/m1705/m1705.off</t>
         </is>
       </c>
-      <c r="I121" t="n">
-        <v>0.5795370022426829</v>
-      </c>
-      <c r="J121" t="b">
-        <v>1</v>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>[0.29051 0.50058 0.0298 ]</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02653413475437499</v>
       </c>
       <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5194,13 +5799,18 @@
           <t>testModels/db/17/m1706/m1706.off</t>
         </is>
       </c>
-      <c r="I122" t="n">
-        <v>1.924747619700219</v>
-      </c>
-      <c r="J122" t="b">
-        <v>1</v>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>[ 0.03585 -0.01421 -1.92436]</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>0.014289598375</v>
       </c>
       <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5233,13 +5843,18 @@
           <t>testModels/db/17/m1707/m1707.off</t>
         </is>
       </c>
-      <c r="I123" t="n">
-        <v>2.87391802916773</v>
-      </c>
-      <c r="J123" t="b">
-        <v>1</v>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>[ 0.26842 -0.84978 -2.73226]</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>0.12699258673075</v>
       </c>
       <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5272,13 +5887,18 @@
           <t>testModels/db/17/m1708/m1708.off</t>
         </is>
       </c>
-      <c r="I124" t="n">
-        <v>0.5480399341627323</v>
-      </c>
-      <c r="J124" t="b">
-        <v>1</v>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>[0.27248 0.45843 0.12625]</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>0.01399797760203499</v>
       </c>
       <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5311,13 +5931,18 @@
           <t>testModels/db/17/m1709/m1709.off</t>
         </is>
       </c>
-      <c r="I125" t="n">
-        <v>0.02282710625452686</v>
-      </c>
-      <c r="J125" t="b">
-        <v>1</v>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>[ 0.01618 -0.0001  -0.0161 ]</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>0.005889478087669998</v>
       </c>
       <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5350,13 +5975,18 @@
           <t>testModels/db/17/m1710/m1710.off</t>
         </is>
       </c>
-      <c r="I126" t="n">
-        <v>0.5770248902467106</v>
-      </c>
-      <c r="J126" t="b">
-        <v>1</v>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>[0.28876 0.49429 0.07245]</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>0.0468769388463</v>
       </c>
       <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5389,13 +6019,18 @@
           <t>testModels/db/17/m1711/m1711.off</t>
         </is>
       </c>
-      <c r="I127" t="n">
-        <v>0.5483873210121538</v>
-      </c>
-      <c r="J127" t="b">
-        <v>1</v>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>[0.17116 0.5154  0.07614]</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>0.022203345375</v>
       </c>
       <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5428,13 +6063,18 @@
           <t>testModels/db/17/m1712/m1712.off</t>
         </is>
       </c>
-      <c r="I128" t="n">
-        <v>0.5631075208341388</v>
-      </c>
-      <c r="J128" t="b">
-        <v>0</v>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>[0.25076 0.50101 0.0566 ]</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>0.0275369728818</v>
       </c>
       <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5467,13 +6107,18 @@
           <t>testModels/db/18/m1800/m1800.off</t>
         </is>
       </c>
-      <c r="I129" t="n">
-        <v>0.6213244117082173</v>
-      </c>
-      <c r="J129" t="b">
-        <v>1</v>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>[0.51523 0.31951 0.13599]</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>0.5039622732186</v>
       </c>
       <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5506,13 +6151,18 @@
           <t>testModels/db/18/m1801/m1801.off</t>
         </is>
       </c>
-      <c r="I130" t="n">
-        <v>1.10978267848802</v>
-      </c>
-      <c r="J130" t="b">
-        <v>0</v>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>[0.45024 0.95485 0.34228]</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5839181688284999</v>
       </c>
       <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5545,13 +6195,18 @@
           <t>testModels/db/18/m1802/m1802.off</t>
         </is>
       </c>
-      <c r="I131" t="n">
-        <v>0.5709874283546265</v>
-      </c>
-      <c r="J131" t="b">
-        <v>1</v>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>[0.511   0.16634 0.19297]</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>0.3518480536242</v>
       </c>
       <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5584,13 +6239,18 @@
           <t>testModels/db/18/m1803/m1803.off</t>
         </is>
       </c>
-      <c r="I132" t="n">
-        <v>3.339593683144616</v>
-      </c>
-      <c r="J132" t="b">
-        <v>1</v>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>[0.36383 2.77827 1.81706]</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>0.5595389763159</v>
       </c>
       <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5623,13 +6283,18 @@
           <t>testModels/db/18/m1804/m1804.off</t>
         </is>
       </c>
-      <c r="I133" t="n">
-        <v>0.5727008617910611</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>[0.28563 0.43037 0.24735]</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>0.2981086693236</v>
       </c>
       <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5662,13 +6327,18 @@
           <t>testModels/db/18/m1805/m1805.off</t>
         </is>
       </c>
-      <c r="I134" t="n">
-        <v>0.3106496813581565</v>
-      </c>
-      <c r="J134" t="b">
-        <v>0</v>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>[0.24185 0.04264 0.19024]</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>0.25429138871805</v>
       </c>
       <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5701,13 +6371,18 @@
           <t>testModels/db/18/m1806/m1806.off</t>
         </is>
       </c>
-      <c r="I135" t="n">
-        <v>0.6023279965570014</v>
-      </c>
-      <c r="J135" t="b">
-        <v>1</v>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>[0.33564 0.45564 0.20624]</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>0.3667566974668</v>
       </c>
       <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5740,13 +6415,18 @@
           <t>testModels/db/18/m1807/m1807.off</t>
         </is>
       </c>
-      <c r="I136" t="n">
-        <v>0.6667638443153735</v>
-      </c>
-      <c r="J136" t="b">
-        <v>0</v>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>[0.54541 0.12922 0.36112]</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>0.1942775707323</v>
       </c>
       <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5779,13 +6459,18 @@
           <t>testModels/db/18/m1808/m1808.off</t>
         </is>
       </c>
-      <c r="I137" t="n">
-        <v>0.7098625048574279</v>
-      </c>
-      <c r="J137" t="b">
-        <v>0</v>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>[0.39233 0.41869 0.41794]</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>0.60615035958075</v>
       </c>
       <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5818,13 +6503,18 @@
           <t>testModels/db/18/m1809/m1809.off</t>
         </is>
       </c>
-      <c r="I138" t="n">
-        <v>0.5967372119898237</v>
-      </c>
-      <c r="J138" t="b">
-        <v>0</v>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>[0.49982 0.16092 0.28351]</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>0.2841935748727499</v>
       </c>
       <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5857,13 +6547,18 @@
           <t>testModels/db/18/m1810/m1810.off</t>
         </is>
       </c>
-      <c r="I139" t="n">
-        <v>0.6526083143767877</v>
-      </c>
-      <c r="J139" t="b">
-        <v>1</v>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>[ 0.50142 -0.20934  0.36146]</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>0.231584768836</v>
       </c>
       <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5896,13 +6591,18 @@
           <t>testModels/db/18/m1811/m1811.off</t>
         </is>
       </c>
-      <c r="I140" t="n">
-        <v>1.476636120981594</v>
-      </c>
-      <c r="J140" t="b">
-        <v>1</v>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>[0.42233 0.95945 1.03998]</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>0.5604020983959999</v>
       </c>
       <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5935,13 +6635,18 @@
           <t>testModels/db/18/m1812/m1812.off</t>
         </is>
       </c>
-      <c r="I141" t="n">
-        <v>1.103140169297351</v>
-      </c>
-      <c r="J141" t="b">
-        <v>1</v>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>[ 0.28292  0.95459 -0.47501]</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>0.09693337393699998</v>
       </c>
       <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5974,13 +6679,18 @@
           <t>testModels/db/18/m1813/m1813.off</t>
         </is>
       </c>
-      <c r="I142" t="n">
-        <v>0.7968329866019411</v>
-      </c>
-      <c r="J142" t="b">
-        <v>1</v>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>[ 0.35783  0.15391 -0.69514]</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>0.55862034481525</v>
       </c>
       <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6013,13 +6723,18 @@
           <t>testModels/db/18/m1814/m1814.off</t>
         </is>
       </c>
-      <c r="I143" t="n">
-        <v>0.7296480297390275</v>
-      </c>
-      <c r="J143" t="b">
-        <v>0</v>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>[0.22933 0.45598 0.52142]</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>0.7130584857292499</v>
       </c>
       <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6052,13 +6767,18 @@
           <t>testModels/db/2/m200/m200.off</t>
         </is>
       </c>
-      <c r="I144" t="n">
-        <v>0.2948098828131037</v>
-      </c>
-      <c r="J144" t="b">
-        <v>0</v>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>[0.21667 0.17405 0.09835]</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>0.0629806609719</v>
       </c>
       <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6091,13 +6811,18 @@
           <t>testModels/db/2/m201/m201.off</t>
         </is>
       </c>
-      <c r="I145" t="n">
-        <v>0.4995024295394319</v>
-      </c>
-      <c r="J145" t="b">
-        <v>0</v>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>[0.32969 0.13545 0.34994]</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>0.13366499845625</v>
       </c>
       <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6130,13 +6855,18 @@
           <t>testModels/db/2/m202/m202.off</t>
         </is>
       </c>
-      <c r="I146" t="n">
-        <v>0.5650001280664023</v>
-      </c>
-      <c r="J146" t="b">
-        <v>1</v>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>[0.16031 0.53395 0.09177]</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>0.0516014193972</v>
       </c>
       <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6169,13 +6899,18 @@
           <t>testModels/db/2/m203/m203.off</t>
         </is>
       </c>
-      <c r="I147" t="n">
-        <v>0.471185126747117</v>
-      </c>
-      <c r="J147" t="b">
-        <v>1</v>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>[0.18661 0.41486 0.12281]</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>0.06315912987</v>
       </c>
       <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6208,13 +6943,18 @@
           <t>testModels/db/2/m204/m204.off</t>
         </is>
       </c>
-      <c r="I148" t="n">
-        <v>0.5552728333083351</v>
-      </c>
-      <c r="J148" t="b">
-        <v>0</v>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>[0.1833  0.51217 0.11139]</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>0.09861214600439998</v>
       </c>
       <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6247,13 +6987,18 @@
           <t>testModels/db/2/m205/m205.off</t>
         </is>
       </c>
-      <c r="I149" t="n">
-        <v>0.6014943298523155</v>
-      </c>
-      <c r="J149" t="b">
-        <v>1</v>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>[0.20338 0.55405 0.116  ]</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>0.070458809638</v>
       </c>
       <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6286,13 +7031,18 @@
           <t>testModels/db/2/m206/m206.off</t>
         </is>
       </c>
-      <c r="I150" t="n">
-        <v>0.8027768093249181</v>
-      </c>
-      <c r="J150" t="b">
-        <v>0</v>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>[0.16246 0.17742 0.76588]</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0579511642269</v>
       </c>
       <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6325,13 +7075,18 @@
           <t>testModels/db/2/m207/m207.off</t>
         </is>
       </c>
-      <c r="I151" t="n">
-        <v>0.7981822167103412</v>
-      </c>
-      <c r="J151" t="b">
-        <v>0</v>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>[0.20774 0.76449 0.09746]</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>0.08830113672149997</v>
       </c>
       <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6364,13 +7119,18 @@
           <t>testModels/db/2/m208/m208.off</t>
         </is>
       </c>
-      <c r="I152" t="n">
-        <v>0.6121087592214904</v>
-      </c>
-      <c r="J152" t="b">
-        <v>1</v>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>[0.19666 0.57249 0.09086]</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0502958286896</v>
       </c>
       <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6403,13 +7163,18 @@
           <t>testModels/db/2/m209/m209.off</t>
         </is>
       </c>
-      <c r="I153" t="n">
-        <v>0.7153164380604121</v>
-      </c>
-      <c r="J153" t="b">
-        <v>1</v>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>[0.21522 0.65946 0.17456]</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>0.09699395964644997</v>
       </c>
       <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6442,13 +7207,18 @@
           <t>testModels/db/2/m210/m210.off</t>
         </is>
       </c>
-      <c r="I154" t="n">
-        <v>0.6634231530029858</v>
-      </c>
-      <c r="J154" t="b">
-        <v>1</v>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>[0.30551 0.56034 0.18115]</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>0.3257943964477499</v>
       </c>
       <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6481,13 +7251,18 @@
           <t>testModels/db/2/m211/m211.off</t>
         </is>
       </c>
-      <c r="I155" t="n">
-        <v>0.585953083725378</v>
-      </c>
-      <c r="J155" t="b">
-        <v>0</v>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>[0.18333 0.54343 0.12006]</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>0.06076322891144999</v>
       </c>
       <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6520,13 +7295,18 @@
           <t>testModels/db/2/m212/m212.off</t>
         </is>
       </c>
-      <c r="I156" t="n">
-        <v>0.6063492839013889</v>
-      </c>
-      <c r="J156" t="b">
-        <v>0</v>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>[0.28705 0.52404 0.10317]</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>0.07985204410555001</v>
       </c>
       <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6559,13 +7339,18 @@
           <t>testModels/db/3/m300/m300.off</t>
         </is>
       </c>
-      <c r="I157" t="n">
-        <v>1.275494816908894</v>
-      </c>
-      <c r="J157" t="b">
-        <v>1</v>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>[0.33935 0.08242 1.22676]</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>0.272133783058827</v>
       </c>
       <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6598,13 +7383,18 @@
           <t>testModels/db/3/m301/m301.off</t>
         </is>
       </c>
-      <c r="I158" t="n">
-        <v>0.7668358929631715</v>
-      </c>
-      <c r="J158" t="b">
-        <v>0</v>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>[ 0.08329  0.09585 -0.75625]</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>0.42176198758065</v>
       </c>
       <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6637,13 +7427,18 @@
           <t>testModels/db/3/m302/m302.off</t>
         </is>
       </c>
-      <c r="I159" t="n">
-        <v>0.6912807370527623</v>
-      </c>
-      <c r="J159" t="b">
-        <v>0</v>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>[0.40543 0.23625 0.50762]</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>0.44863801136315</v>
       </c>
       <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6676,13 +7471,18 @@
           <t>testModels/db/3/m303/m303.off</t>
         </is>
       </c>
-      <c r="I160" t="n">
-        <v>0.5819743024468653</v>
-      </c>
-      <c r="J160" t="b">
-        <v>0</v>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>[ 0.34177 -0.05775  0.4675 ]</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>0.4799720971559999</v>
       </c>
       <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6715,13 +7515,18 @@
           <t>testModels/db/3/m304/m304.off</t>
         </is>
       </c>
-      <c r="I161" t="n">
-        <v>0.8735197457876698</v>
-      </c>
-      <c r="J161" t="b">
-        <v>0</v>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>[ 0.44621 -0.21781  0.71867]</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>0.5246717629299</v>
       </c>
       <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6754,13 +7559,18 @@
           <t>testModels/db/3/m305/m305.off</t>
         </is>
       </c>
-      <c r="I162" t="n">
-        <v>0.6641498529799693</v>
-      </c>
-      <c r="J162" t="b">
-        <v>0</v>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>[0.32742 0.55    0.17718]</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>0.2091357947613</v>
       </c>
       <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6793,13 +7603,18 @@
           <t>testModels/db/3/m306/m306.off</t>
         </is>
       </c>
-      <c r="I163" t="n">
-        <v>0.9062922246344396</v>
-      </c>
-      <c r="J163" t="b">
-        <v>0</v>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>[0.38818 0.29526 0.76387]</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>0.5021063473894</v>
       </c>
       <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6832,13 +7647,18 @@
           <t>testModels/db/3/m307/m307.off</t>
         </is>
       </c>
-      <c r="I164" t="n">
-        <v>0.5853048029009464</v>
-      </c>
-      <c r="J164" t="b">
-        <v>0</v>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>[0.32987 0.44546 0.18796]</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>0.2854492755504</v>
       </c>
       <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6871,13 +7691,18 @@
           <t>testModels/db/3/m308/m308.off</t>
         </is>
       </c>
-      <c r="I165" t="n">
-        <v>0.2612976627589222</v>
-      </c>
-      <c r="J165" t="b">
-        <v>0</v>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>[ 0.23438 -0.11465 -0.01409]</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>0.1345423657043896</v>
       </c>
       <c r="K165" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6910,13 +7735,18 @@
           <t>testModels/db/3/m309/m309.off</t>
         </is>
       </c>
-      <c r="I166" t="n">
-        <v>0.3047996693557312</v>
-      </c>
-      <c r="J166" t="b">
-        <v>0</v>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>[ 0.12636 -0.2492  -0.12181]</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>0.05283930541306872</v>
       </c>
       <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6949,13 +7779,18 @@
           <t>testModels/db/3/m310/m310.off</t>
         </is>
       </c>
-      <c r="I167" t="n">
-        <v>0.2873133122593487</v>
-      </c>
-      <c r="J167" t="b">
-        <v>0</v>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>[ 0.28511 -0.00504 -0.03517]</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>0.1180692170551223</v>
       </c>
       <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6988,13 +7823,18 @@
           <t>testModels/db/3/m311/m311.off</t>
         </is>
       </c>
-      <c r="I168" t="n">
-        <v>0.2589699424232592</v>
-      </c>
-      <c r="J168" t="b">
-        <v>0</v>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>[0.23408 0.07864 0.07801]</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>0.1477825613933806</v>
       </c>
       <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7027,13 +7867,18 @@
           <t>testModels/db/3/m312/m312.off</t>
         </is>
       </c>
-      <c r="I169" t="n">
-        <v>0.2677723957968401</v>
-      </c>
-      <c r="J169" t="b">
-        <v>0</v>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>[ 0.26322  0.04064 -0.02771]</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>0.1353662284264502</v>
       </c>
       <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7066,13 +7911,18 @@
           <t>testModels/db/4/m400/m400.off</t>
         </is>
       </c>
-      <c r="I170" t="n">
-        <v>0.6736874996811439</v>
-      </c>
-      <c r="J170" t="b">
-        <v>1</v>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>[0.40094 0.2333  0.48854]</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>0.5465683954868</v>
       </c>
       <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7105,13 +7955,18 @@
           <t>testModels/db/4/m401/m401.off</t>
         </is>
       </c>
-      <c r="I171" t="n">
-        <v>0.8512148037298419</v>
-      </c>
-      <c r="J171" t="b">
-        <v>0</v>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>[0.53416 0.07716 0.65824]</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>0.163505925</v>
       </c>
       <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7144,13 +7999,18 @@
           <t>testModels/db/4/m402/m402.off</t>
         </is>
       </c>
-      <c r="I172" t="n">
-        <v>0.5412540668923238</v>
-      </c>
-      <c r="J172" t="b">
-        <v>0</v>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>[0.32407 0.28076 0.33032]</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>0.3803311612695</v>
       </c>
       <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7183,13 +8043,18 @@
           <t>testModels/db/4/m403/m403.off</t>
         </is>
       </c>
-      <c r="I173" t="n">
-        <v>0.7360560226147552</v>
-      </c>
-      <c r="J173" t="b">
-        <v>0</v>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>[0.49995 0.20469 0.49994]</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>0.4723955749999999</v>
       </c>
       <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7222,13 +8087,18 @@
           <t>testModels/db/4/m404/m404.off</t>
         </is>
       </c>
-      <c r="I174" t="n">
-        <v>0.6062568140491283</v>
-      </c>
-      <c r="J174" t="b">
-        <v>0</v>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>[0.40153 0.13608 0.43336]</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>0.2758108135843</v>
       </c>
       <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7261,13 +8131,18 @@
           <t>testModels/db/4/m405/m405.off</t>
         </is>
       </c>
-      <c r="I175" t="n">
-        <v>0.7656466655144938</v>
-      </c>
-      <c r="J175" t="b">
-        <v>0</v>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>[0.49764 0.34261 0.4703 ]</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>0.7374751118261998</v>
       </c>
       <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7300,13 +8175,18 @@
           <t>testModels/db/4/m406/m406.off</t>
         </is>
       </c>
-      <c r="I176" t="n">
-        <v>0.5727114092479244</v>
-      </c>
-      <c r="J176" t="b">
-        <v>0</v>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>[0.36491 0.26604 0.35223]</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>0.4214042623551</v>
       </c>
       <c r="K176" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7339,13 +8219,18 @@
           <t>testModels/db/4/m407/m407.off</t>
         </is>
       </c>
-      <c r="I177" t="n">
-        <v>0.7388373022554811</v>
-      </c>
-      <c r="J177" t="b">
-        <v>1</v>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>[0.41214 0.49648 0.3599 ]</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>0.5377887483226499</v>
       </c>
       <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7378,13 +8263,18 @@
           <t>testModels/db/4/m408/m408.off</t>
         </is>
       </c>
-      <c r="I178" t="n">
-        <v>0.6418806266942023</v>
-      </c>
-      <c r="J178" t="b">
-        <v>0</v>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>[0.33435 0.14474 0.52846]</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>0.334412281809</v>
       </c>
       <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7417,13 +8307,18 @@
           <t>testModels/db/4/m409/m409.off</t>
         </is>
       </c>
-      <c r="I179" t="n">
-        <v>0.633128834637152</v>
-      </c>
-      <c r="J179" t="b">
-        <v>0</v>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>[ 0.55001 -0.00152  0.31359]</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>0.12750341215795</v>
       </c>
       <c r="K179" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7456,13 +8351,18 @@
           <t>testModels/db/4/m410/m410.off</t>
         </is>
       </c>
-      <c r="I180" t="n">
-        <v>0.8040751622962321</v>
-      </c>
-      <c r="J180" t="b">
-        <v>0</v>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>[ 0.50344 -0.39155  0.48966]</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>0.36472700513595</v>
       </c>
       <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7495,13 +8395,18 @@
           <t>testModels/db/4/m411/m411.off</t>
         </is>
       </c>
-      <c r="I181" t="n">
-        <v>0.5673686192841481</v>
-      </c>
-      <c r="J181" t="b">
-        <v>0</v>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>[0.47111 0.29202 0.12119]</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>0.2742882714080499</v>
       </c>
       <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7534,13 +8439,18 @@
           <t>testModels/db/4/m412/m412.off</t>
         </is>
       </c>
-      <c r="I182" t="n">
-        <v>0.6055354349551082</v>
-      </c>
-      <c r="J182" t="b">
-        <v>0</v>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>[0.52098 0.04239 0.3057 ]</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>0.04766319038249999</v>
       </c>
       <c r="K182" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7573,13 +8483,18 @@
           <t>testModels/db/5/m500/m500.off</t>
         </is>
       </c>
-      <c r="I183" t="n">
-        <v>0.740793984655466</v>
-      </c>
-      <c r="J183" t="b">
-        <v>1</v>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>[0.49232 0.46093 0.3065 ]</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>0.774133244696</v>
       </c>
       <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7612,13 +8527,18 @@
           <t>testModels/db/5/m501/m501.off</t>
         </is>
       </c>
-      <c r="I184" t="n">
-        <v>0.6588412181605431</v>
-      </c>
-      <c r="J184" t="b">
-        <v>0</v>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>[0.35125 0.43282 0.35123]</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>0.4045155493718</v>
       </c>
       <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7651,13 +8571,18 @@
           <t>testModels/db/5/m502/m502.off</t>
         </is>
       </c>
-      <c r="I185" t="n">
-        <v>0.7246083651851024</v>
-      </c>
-      <c r="J185" t="b">
-        <v>1</v>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>[0.35003 0.52918 0.35001]</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>0.4013836450465499</v>
       </c>
       <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7690,13 +8615,18 @@
           <t>testModels/db/5/m503/m503.off</t>
         </is>
       </c>
-      <c r="I186" t="n">
-        <v>0.754608296946927</v>
-      </c>
-      <c r="J186" t="b">
-        <v>1</v>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>[0.45515 0.54141 0.26296]</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>0.44607162209075</v>
       </c>
       <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7729,13 +8659,18 @@
           <t>testModels/db/5/m504/m504.off</t>
         </is>
       </c>
-      <c r="I187" t="n">
-        <v>0.657789951852266</v>
-      </c>
-      <c r="J187" t="b">
-        <v>0</v>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>[0.41692 0.31743 0.39763]</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>0.50407117646765</v>
       </c>
       <c r="K187" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7768,13 +8703,18 @@
           <t>testModels/db/5/m505/m505.off</t>
         </is>
       </c>
-      <c r="I188" t="n">
-        <v>0.7704377465745151</v>
-      </c>
-      <c r="J188" t="b">
-        <v>0</v>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>[0.45747 0.34161 0.5173 ]</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>0.5421435584800499</v>
       </c>
       <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7807,13 +8747,18 @@
           <t>testModels/db/5/m506/m506.off</t>
         </is>
       </c>
-      <c r="I189" t="n">
-        <v>0.5437897527694318</v>
-      </c>
-      <c r="J189" t="b">
-        <v>0</v>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>[0.3771  0.16824 0.35383]</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>0.2279900718197999</v>
       </c>
       <c r="K189" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7846,13 +8791,18 @@
           <t>testModels/db/5/m507/m507.off</t>
         </is>
       </c>
-      <c r="I190" t="n">
-        <v>0.5495868890426785</v>
-      </c>
-      <c r="J190" t="b">
-        <v>0</v>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>[0.40162 0.23655 0.2912 ]</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>0.41517676746315</v>
       </c>
       <c r="K190" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7885,13 +8835,18 @@
           <t>testModels/db/5/m508/m508.off</t>
         </is>
       </c>
-      <c r="I191" t="n">
-        <v>0.6214631070286883</v>
-      </c>
-      <c r="J191" t="b">
-        <v>0</v>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>[0.37656 0.37351 0.32389]</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>0.4471125239474999</v>
       </c>
       <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7924,13 +8879,18 @@
           <t>testModels/db/5/m509/m509.off</t>
         </is>
       </c>
-      <c r="I192" t="n">
-        <v>0.689373729035565</v>
-      </c>
-      <c r="J192" t="b">
-        <v>0</v>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>[0.39358 0.42875 0.36946]</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>0.5659933238063999</v>
       </c>
       <c r="K192" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7963,13 +8923,18 @@
           <t>testModels/db/5/m510/m510.off</t>
         </is>
       </c>
-      <c r="I193" t="n">
-        <v>0.5641498460595107</v>
-      </c>
-      <c r="J193" t="b">
-        <v>0</v>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>[ 0.31644 -0.37851  0.2736 ]</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>0.2760294710088</v>
       </c>
       <c r="K193" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8002,13 +8967,18 @@
           <t>testModels/db/5/m511/m511.off</t>
         </is>
       </c>
-      <c r="I194" t="n">
-        <v>0.9682295669190819</v>
-      </c>
-      <c r="J194" t="b">
-        <v>1</v>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>[0.48776 0.50831 0.66421]</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>0.7889463070987</v>
       </c>
       <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8041,13 +9011,18 @@
           <t>testModels/db/5/m512/m512.off</t>
         </is>
       </c>
-      <c r="I195" t="n">
-        <v>0.6660548679857683</v>
-      </c>
-      <c r="J195" t="b">
-        <v>1</v>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>[0.4113  0.324   0.41169]</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>0.56704613894055</v>
       </c>
       <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8080,13 +9055,18 @@
           <t>testModels/db/6/m600/m600.off</t>
         </is>
       </c>
-      <c r="I196" t="n">
-        <v>0.9975832605519875</v>
-      </c>
-      <c r="J196" t="b">
-        <v>0</v>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>[0.2576  0.84482 0.46378]</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>0.3289688236004499</v>
       </c>
       <c r="K196" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8119,13 +9099,18 @@
           <t>testModels/db/6/m601/m601.off</t>
         </is>
       </c>
-      <c r="I197" t="n">
-        <v>0.7173779527946508</v>
-      </c>
-      <c r="J197" t="b">
-        <v>0</v>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>[0.32694 0.52692 0.36069]</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>0.8049836529864999</v>
       </c>
       <c r="K197" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8158,13 +9143,18 @@
           <t>testModels/db/6/m602/m602.off</t>
         </is>
       </c>
-      <c r="I198" t="n">
-        <v>0.7107106887155397</v>
-      </c>
-      <c r="J198" t="b">
-        <v>0</v>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>[0.21671 0.49866 0.45769]</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>0.2173434360375</v>
       </c>
       <c r="K198" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8197,13 +9187,18 @@
           <t>testModels/db/6/m603/m603.off</t>
         </is>
       </c>
-      <c r="I199" t="n">
-        <v>0.8651792668165202</v>
-      </c>
-      <c r="J199" t="b">
-        <v>1</v>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>[0.30416 0.49274 0.64283]</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>0.4357544367391</v>
       </c>
       <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8236,13 +9231,18 @@
           <t>testModels/db/6/m604/m604.off</t>
         </is>
       </c>
-      <c r="I200" t="n">
-        <v>0.3470908542920413</v>
-      </c>
-      <c r="J200" t="b">
-        <v>0</v>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>[0.24486 0.22149 0.10704]</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>0.083922626992</v>
       </c>
       <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8275,13 +9275,18 @@
           <t>testModels/db/6/m605/m605.off</t>
         </is>
       </c>
-      <c r="I201" t="n">
-        <v>0.4625212177846422</v>
-      </c>
-      <c r="J201" t="b">
-        <v>1</v>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>[0.26351 0.19087 0.32873]</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>0.36795691912105</v>
       </c>
       <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8314,13 +9319,18 @@
           <t>testModels/db/6/m606/m606.off</t>
         </is>
       </c>
-      <c r="I202" t="n">
-        <v>0.5287336557623648</v>
-      </c>
-      <c r="J202" t="b">
-        <v>1</v>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>[ 0.52206 -0.04326  0.07172]</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>0.3354520743954</v>
       </c>
       <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8353,13 +9363,18 @@
           <t>testModels/db/6/m607/m607.off</t>
         </is>
       </c>
-      <c r="I203" t="n">
-        <v>2.97862239633214</v>
-      </c>
-      <c r="J203" t="b">
-        <v>0</v>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>[0.20979 2.3303  1.84333]</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>0.2491597883831999</v>
       </c>
       <c r="K203" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8392,13 +9407,18 @@
           <t>testModels/db/6/m608/m608.off</t>
         </is>
       </c>
-      <c r="I204" t="n">
-        <v>0.3534369058200094</v>
-      </c>
-      <c r="J204" t="b">
-        <v>1</v>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>[0.34098 0.08768 0.03102]</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>0.6166739930119999</v>
       </c>
       <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8431,13 +9451,18 @@
           <t>testModels/db/6/m609/m609.off</t>
         </is>
       </c>
-      <c r="I205" t="n">
-        <v>0.316434615409602</v>
-      </c>
-      <c r="J205" t="b">
-        <v>0</v>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>[0.11931 0.15132 0.251  ]</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>0.1239595846008</v>
       </c>
       <c r="K205" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8470,13 +9495,18 @@
           <t>testModels/db/6/m610/m610.off</t>
         </is>
       </c>
-      <c r="I206" t="n">
-        <v>0.7218031856560362</v>
-      </c>
-      <c r="J206" t="b">
-        <v>0</v>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>[0.4902  0.36764 0.38151]</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>0.3066715312519999</v>
       </c>
       <c r="K206" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8509,13 +9539,18 @@
           <t>testModels/db/6/m611/m611.off</t>
         </is>
       </c>
-      <c r="I207" t="n">
-        <v>0.6517020269898955</v>
-      </c>
-      <c r="J207" t="b">
-        <v>1</v>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>[0.6069  0.04979 0.23218]</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>0.337626976131</v>
       </c>
       <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8548,13 +9583,18 @@
           <t>testModels/db/6/m612/m612.off</t>
         </is>
       </c>
-      <c r="I208" t="n">
-        <v>0.6285804801766731</v>
-      </c>
-      <c r="J208" t="b">
-        <v>1</v>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>[0.3938  0.197   0.44858]</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>0.6165689174602</v>
       </c>
       <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8587,13 +9627,18 @@
           <t>testModels/db/7/m700/m700.off</t>
         </is>
       </c>
-      <c r="I209" t="n">
-        <v>0.3686454845230034</v>
-      </c>
-      <c r="J209" t="b">
-        <v>1</v>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>[0.1467  0.33229 0.06295]</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>0.027180761887565</v>
       </c>
       <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8626,13 +9671,18 @@
           <t>testModels/db/7/m701/m701.off</t>
         </is>
       </c>
-      <c r="I210" t="n">
-        <v>0.4205559755155684</v>
-      </c>
-      <c r="J210" t="b">
-        <v>0</v>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>[0.03452 0.166   0.38486]</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>0.005102765082699999</v>
       </c>
       <c r="K210" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8665,13 +9715,18 @@
           <t>testModels/db/7/m702/m702.off</t>
         </is>
       </c>
-      <c r="I211" t="n">
-        <v>0.261309265844208</v>
-      </c>
-      <c r="J211" t="b">
-        <v>0</v>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>[0.07429 0.07428 0.23926]</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>0.0092317409798</v>
       </c>
       <c r="K211" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8704,13 +9759,18 @@
           <t>testModels/db/7/m703/m703.off</t>
         </is>
       </c>
-      <c r="I212" t="n">
-        <v>0.4066528654874887</v>
-      </c>
-      <c r="J212" t="b">
-        <v>1</v>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>[0.03788 0.07291 0.39827]</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>0.002345430056895</v>
       </c>
       <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8743,13 +9803,18 @@
           <t>testModels/db/7/m704/m704.off</t>
         </is>
       </c>
-      <c r="I213" t="n">
-        <v>0.3426018239453588</v>
-      </c>
-      <c r="J213" t="b">
-        <v>1</v>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>[0.04005 0.05927 0.33505]</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>0.001738359126875</v>
       </c>
       <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8782,13 +9847,18 @@
           <t>testModels/db/7/m705/m705.off</t>
         </is>
       </c>
-      <c r="I214" t="n">
-        <v>0.3527274951791061</v>
-      </c>
-      <c r="J214" t="b">
-        <v>0</v>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>[0.24593 0.24572 0.05964]</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02916633158573999</v>
       </c>
       <c r="K214" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8821,13 +9891,18 @@
           <t>testModels/db/7/m706/m706.off</t>
         </is>
       </c>
-      <c r="I215" t="n">
-        <v>1.653113822556624</v>
-      </c>
-      <c r="J215" t="b">
-        <v>0</v>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>[ 0.09956 -1.62382 -0.29342]</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01502658194752</v>
       </c>
       <c r="K215" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8860,13 +9935,18 @@
           <t>testModels/db/7/m707/m707.off</t>
         </is>
       </c>
-      <c r="I216" t="n">
-        <v>0.3649288564355794</v>
-      </c>
-      <c r="J216" t="b">
-        <v>0</v>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>[0.15029 0.32941 0.04555]</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>0.009433590992994999</v>
       </c>
       <c r="K216" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8899,13 +9979,18 @@
           <t>testModels/db/7/m708/m708.off</t>
         </is>
       </c>
-      <c r="I217" t="n">
-        <v>0.7192654525196647</v>
-      </c>
-      <c r="J217" t="b">
-        <v>0</v>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>[0.2343  0.67857 0.04457]</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>0.0156089468078</v>
       </c>
       <c r="K217" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8938,13 +10023,18 @@
           <t>testModels/db/7/m709/m709.off</t>
         </is>
       </c>
-      <c r="I218" t="n">
-        <v>0.7488291165068052</v>
-      </c>
-      <c r="J218" t="b">
-        <v>0</v>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>[0.12743 0.05072 0.73616]</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01000608285012</v>
       </c>
       <c r="K218" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8977,13 +10067,18 @@
           <t>testModels/db/7/m710/m710.off</t>
         </is>
       </c>
-      <c r="I219" t="n">
-        <v>0.5753770261076903</v>
-      </c>
-      <c r="J219" t="b">
-        <v>0</v>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>[0.12764 0.05082 0.55873]</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>0.010036128300715</v>
       </c>
       <c r="K219" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9016,13 +10111,18 @@
           <t>testModels/db/7/m711/m711.off</t>
         </is>
       </c>
-      <c r="I220" t="n">
-        <v>0.4361623866390801</v>
-      </c>
-      <c r="J220" t="b">
-        <v>0</v>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>[0.12612 0.04422 0.41518]</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>0.0059225081146</v>
       </c>
       <c r="K220" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9055,13 +10155,18 @@
           <t>testModels/db/7/m712/m712.off</t>
         </is>
       </c>
-      <c r="I221" t="n">
-        <v>0.6908561025698483</v>
-      </c>
-      <c r="J221" t="b">
-        <v>0</v>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>[0.6791  0.04682 0.11797]</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>0.0055064394</v>
       </c>
       <c r="K221" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9094,13 +10199,18 @@
           <t>testModels/db/8/m800/m800.off</t>
         </is>
       </c>
-      <c r="I222" t="n">
-        <v>0.7793533532512145</v>
-      </c>
-      <c r="J222" t="b">
-        <v>1</v>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>[0.34241 0.611   0.3418 ]</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>0.4692020714198</v>
       </c>
       <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9133,13 +10243,18 @@
           <t>testModels/db/8/m801/m801.off</t>
         </is>
       </c>
-      <c r="I223" t="n">
-        <v>0.6294068538400275</v>
-      </c>
-      <c r="J223" t="b">
-        <v>0</v>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>[0.25362 0.53328 0.21781]</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>0.2195227768589999</v>
       </c>
       <c r="K223" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9172,13 +10287,18 @@
           <t>testModels/db/8/m802/m802.off</t>
         </is>
       </c>
-      <c r="I224" t="n">
-        <v>2.610747824521273</v>
-      </c>
-      <c r="J224" t="b">
-        <v>1</v>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>[ 0.29464 -2.5854   0.21186]</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>0.4212982889336</v>
       </c>
       <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9211,13 +10331,18 @@
           <t>testModels/db/8/m803/m803.off</t>
         </is>
       </c>
-      <c r="I225" t="n">
-        <v>7.079580740501704</v>
-      </c>
-      <c r="J225" t="b">
-        <v>0</v>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>[0.28753 7.03473 0.74185]</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>0.30128957545635</v>
       </c>
       <c r="K225" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9250,13 +10375,18 @@
           <t>testModels/db/8/m804/m804.off</t>
         </is>
       </c>
-      <c r="I226" t="n">
-        <v>0.6460485190928317</v>
-      </c>
-      <c r="J226" t="b">
-        <v>1</v>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>[0.36359 0.37657 0.37865]</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>0.4143275475168</v>
       </c>
       <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9289,13 +10419,18 @@
           <t>testModels/db/8/m805/m805.off</t>
         </is>
       </c>
-      <c r="I227" t="n">
-        <v>0.7962567321333174</v>
-      </c>
-      <c r="J227" t="b">
-        <v>1</v>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>[0.37738 0.63646 0.29416]</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>0.4718550028118</v>
       </c>
       <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9328,13 +10463,18 @@
           <t>testModels/db/8/m806/m806.off</t>
         </is>
       </c>
-      <c r="I228" t="n">
-        <v>0.6268887507624301</v>
-      </c>
-      <c r="J228" t="b">
-        <v>1</v>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>[0.19164 0.54717 0.23847]</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>0.12238963667975</v>
       </c>
       <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9367,13 +10507,18 @@
           <t>testModels/db/8/m807/m807.off</t>
         </is>
       </c>
-      <c r="I229" t="n">
-        <v>0.6331449943282442</v>
-      </c>
-      <c r="J229" t="b">
-        <v>1</v>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>[0.215   0.57754 0.14523]</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>0.136760518</v>
       </c>
       <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9406,13 +10551,18 @@
           <t>testModels/db/8/m808/m808.off</t>
         </is>
       </c>
-      <c r="I230" t="n">
-        <v>21.10832560523566</v>
-      </c>
-      <c r="J230" t="b">
-        <v>1</v>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>[ 0.27902 20.89506  2.97992]</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>0.29952589509265</v>
       </c>
       <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9445,13 +10595,18 @@
           <t>testModels/db/8/m809/m809.off</t>
         </is>
       </c>
-      <c r="I231" t="n">
-        <v>0.4423214917244146</v>
-      </c>
-      <c r="J231" t="b">
-        <v>1</v>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>[0.13359 0.41339 0.08314]</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>0.04148136539820001</v>
       </c>
       <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9484,13 +10639,18 @@
           <t>testModels/db/8/m810/m810.off</t>
         </is>
       </c>
-      <c r="I232" t="n">
-        <v>0.5584035751321208</v>
-      </c>
-      <c r="J232" t="b">
-        <v>1</v>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>[0.14771 0.49444 0.21337]</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>0.1273507914384</v>
       </c>
       <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9523,13 +10683,18 @@
           <t>testModels/db/8/m811/m811.off</t>
         </is>
       </c>
-      <c r="I233" t="n">
-        <v>1.104476624916185</v>
-      </c>
-      <c r="J233" t="b">
-        <v>1</v>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>[0.28163 1.02733 0.29182]</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>0.2592673744301999</v>
       </c>
       <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9562,13 +10727,18 @@
           <t>testModels/db/8/m812/m812.off</t>
         </is>
       </c>
-      <c r="I234" t="n">
-        <v>1.210301467677619</v>
-      </c>
-      <c r="J234" t="b">
-        <v>1</v>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>[0.24258 1.15872 0.25171]</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>0.18636813187305</v>
       </c>
       <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9601,13 +10771,18 @@
           <t>testModels/db/9/m900/m900.off</t>
         </is>
       </c>
-      <c r="I235" t="n">
-        <v>0.8150144859999663</v>
-      </c>
-      <c r="J235" t="b">
-        <v>1</v>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>[0.5     0.60787 0.21153]</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>0.2008387393843999</v>
       </c>
       <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9640,13 +10815,18 @@
           <t>testModels/db/9/m901/m901.off</t>
         </is>
       </c>
-      <c r="I236" t="n">
-        <v>0.8683544604370087</v>
-      </c>
-      <c r="J236" t="b">
-        <v>1</v>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>[0.49823 0.59489 0.38976]</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>0.4992543045531</v>
       </c>
       <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9679,13 +10859,18 @@
           <t>testModels/db/9/m902/m902.off</t>
         </is>
       </c>
-      <c r="I237" t="n">
-        <v>0.7204514683276981</v>
-      </c>
-      <c r="J237" t="b">
-        <v>1</v>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>[0.49915 0.46546 0.23075]</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>0.2234783074855499</v>
       </c>
       <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9718,13 +10903,18 @@
           <t>testModels/db/9/m903/m903.off</t>
         </is>
       </c>
-      <c r="I238" t="n">
-        <v>0.6354507231863391</v>
-      </c>
-      <c r="J238" t="b">
-        <v>1</v>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>[0.58441 0.21262 0.13059]</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>0.0451911105855</v>
       </c>
       <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9757,13 +10947,18 @@
           <t>testModels/db/9/m904/m904.off</t>
         </is>
       </c>
-      <c r="I239" t="n">
-        <v>0.4239753447226846</v>
-      </c>
-      <c r="J239" t="b">
-        <v>1</v>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>[ 0.21548 -0.29478  0.21548]</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>0.13786748118095</v>
       </c>
       <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9796,13 +10991,18 @@
           <t>testModels/db/9/m905/m905.off</t>
         </is>
       </c>
-      <c r="I240" t="n">
-        <v>1.950102583589145</v>
-      </c>
-      <c r="J240" t="b">
-        <v>1</v>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>[0.49083 1.70803 0.80287]</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>0.7364851249999999</v>
       </c>
       <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9835,13 +11035,18 @@
           <t>testModels/db/9/m906/m906.off</t>
         </is>
       </c>
-      <c r="I241" t="n">
-        <v>0.6503986406336092</v>
-      </c>
-      <c r="J241" t="b">
-        <v>1</v>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>[0.38697 0.10285 0.51253]</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>0.2187877917004</v>
       </c>
       <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9874,13 +11079,18 @@
           <t>testModels/db/9/m907/m907.off</t>
         </is>
       </c>
-      <c r="I242" t="n">
-        <v>35.60583620048602</v>
-      </c>
-      <c r="J242" t="b">
-        <v>1</v>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>[ 0.24412  3.20385 35.46056]</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>0.1806036165228</v>
       </c>
       <c r="K242" t="b">
+        <v>1</v>
+      </c>
+      <c r="L242" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9913,13 +11123,18 @@
           <t>testModels/db/9/m908/m908.off</t>
         </is>
       </c>
-      <c r="I243" t="n">
-        <v>0.6806853857961497</v>
-      </c>
-      <c r="J243" t="b">
-        <v>1</v>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>[0.5     0.37471 0.27004]</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>0.1606127350113</v>
       </c>
       <c r="K243" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9952,13 +11167,18 @@
           <t>testModels/db/9/m909/m909.off</t>
         </is>
       </c>
-      <c r="I244" t="n">
-        <v>0.736009067081599</v>
-      </c>
-      <c r="J244" t="b">
-        <v>0</v>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>[0.36429 0.39875 0.5    ]</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>0.2699627205685499</v>
       </c>
       <c r="K244" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9991,13 +11211,18 @@
           <t>testModels/db/9/m910/m910.off</t>
         </is>
       </c>
-      <c r="I245" t="n">
-        <v>2.068818970307112</v>
-      </c>
-      <c r="J245" t="b">
-        <v>1</v>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>[1.24503 0.52705 1.56593]</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>0.3648737378448</v>
       </c>
       <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10030,13 +11255,18 @@
           <t>testModels/db/9/m911/m911.off</t>
         </is>
       </c>
-      <c r="I246" t="n">
-        <v>14.53512791946737</v>
-      </c>
-      <c r="J246" t="b">
-        <v>1</v>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>[-0.05817 14.26451 -2.7911 ]</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>0.20469828125</v>
       </c>
       <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10069,13 +11299,18 @@
           <t>testModels/db/9/m912/m912.off</t>
         </is>
       </c>
-      <c r="I247" t="n">
-        <v>0.7344602083317461</v>
-      </c>
-      <c r="J247" t="b">
-        <v>1</v>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>[0.5    0.4696 0.2625]</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>0.21434375</v>
       </c>
       <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="b">
         <v>0</v>
       </c>
     </row>

--- a/features/original.xlsx
+++ b/features/original.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>center_mass</t>
+          <t>barycentre_distance</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -519,10 +519,8 @@
           <t>testModels/db/0/m0/m0.off</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[0.3338  0.27524 0.39134]</t>
-        </is>
+      <c r="I2" t="n">
+        <v>0.5833692785551206</v>
       </c>
       <c r="J2" t="n">
         <v>0.30655993840855</v>
@@ -563,10 +561,8 @@
           <t>testModels/db/0/m1/m1.off</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[0.22685 0.21716 0.32942]</t>
-        </is>
+      <c r="I3" t="n">
+        <v>0.4551239187853133</v>
       </c>
       <c r="J3" t="n">
         <v>0.13669153135125</v>
@@ -607,10 +603,8 @@
           <t>testModels/db/0/m2/m2.off</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[0.32096 0.26085 0.36399]</t>
-        </is>
+      <c r="I4" t="n">
+        <v>0.5509480836102678</v>
       </c>
       <c r="J4" t="n">
         <v>0.2757459366555</v>
@@ -651,10 +645,8 @@
           <t>testModels/db/0/m3/m3.off</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[0.4796  0.31391 0.42554]</t>
-        </is>
+      <c r="I5" t="n">
+        <v>0.7138964227799601</v>
       </c>
       <c r="J5" t="n">
         <v>0.4575223871524</v>
@@ -695,10 +687,8 @@
           <t>testModels/db/0/m4/m4.off</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[ 0.12036 -0.70121 -0.08675]</t>
-        </is>
+      <c r="I6" t="n">
+        <v>0.7167299028897499</v>
       </c>
       <c r="J6" t="n">
         <v>0.15520719289875</v>
@@ -739,10 +729,8 @@
           <t>testModels/db/0/m5/m5.off</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[0.31276 0.28692 0.40863]</t>
-        </is>
+      <c r="I7" t="n">
+        <v>0.5891684456837839</v>
       </c>
       <c r="J7" t="n">
         <v>0.2412601344584</v>
@@ -783,10 +771,8 @@
           <t>testModels/db/0/m6/m6.off</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[0.34655 0.47303 0.44325]</t>
-        </is>
+      <c r="I8" t="n">
+        <v>0.7350670881757851</v>
       </c>
       <c r="J8" t="n">
         <v>0.4137792986902</v>
@@ -827,10 +813,8 @@
           <t>testModels/db/0/m7/m7.off</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[0.2996  0.37981 0.47358]</t>
-        </is>
+      <c r="I9" t="n">
+        <v>0.6769725559850669</v>
       </c>
       <c r="J9" t="n">
         <v>0.2864681436477</v>
@@ -871,10 +855,8 @@
           <t>testModels/db/0/m8/m8.off</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[0.26053 0.51883 0.38664]</t>
-        </is>
+      <c r="I10" t="n">
+        <v>0.6975254655816926</v>
       </c>
       <c r="J10" t="n">
         <v>0.3486246117801</v>
@@ -915,10 +897,8 @@
           <t>testModels/db/0/m9/m9.off</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[ 0.50194 11.04056  0.43287]</t>
-        </is>
+      <c r="I11" t="n">
+        <v>11.0604390210595</v>
       </c>
       <c r="J11" t="n">
         <v>0.35013334705725</v>
@@ -959,10 +939,8 @@
           <t>testModels/db/1/m100/m100.off</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[0.2914  0.2242  0.49578]</t>
-        </is>
+      <c r="I12" t="n">
+        <v>0.617230475763601</v>
       </c>
       <c r="J12" t="n">
         <v>0.21949979381205</v>
@@ -1003,10 +981,8 @@
           <t>testModels/db/1/m101/m101.off</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[0.21684 0.47747 0.70053]</t>
-        </is>
+      <c r="I13" t="n">
+        <v>0.8750635992922768</v>
       </c>
       <c r="J13" t="n">
         <v>0.2406917928752999</v>
@@ -1047,10 +1023,8 @@
           <t>testModels/db/1/m102/m102.off</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[0.21525 0.26477 0.46865]</t>
-        </is>
+      <c r="I14" t="n">
+        <v>0.5797146577155331</v>
       </c>
       <c r="J14" t="n">
         <v>0.1520326298799</v>
@@ -1091,10 +1065,8 @@
           <t>testModels/db/1/m103/m103.off</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[0.1426  0.62842 0.43926]</t>
-        </is>
+      <c r="I15" t="n">
+        <v>0.7798726009303663</v>
       </c>
       <c r="J15" t="n">
         <v>0.14984652717595</v>
@@ -1135,10 +1107,8 @@
           <t>testModels/db/1/m104/m104.off</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[0.49539 0.47059 0.15403]</t>
-        </is>
+      <c r="I16" t="n">
+        <v>0.7004238388061579</v>
       </c>
       <c r="J16" t="n">
         <v>0.1849215228111</v>
@@ -1179,10 +1149,8 @@
           <t>testModels/db/1/m105/m105.off</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[0.15    0.5408  0.45165]</t>
-        </is>
+      <c r="I17" t="n">
+        <v>0.720381260007417</v>
       </c>
       <c r="J17" t="n">
         <v>0.21408164502945</v>
@@ -1223,10 +1191,8 @@
           <t>testModels/db/1/m106/m106.off</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>[0.12361 0.38183 0.59404]</t>
-        </is>
+      <c r="I18" t="n">
+        <v>0.7169114809430549</v>
       </c>
       <c r="J18" t="n">
         <v>0.11349285504</v>
@@ -1267,10 +1233,8 @@
           <t>testModels/db/1/m107/m107.off</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>[0.14444 0.52042 0.45173]</t>
-        </is>
+      <c r="I19" t="n">
+        <v>0.7041051577722928</v>
       </c>
       <c r="J19" t="n">
         <v>0.1958584251483</v>
@@ -1311,10 +1275,8 @@
           <t>testModels/db/1/m108/m108.off</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>[0.57152 0.5199  0.15692]</t>
-        </is>
+      <c r="I20" t="n">
+        <v>0.7883864757508037</v>
       </c>
       <c r="J20" t="n">
         <v>0.2158320410406</v>
@@ -1355,10 +1317,8 @@
           <t>testModels/db/1/m109/m109.off</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[0.39722 0.31741 0.24988]</t>
-        </is>
+      <c r="I21" t="n">
+        <v>0.5665445074166562</v>
       </c>
       <c r="J21" t="n">
         <v>0.3382912707369999</v>
@@ -1399,10 +1359,8 @@
           <t>testModels/db/1/m110/m110.off</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>[0.24707 0.31258 0.44098]</t>
-        </is>
+      <c r="I22" t="n">
+        <v>0.5943193461023402</v>
       </c>
       <c r="J22" t="n">
         <v>0.2939200007275</v>
@@ -1443,10 +1401,8 @@
           <t>testModels/db/1/m111/m111.off</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>[0.21977 0.3188  0.42829]</t>
-        </is>
+      <c r="I23" t="n">
+        <v>0.5773744061375005</v>
       </c>
       <c r="J23" t="n">
         <v>0.24167553026045</v>
@@ -1487,10 +1443,8 @@
           <t>testModels/db/1/m112/m112.off</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>[0.45673 0.63818 0.30562]</t>
-        </is>
+      <c r="I24" t="n">
+        <v>0.8421914177505204</v>
       </c>
       <c r="J24" t="n">
         <v>0.5465292191511999</v>
@@ -1531,10 +1485,8 @@
           <t>testModels/db/10/m1000/m1000.off</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>[ 0.50971 -0.60521  0.48632]</t>
-        </is>
+      <c r="I25" t="n">
+        <v>0.9287522775164535</v>
       </c>
       <c r="J25" t="n">
         <v>0.6396504912319999</v>
@@ -1575,10 +1527,8 @@
           <t>testModels/db/10/m1001/m1001.off</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>[0.35437 0.26538 0.3536 ]</t>
-        </is>
+      <c r="I26" t="n">
+        <v>0.5665998934600771</v>
       </c>
       <c r="J26" t="n">
         <v>0.36339438</v>
@@ -1619,10 +1569,8 @@
           <t>testModels/db/10/m1002/m1002.off</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>[  0.93078 -36.67351   2.3422 ]</t>
-        </is>
+      <c r="I27" t="n">
+        <v>36.76001108224993</v>
       </c>
       <c r="J27" t="n">
         <v>0.6687993559893</v>
@@ -1663,10 +1611,8 @@
           <t>testModels/db/10/m1003/m1003.off</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>[0.45072 2.7656  0.39009]</t>
-        </is>
+      <c r="I28" t="n">
+        <v>2.829112919506064</v>
       </c>
       <c r="J28" t="n">
         <v>0.8344160736335999</v>
@@ -1707,10 +1653,8 @@
           <t>testModels/db/10/m1004/m1004.off</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>[0.38301 1.54942 0.11717]</t>
-        </is>
+      <c r="I29" t="n">
+        <v>1.60035386373809</v>
       </c>
       <c r="J29" t="n">
         <v>0.58610156302355</v>
@@ -1751,10 +1695,8 @@
           <t>testModels/db/10/m1005/m1005.off</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>[ 0.25235 -3.02591  0.25488]</t>
-        </is>
+      <c r="I30" t="n">
+        <v>3.047092386015169</v>
       </c>
       <c r="J30" t="n">
         <v>0.20376973537075</v>
@@ -1795,10 +1737,8 @@
           <t>testModels/db/10/m1006/m1006.off</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>[0.6961  1.57667 0.74224]</t>
-        </is>
+      <c r="I31" t="n">
+        <v>1.876525832695281</v>
       </c>
       <c r="J31" t="n">
         <v>0.4711576637420999</v>
@@ -1839,10 +1779,8 @@
           <t>testModels/db/10/m1007/m1007.off</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>[  0.64605 -14.89311  -1.04891]</t>
-        </is>
+      <c r="I32" t="n">
+        <v>14.94397686443064</v>
       </c>
       <c r="J32" t="n">
         <v>0.50159135133015</v>
@@ -1883,10 +1821,8 @@
           <t>testModels/db/10/m1008/m1008.off</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>[ 0.37225 -0.08517  0.25697]</t>
-        </is>
+      <c r="I33" t="n">
+        <v>0.4602829826751681</v>
       </c>
       <c r="J33" t="n">
         <v>0.6686612839449999</v>
@@ -1927,10 +1863,8 @@
           <t>testModels/db/10/m1009/m1009.off</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>[ 0.35391 -2.25266  0.38447]</t>
-        </is>
+      <c r="I34" t="n">
+        <v>2.312477163242846</v>
       </c>
       <c r="J34" t="n">
         <v>0.3602333179622</v>
@@ -1971,10 +1905,8 @@
           <t>testModels/db/10/m1010/m1010.off</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>[0.50137 2.125   0.39554]</t>
-        </is>
+      <c r="I35" t="n">
+        <v>2.218883589454054</v>
       </c>
       <c r="J35" t="n">
         <v>0.4932343272991999</v>
@@ -2015,10 +1947,8 @@
           <t>testModels/db/10/m1011/m1011.off</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>[ 0.46551 -1.25139  0.42539]</t>
-        </is>
+      <c r="I36" t="n">
+        <v>1.40129883032089</v>
       </c>
       <c r="J36" t="n">
         <v>0.66857728021875</v>
@@ -2059,10 +1989,8 @@
           <t>testModels/db/10/m1012/m1012.off</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>[ 0.04165 -6.66756  0.6309 ]</t>
-        </is>
+      <c r="I37" t="n">
+        <v>6.697467331631407</v>
       </c>
       <c r="J37" t="n">
         <v>0.4852904050862999</v>
@@ -2103,10 +2031,8 @@
           <t>testModels/db/11/m1100/m1100.off</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>[0.12992 0.49669 0.15885]</t>
-        </is>
+      <c r="I38" t="n">
+        <v>0.5374154606745417</v>
       </c>
       <c r="J38" t="n">
         <v>0.0358110831519</v>
@@ -2147,10 +2073,8 @@
           <t>testModels/db/11/m1101/m1101.off</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>[0.12567 0.57442 0.04093]</t>
-        </is>
+      <c r="I39" t="n">
+        <v>0.5894297571576562</v>
       </c>
       <c r="J39" t="n">
         <v>0.00567314313805</v>
@@ -2191,10 +2115,8 @@
           <t>testModels/db/11/m1102/m1102.off</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>[0.11303 0.6575  0.03694]</t>
-        </is>
+      <c r="I40" t="n">
+        <v>0.6681650375107182</v>
       </c>
       <c r="J40" t="n">
         <v>0.005296771457279999</v>
@@ -2235,10 +2157,8 @@
           <t>testModels/db/11/m1103/m1103.off</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>[0.11172 0.69397 0.05637]</t>
-        </is>
+      <c r="I41" t="n">
+        <v>0.7051657940854634</v>
       </c>
       <c r="J41" t="n">
         <v>0.007662401278960001</v>
@@ -2279,10 +2199,8 @@
           <t>testModels/db/11/m1104/m1104.off</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>[0.15579 0.52193 0.04802]</t>
-        </is>
+      <c r="I42" t="n">
+        <v>0.5468003297544165</v>
       </c>
       <c r="J42" t="n">
         <v>0.01177359342705</v>
@@ -2323,10 +2241,8 @@
           <t>testModels/db/11/m1105/m1105.off</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>[0.61554 0.18221 0.06342]</t>
-        </is>
+      <c r="I43" t="n">
+        <v>0.6450712313608011</v>
       </c>
       <c r="J43" t="n">
         <v>0.0176481641208</v>
@@ -2367,10 +2283,8 @@
           <t>testModels/db/11/m1106/m1106.off</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>[0.40875 0.16021 0.05349]</t>
-        </is>
+      <c r="I44" t="n">
+        <v>0.4422728383787655</v>
       </c>
       <c r="J44" t="n">
         <v>0.014774983832475</v>
@@ -2411,10 +2325,8 @@
           <t>testModels/db/11/m1107/m1107.off</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>[ 0.26337 -0.12316  0.4174 ]</t>
-        </is>
+      <c r="I45" t="n">
+        <v>0.5086847653847676</v>
       </c>
       <c r="J45" t="n">
         <v>0.0201794797352</v>
@@ -2455,10 +2367,8 @@
           <t>testModels/db/11/m1108/m1108.off</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>[ 0.70123 -2.56917  0.07835]</t>
-        </is>
+      <c r="I46" t="n">
+        <v>2.66430241025552</v>
       </c>
       <c r="J46" t="n">
         <v>0.03613536741282</v>
@@ -2499,10 +2409,8 @@
           <t>testModels/db/11/m1109/m1109.off</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>[ -0.74986 555.48224  -8.04175]</t>
-        </is>
+      <c r="I47" t="n">
+        <v>555.5409493419526</v>
       </c>
       <c r="J47" t="n">
         <v>0.07049502607000001</v>
@@ -2543,10 +2451,8 @@
           <t>testModels/db/11/m1110/m1110.off</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>[0.0859  0.47746 0.21317]</t>
-        </is>
+      <c r="I48" t="n">
+        <v>0.5298898577961842</v>
       </c>
       <c r="J48" t="n">
         <v>0.04253667849274999</v>
@@ -2587,10 +2493,8 @@
           <t>testModels/db/11/m1111/m1111.off</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>[0.18684 0.55625 0.08871]</t>
-        </is>
+      <c r="I49" t="n">
+        <v>0.5934552605671437</v>
       </c>
       <c r="J49" t="n">
         <v>0.0555498363525</v>
@@ -2631,10 +2535,8 @@
           <t>testModels/db/11/m1112/m1112.off</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>[-0.07558 -3.47315 -0.10452]</t>
-        </is>
+      <c r="I50" t="n">
+        <v>3.475545362880868</v>
       </c>
       <c r="J50" t="n">
         <v>0.03610291686859999</v>
@@ -2675,10 +2577,8 @@
           <t>testModels/db/12/m1200/m1200.off</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>[0.25469 0.07518 0.49447]</t>
-        </is>
+      <c r="I51" t="n">
+        <v>0.5612599461755092</v>
       </c>
       <c r="J51" t="n">
         <v>0.12001996886445</v>
@@ -2719,10 +2619,8 @@
           <t>testModels/db/12/m1201/m1201.off</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>[ 0.34536 -0.08818 -0.03426]</t>
-        </is>
+      <c r="I52" t="n">
+        <v>0.3580824644805655</v>
       </c>
       <c r="J52" t="n">
         <v>0.1842149637729</v>
@@ -2763,10 +2661,8 @@
           <t>testModels/db/12/m1202/m1202.off</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>[0.29561 0.07745 0.45725]</t>
-        </is>
+      <c r="I53" t="n">
+        <v>0.5499636795036806</v>
       </c>
       <c r="J53" t="n">
         <v>0.1072671295525</v>
@@ -2807,10 +2703,8 @@
           <t>testModels/db/12/m1203/m1203.off</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>[0.25843 0.56094 0.11652]</t>
-        </is>
+      <c r="I54" t="n">
+        <v>0.6285065483059072</v>
       </c>
       <c r="J54" t="n">
         <v>0.11261987743</v>
@@ -2851,10 +2745,8 @@
           <t>testModels/db/12/m1204/m1204.off</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>[0.34597 0.11028 0.55178]</t>
-        </is>
+      <c r="I55" t="n">
+        <v>0.6605424659875109</v>
       </c>
       <c r="J55" t="n">
         <v>0.1879373359802</v>
@@ -2895,10 +2787,8 @@
           <t>testModels/db/12/m1205/m1205.off</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>[0.48671 2.71782 0.19551]</t>
-        </is>
+      <c r="I56" t="n">
+        <v>2.767969582236098</v>
       </c>
       <c r="J56" t="n">
         <v>0.1366358164875</v>
@@ -2939,10 +2829,8 @@
           <t>testModels/db/12/m1206/m1206.off</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>[0.43004 0.07646 0.36512]</t>
-        </is>
+      <c r="I57" t="n">
+        <v>0.5692872062278712</v>
       </c>
       <c r="J57" t="n">
         <v>0.1560866223667202</v>
@@ -2983,10 +2871,8 @@
           <t>testModels/db/12/m1207/m1207.off</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>[0.71366 0.07172 0.32764]</t>
-        </is>
+      <c r="I58" t="n">
+        <v>0.7885412833955276</v>
       </c>
       <c r="J58" t="n">
         <v>0.04203211683450001</v>
@@ -3027,10 +2913,8 @@
           <t>testModels/db/12/m1208/m1208.off</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>[0.34902 0.1261  0.76561]</t>
-        </is>
+      <c r="I59" t="n">
+        <v>0.8508020822459635</v>
       </c>
       <c r="J59" t="n">
         <v>0.12773090537</v>
@@ -3071,10 +2955,8 @@
           <t>testModels/db/12/m1209/m1209.off</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>[0.50031 0.09729 0.49809]</t>
-        </is>
+      <c r="I60" t="n">
+        <v>0.7126481134184162</v>
       </c>
       <c r="J60" t="n">
         <v>0.216677963555</v>
@@ -3115,10 +2997,8 @@
           <t>testModels/db/12/m1210/m1210.off</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>[0.19287 0.02987 0.06621]</t>
-        </is>
+      <c r="I61" t="n">
+        <v>0.206089011229017</v>
       </c>
       <c r="J61" t="n">
         <v>0.124648111575</v>
@@ -3159,10 +3039,8 @@
           <t>testModels/db/12/m1211/m1211.off</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>[ 0.62244  0.43605 -2.70756]</t>
-        </is>
+      <c r="I62" t="n">
+        <v>2.812198903068106</v>
       </c>
       <c r="J62" t="n">
         <v>0.2484029286024999</v>
@@ -3203,10 +3081,8 @@
           <t>testModels/db/12/m1212/m1212.off</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>[0.56637 0.27271 1.91719]</t>
-        </is>
+      <c r="I63" t="n">
+        <v>2.017612802001679</v>
       </c>
       <c r="J63" t="n">
         <v>0.1672867212288</v>
@@ -3247,10 +3123,8 @@
           <t>testModels/db/13/m1300/m1300.off</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>[0.37423 0.03826 0.45334]</t>
-        </is>
+      <c r="I64" t="n">
+        <v>0.5890943699485118</v>
       </c>
       <c r="J64" t="n">
         <v>0.09872842770584998</v>
@@ -3291,10 +3165,8 @@
           <t>testModels/db/13/m1301/m1301.off</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>[0.33701 0.06132 0.43703]</t>
-        </is>
+      <c r="I65" t="n">
+        <v>0.5552752156943827</v>
       </c>
       <c r="J65" t="n">
         <v>0.066256415535</v>
@@ -3335,10 +3207,8 @@
           <t>testModels/db/13/m1302/m1302.off</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>[0.09855 0.11776 0.29435]</t>
-        </is>
+      <c r="I66" t="n">
+        <v>0.3319983216080078</v>
       </c>
       <c r="J66" t="n">
         <v>0.0470046237255</v>
@@ -3379,10 +3249,8 @@
           <t>testModels/db/13/m1303/m1303.off</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>[ 0.53583 -0.95418  0.22636]</t>
-        </is>
+      <c r="I67" t="n">
+        <v>1.117499070233687</v>
       </c>
       <c r="J67" t="n">
         <v>0.1985021710586999</v>
@@ -3423,10 +3291,8 @@
           <t>testModels/db/13/m1304/m1304.off</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>[0.1422  0.19537 0.59318]</t>
-        </is>
+      <c r="I68" t="n">
+        <v>0.6405115886122699</v>
       </c>
       <c r="J68" t="n">
         <v>0.07990405931970002</v>
@@ -3467,10 +3333,8 @@
           <t>testModels/db/13/m1305/m1305.off</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>[0.60234 0.1217  0.09605]</t>
-        </is>
+      <c r="I69" t="n">
+        <v>0.6219743019925619</v>
       </c>
       <c r="J69" t="n">
         <v>0.0331246069806</v>
@@ -3511,10 +3375,8 @@
           <t>testModels/db/13/m1306/m1306.off</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>[0.39563 0.15965 1.57998]</t>
-        </is>
+      <c r="I70" t="n">
+        <v>1.636563159574256</v>
       </c>
       <c r="J70" t="n">
         <v>0.1974030053342999</v>
@@ -3555,10 +3417,8 @@
           <t>testModels/db/13/m1307/m1307.off</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>[0.37587 0.14934 0.76889]</t>
-        </is>
+      <c r="I71" t="n">
+        <v>0.8687734293818027</v>
       </c>
       <c r="J71" t="n">
         <v>0.2160193265505</v>
@@ -3599,10 +3459,8 @@
           <t>testModels/db/13/m1308/m1308.off</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>[0.43055 0.11464 0.45177]</t>
-        </is>
+      <c r="I72" t="n">
+        <v>0.6345127315821533</v>
       </c>
       <c r="J72" t="n">
         <v>0.19138752451875</v>
@@ -3643,10 +3501,8 @@
           <t>testModels/db/13/m1309/m1309.off</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>[ 0.41695 -0.02927  0.11915]</t>
-        </is>
+      <c r="I73" t="n">
+        <v>0.4346234580226721</v>
       </c>
       <c r="J73" t="n">
         <v>0.14159001367225</v>
@@ -3687,10 +3543,8 @@
           <t>testModels/db/13/m1310/m1310.off</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>[0.40898 0.11903 0.60155]</t>
-        </is>
+      <c r="I74" t="n">
+        <v>0.7370804741394653</v>
       </c>
       <c r="J74" t="n">
         <v>0.1952923078799999</v>
@@ -3731,10 +3585,8 @@
           <t>testModels/db/13/m1311/m1311.off</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>[0.44071 0.09476 0.51214]</t>
-        </is>
+      <c r="I75" t="n">
+        <v>0.6822714190403661</v>
       </c>
       <c r="J75" t="n">
         <v>0.1431480521615</v>
@@ -3775,10 +3627,8 @@
           <t>testModels/db/13/m1312/m1312.off</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>[0.5001  0.17761 0.27906]</t>
-        </is>
+      <c r="I76" t="n">
+        <v>0.5996034562190253</v>
       </c>
       <c r="J76" t="n">
         <v>0.2215414359629999</v>
@@ -3819,10 +3669,8 @@
           <t>testModels/db/14/m1400/m1400.off</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>[0.32759 1.11689 0.11637]</t>
-        </is>
+      <c r="I77" t="n">
+        <v>1.16974626638147</v>
       </c>
       <c r="J77" t="n">
         <v>0.2061737382922</v>
@@ -3863,10 +3711,8 @@
           <t>testModels/db/14/m1401/m1401.off</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>[0.39782 0.37775 0.33055]</t>
-        </is>
+      <c r="I78" t="n">
+        <v>0.6404811368568801</v>
       </c>
       <c r="J78" t="n">
         <v>0.585685399061</v>
@@ -3907,10 +3753,8 @@
           <t>testModels/db/14/m1402/m1402.off</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>[ 0.16796 -1.03949 -3.40541]</t>
-        </is>
+      <c r="I79" t="n">
+        <v>3.564486434977824</v>
       </c>
       <c r="J79" t="n">
         <v>0.5856046431026</v>
@@ -3951,10 +3795,8 @@
           <t>testModels/db/14/m1403/m1403.off</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>[ 0.5     -0.19756 -0.61883]</t>
-        </is>
+      <c r="I80" t="n">
+        <v>0.819742337942043</v>
       </c>
       <c r="J80" t="n">
         <v>0.4645027603037999</v>
@@ -3995,10 +3837,8 @@
           <t>testModels/db/14/m1404/m1404.off</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>[0.3211  0.23671 0.52407]</t>
-        </is>
+      <c r="I81" t="n">
+        <v>0.6586212464423078</v>
       </c>
       <c r="J81" t="n">
         <v>0.2329240077266</v>
@@ -4039,10 +3879,8 @@
           <t>testModels/db/14/m1405/m1405.off</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>[ 0.3599  -0.03094 -0.00716]</t>
-        </is>
+      <c r="I82" t="n">
+        <v>0.3613023257726861</v>
       </c>
       <c r="J82" t="n">
         <v>0.5865306699874999</v>
@@ -4083,10 +3921,8 @@
           <t>testModels/db/14/m1406/m1406.off</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>[-0.66915 -0.02081 -0.54613]</t>
-        </is>
+      <c r="I83" t="n">
+        <v>0.8639761027006455</v>
       </c>
       <c r="J83" t="n">
         <v>0.0841694023968</v>
@@ -4127,10 +3963,8 @@
           <t>testModels/db/14/m1407/m1407.off</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>[0.4194  0.712   0.14076]</t>
-        </is>
+      <c r="I84" t="n">
+        <v>0.8382463080197116</v>
       </c>
       <c r="J84" t="n">
         <v>0.17019194710475</v>
@@ -4171,10 +4005,8 @@
           <t>testModels/db/14/m1408/m1408.off</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>[0.42832 0.17937 0.30331]</t>
-        </is>
+      <c r="I85" t="n">
+        <v>0.5546446857438891</v>
       </c>
       <c r="J85" t="n">
         <v>0.24976478682495</v>
@@ -4215,10 +4047,8 @@
           <t>testModels/db/14/m1409/m1409.off</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>[-0.07785  0.8428   0.97021]</t>
-        </is>
+      <c r="I86" t="n">
+        <v>1.287513252233688</v>
       </c>
       <c r="J86" t="n">
         <v>0.1642592688858</v>
@@ -4259,10 +4089,8 @@
           <t>testModels/db/14/m1410/m1410.off</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>[-0.36698 -1.20374 -0.41057]</t>
-        </is>
+      <c r="I87" t="n">
+        <v>1.323723885002757</v>
       </c>
       <c r="J87" t="n">
         <v>0.1278829525601129</v>
@@ -4303,10 +4131,8 @@
           <t>testModels/db/14/m1411/m1411.off</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>[0.60142 0.16156 0.15921]</t>
-        </is>
+      <c r="I88" t="n">
+        <v>0.642768959615704</v>
       </c>
       <c r="J88" t="n">
         <v>0.0939039850931</v>
@@ -4347,10 +4173,8 @@
           <t>testModels/db/14/m1412/m1412.off</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>[0.68541 0.21149 0.29044]</t>
-        </is>
+      <c r="I89" t="n">
+        <v>0.7738656385434007</v>
       </c>
       <c r="J89" t="n">
         <v>0.08440098270834998</v>
@@ -4391,10 +4215,8 @@
           <t>testModels/db/15/m1500/m1500.off</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>[0.22643 0.1993  0.58139]</t>
-        </is>
+      <c r="I90" t="n">
+        <v>0.6549786956999486</v>
       </c>
       <c r="J90" t="n">
         <v>0.1361507547867</v>
@@ -4435,10 +4257,8 @@
           <t>testModels/db/15/m1501/m1501.off</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>[0.27773 0.2798  0.62893]</t>
-        </is>
+      <c r="I91" t="n">
+        <v>0.7422720498921764</v>
       </c>
       <c r="J91" t="n">
         <v>0.19576849474065</v>
@@ -4479,10 +4299,8 @@
           <t>testModels/db/15/m1502/m1502.off</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>[0.42365 0.04181 0.16016]</t>
-        </is>
+      <c r="I92" t="n">
+        <v>0.4548392093646955</v>
       </c>
       <c r="J92" t="n">
         <v>0.0826927006095</v>
@@ -4523,10 +4341,8 @@
           <t>testModels/db/15/m1503/m1503.off</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>[0.34284 0.09837 0.12809]</t>
-        </is>
+      <c r="I93" t="n">
+        <v>0.3789775151125117</v>
       </c>
       <c r="J93" t="n">
         <v>0.03216136113819999</v>
@@ -4567,10 +4383,8 @@
           <t>testModels/db/15/m1504/m1504.off</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>[0.23779 0.05134 0.48981]</t>
-        </is>
+      <c r="I94" t="n">
+        <v>0.5468981341886293</v>
       </c>
       <c r="J94" t="n">
         <v>0.0758695732669</v>
@@ -4611,10 +4425,8 @@
           <t>testModels/db/15/m1505/m1505.off</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>[0.20814 0.07373 0.40945]</t>
-        </is>
+      <c r="I95" t="n">
+        <v>0.4651962912917554</v>
       </c>
       <c r="J95" t="n">
         <v>0.0645418395294</v>
@@ -4655,10 +4467,8 @@
           <t>testModels/db/15/m1506/m1506.off</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>[0.34827 1.43765 0.49832]</t>
-        </is>
+      <c r="I96" t="n">
+        <v>1.560915220978554</v>
       </c>
       <c r="J96" t="n">
         <v>0.1288943364284</v>
@@ -4699,10 +4509,8 @@
           <t>testModels/db/15/m1507/m1507.off</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>[0.23162 0.08924 0.45453]</t>
-        </is>
+      <c r="I97" t="n">
+        <v>0.5178890063493991</v>
       </c>
       <c r="J97" t="n">
         <v>0.07374694566604999</v>
@@ -4743,10 +4551,8 @@
           <t>testModels/db/15/m1508/m1508.off</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>[0.49715 0.04413 0.31961]</t>
-        </is>
+      <c r="I98" t="n">
+        <v>0.5926709516310176</v>
       </c>
       <c r="J98" t="n">
         <v>0.07039702126274998</v>
@@ -4787,10 +4593,8 @@
           <t>testModels/db/15/m1509/m1509.off</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>[0.29106 0.16618 0.54691]</t>
-        </is>
+      <c r="I99" t="n">
+        <v>0.6414435012033664</v>
       </c>
       <c r="J99" t="n">
         <v>0.1811462751618</v>
@@ -4831,10 +4635,8 @@
           <t>testModels/db/15/m1510/m1510.off</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>[0.25768 0.09251 0.46593]</t>
-        </is>
+      <c r="I100" t="n">
+        <v>0.5404144798045344</v>
       </c>
       <c r="J100" t="n">
         <v>0.09692012567019999</v>
@@ -4875,10 +4677,8 @@
           <t>testModels/db/15/m1511/m1511.off</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>[0.30445 0.08735 0.59198]</t>
-        </is>
+      <c r="I101" t="n">
+        <v>0.6713896582725891</v>
       </c>
       <c r="J101" t="n">
         <v>0.119308459153</v>
@@ -4919,10 +4719,8 @@
           <t>testModels/db/15/m1512/m1512.off</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>[0.53662 0.16367 0.1268 ]</t>
-        </is>
+      <c r="I102" t="n">
+        <v>0.5751799931608572</v>
       </c>
       <c r="J102" t="n">
         <v>0.07504459125004999</v>
@@ -4963,10 +4761,8 @@
           <t>testModels/db/16/m1600/m1600.off</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>[0.23492 0.36545 0.23473]</t>
-        </is>
+      <c r="I103" t="n">
+        <v>0.4938009535455633</v>
       </c>
       <c r="J103" t="n">
         <v>0.16730878970505</v>
@@ -5007,10 +4803,8 @@
           <t>testModels/db/16/m1601/m1601.off</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>[0.29056 0.30705 0.29047]</t>
-        </is>
+      <c r="I104" t="n">
+        <v>0.5129148151804925</v>
       </c>
       <c r="J104" t="n">
         <v>0.267326072757</v>
@@ -5051,10 +4845,8 @@
           <t>testModels/db/16/m1602/m1602.off</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>[ 0.21517 10.64896  0.21541]</t>
-        </is>
+      <c r="I105" t="n">
+        <v>10.65330892710382</v>
       </c>
       <c r="J105" t="n">
         <v>0.1372117698392</v>
@@ -5095,10 +4887,8 @@
           <t>testModels/db/16/m1603/m1603.off</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>[0.20474 0.37498 0.20439]</t>
-        </is>
+      <c r="I106" t="n">
+        <v>0.4736077918143534</v>
       </c>
       <c r="J106" t="n">
         <v>0.12268194633695</v>
@@ -5139,10 +4929,8 @@
           <t>testModels/db/16/m1604/m1604.off</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>[0.2197  0.36789 0.22455]</t>
-        </is>
+      <c r="I107" t="n">
+        <v>0.4837704005043448</v>
       </c>
       <c r="J107" t="n">
         <v>0.14381334482895</v>
@@ -5183,10 +4971,8 @@
           <t>testModels/db/16/m1605/m1605.off</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>[0.34164 0.32351 0.35603]</t>
-        </is>
+      <c r="I108" t="n">
+        <v>0.5900303134020558</v>
       </c>
       <c r="J108" t="n">
         <v>0.3810551544445499</v>
@@ -5227,10 +5013,8 @@
           <t>testModels/db/16/m1606/m1606.off</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>[0.34754 0.32821 0.32604]</t>
-        </is>
+      <c r="I109" t="n">
+        <v>0.5786225054700455</v>
       </c>
       <c r="J109" t="n">
         <v>0.3432074538341999</v>
@@ -5271,10 +5055,8 @@
           <t>testModels/db/16/m1607/m1607.off</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>[0.27381 9.61377 0.27599]</t>
-        </is>
+      <c r="I110" t="n">
+        <v>9.621629683250177</v>
       </c>
       <c r="J110" t="n">
         <v>0.2316390123008</v>
@@ -5315,10 +5097,8 @@
           <t>testModels/db/16/m1608/m1608.off</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>[0.425   0.44919 0.425  ]</t>
-        </is>
+      <c r="I111" t="n">
+        <v>0.7503495583547535</v>
       </c>
       <c r="J111" t="n">
         <v>0.6079999999999999</v>
@@ -5359,10 +5139,8 @@
           <t>testModels/db/16/m1609/m1609.off</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>[0.27568 0.35811 0.27568]</t>
-        </is>
+      <c r="I112" t="n">
+        <v>0.5293811403815504</v>
       </c>
       <c r="J112" t="n">
         <v>0.23880042525455</v>
@@ -5403,10 +5181,8 @@
           <t>testModels/db/16/m1610/m1610.off</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>[0.33557 0.35663 0.33541]</t>
-        </is>
+      <c r="I113" t="n">
+        <v>0.5935444082093195</v>
       </c>
       <c r="J113" t="n">
         <v>0.3663335584208999</v>
@@ -5447,10 +5223,8 @@
           <t>testModels/db/16/m1611/m1611.off</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>[0.61155 0.26853 0.26853]</t>
-        </is>
+      <c r="I114" t="n">
+        <v>0.7198678966021049</v>
       </c>
       <c r="J114" t="n">
         <v>0.22536144437375</v>
@@ -5491,10 +5265,8 @@
           <t>testModels/db/16/m1612/m1612.off</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>[0.22461 4.34884 0.22458]</t>
-        </is>
+      <c r="I115" t="n">
+        <v>4.360426081208259</v>
       </c>
       <c r="J115" t="n">
         <v>0.1513558239525</v>
@@ -5535,10 +5307,8 @@
           <t>testModels/db/17/m1700/m1700.off</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>[ 0.50313 -0.06476  0.3562 ]</t>
-        </is>
+      <c r="I116" t="n">
+        <v>0.6198455781716755</v>
       </c>
       <c r="J116" t="n">
         <v>0.38632799271675</v>
@@ -5579,10 +5349,8 @@
           <t>testModels/db/17/m1701/m1701.off</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>[0.5     0.55113 0.26898]</t>
-        </is>
+      <c r="I117" t="n">
+        <v>0.7912623713546214</v>
       </c>
       <c r="J117" t="n">
         <v>0.2997184795742999</v>
@@ -5623,10 +5391,8 @@
           <t>testModels/db/17/m1702/m1702.off</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>[0.5     0.31679 0.26274]</t>
-        </is>
+      <c r="I118" t="n">
+        <v>0.6476045935389062</v>
       </c>
       <c r="J118" t="n">
         <v>0.2787690292414</v>
@@ -5667,10 +5433,8 @@
           <t>testModels/db/17/m1703/m1703.off</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>[0.35418 0.41692 0.50967]</t>
-        </is>
+      <c r="I119" t="n">
+        <v>0.74768074137693</v>
       </c>
       <c r="J119" t="n">
         <v>0.6194081680999999</v>
@@ -5711,10 +5475,8 @@
           <t>testModels/db/17/m1704/m1704.off</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>[0.42804 0.33992 0.36365]</t>
-        </is>
+      <c r="I120" t="n">
+        <v>0.6565078561121291</v>
       </c>
       <c r="J120" t="n">
         <v>0.5461226671774999</v>
@@ -5755,10 +5517,8 @@
           <t>testModels/db/17/m1705/m1705.off</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>[0.29051 0.50058 0.0298 ]</t>
-        </is>
+      <c r="I121" t="n">
+        <v>0.5795370022426829</v>
       </c>
       <c r="J121" t="n">
         <v>0.02653413475437499</v>
@@ -5799,10 +5559,8 @@
           <t>testModels/db/17/m1706/m1706.off</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>[ 0.03585 -0.01421 -1.92436]</t>
-        </is>
+      <c r="I122" t="n">
+        <v>1.924747619700219</v>
       </c>
       <c r="J122" t="n">
         <v>0.014289598375</v>
@@ -5843,10 +5601,8 @@
           <t>testModels/db/17/m1707/m1707.off</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>[ 0.26842 -0.84978 -2.73226]</t>
-        </is>
+      <c r="I123" t="n">
+        <v>2.87391802916773</v>
       </c>
       <c r="J123" t="n">
         <v>0.12699258673075</v>
@@ -5887,10 +5643,8 @@
           <t>testModels/db/17/m1708/m1708.off</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>[0.27248 0.45843 0.12625]</t>
-        </is>
+      <c r="I124" t="n">
+        <v>0.5480399341627323</v>
       </c>
       <c r="J124" t="n">
         <v>0.01399797760203499</v>
@@ -5931,10 +5685,8 @@
           <t>testModels/db/17/m1709/m1709.off</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>[ 0.01618 -0.0001  -0.0161 ]</t>
-        </is>
+      <c r="I125" t="n">
+        <v>0.02282710625452686</v>
       </c>
       <c r="J125" t="n">
         <v>0.005889478087669998</v>
@@ -5975,10 +5727,8 @@
           <t>testModels/db/17/m1710/m1710.off</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>[0.28876 0.49429 0.07245]</t>
-        </is>
+      <c r="I126" t="n">
+        <v>0.5770248902467106</v>
       </c>
       <c r="J126" t="n">
         <v>0.0468769388463</v>
@@ -6019,10 +5769,8 @@
           <t>testModels/db/17/m1711/m1711.off</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>[0.17116 0.5154  0.07614]</t>
-        </is>
+      <c r="I127" t="n">
+        <v>0.5483873210121538</v>
       </c>
       <c r="J127" t="n">
         <v>0.022203345375</v>
@@ -6063,10 +5811,8 @@
           <t>testModels/db/17/m1712/m1712.off</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>[0.25076 0.50101 0.0566 ]</t>
-        </is>
+      <c r="I128" t="n">
+        <v>0.5631075208341388</v>
       </c>
       <c r="J128" t="n">
         <v>0.0275369728818</v>
@@ -6107,10 +5853,8 @@
           <t>testModels/db/18/m1800/m1800.off</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>[0.51523 0.31951 0.13599]</t>
-        </is>
+      <c r="I129" t="n">
+        <v>0.6213244117082173</v>
       </c>
       <c r="J129" t="n">
         <v>0.5039622732186</v>
@@ -6151,10 +5895,8 @@
           <t>testModels/db/18/m1801/m1801.off</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>[0.45024 0.95485 0.34228]</t>
-        </is>
+      <c r="I130" t="n">
+        <v>1.10978267848802</v>
       </c>
       <c r="J130" t="n">
         <v>0.5839181688284999</v>
@@ -6195,10 +5937,8 @@
           <t>testModels/db/18/m1802/m1802.off</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>[0.511   0.16634 0.19297]</t>
-        </is>
+      <c r="I131" t="n">
+        <v>0.5709874283546265</v>
       </c>
       <c r="J131" t="n">
         <v>0.3518480536242</v>
@@ -6239,10 +5979,8 @@
           <t>testModels/db/18/m1803/m1803.off</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>[0.36383 2.77827 1.81706]</t>
-        </is>
+      <c r="I132" t="n">
+        <v>3.339593683144616</v>
       </c>
       <c r="J132" t="n">
         <v>0.5595389763159</v>
@@ -6283,10 +6021,8 @@
           <t>testModels/db/18/m1804/m1804.off</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>[0.28563 0.43037 0.24735]</t>
-        </is>
+      <c r="I133" t="n">
+        <v>0.5727008617910611</v>
       </c>
       <c r="J133" t="n">
         <v>0.2981086693236</v>
@@ -6327,10 +6063,8 @@
           <t>testModels/db/18/m1805/m1805.off</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>[0.24185 0.04264 0.19024]</t>
-        </is>
+      <c r="I134" t="n">
+        <v>0.3106496813581565</v>
       </c>
       <c r="J134" t="n">
         <v>0.25429138871805</v>
@@ -6371,10 +6105,8 @@
           <t>testModels/db/18/m1806/m1806.off</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>[0.33564 0.45564 0.20624]</t>
-        </is>
+      <c r="I135" t="n">
+        <v>0.6023279965570014</v>
       </c>
       <c r="J135" t="n">
         <v>0.3667566974668</v>
@@ -6415,10 +6147,8 @@
           <t>testModels/db/18/m1807/m1807.off</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>[0.54541 0.12922 0.36112]</t>
-        </is>
+      <c r="I136" t="n">
+        <v>0.6667638443153735</v>
       </c>
       <c r="J136" t="n">
         <v>0.1942775707323</v>
@@ -6459,10 +6189,8 @@
           <t>testModels/db/18/m1808/m1808.off</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>[0.39233 0.41869 0.41794]</t>
-        </is>
+      <c r="I137" t="n">
+        <v>0.7098625048574279</v>
       </c>
       <c r="J137" t="n">
         <v>0.60615035958075</v>
@@ -6503,10 +6231,8 @@
           <t>testModels/db/18/m1809/m1809.off</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>[0.49982 0.16092 0.28351]</t>
-        </is>
+      <c r="I138" t="n">
+        <v>0.5967372119898237</v>
       </c>
       <c r="J138" t="n">
         <v>0.2841935748727499</v>
@@ -6547,10 +6273,8 @@
           <t>testModels/db/18/m1810/m1810.off</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>[ 0.50142 -0.20934  0.36146]</t>
-        </is>
+      <c r="I139" t="n">
+        <v>0.6526083143767877</v>
       </c>
       <c r="J139" t="n">
         <v>0.231584768836</v>
@@ -6591,10 +6315,8 @@
           <t>testModels/db/18/m1811/m1811.off</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>[0.42233 0.95945 1.03998]</t>
-        </is>
+      <c r="I140" t="n">
+        <v>1.476636120981594</v>
       </c>
       <c r="J140" t="n">
         <v>0.5604020983959999</v>
@@ -6635,10 +6357,8 @@
           <t>testModels/db/18/m1812/m1812.off</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>[ 0.28292  0.95459 -0.47501]</t>
-        </is>
+      <c r="I141" t="n">
+        <v>1.103140169297351</v>
       </c>
       <c r="J141" t="n">
         <v>0.09693337393699998</v>
@@ -6679,10 +6399,8 @@
           <t>testModels/db/18/m1813/m1813.off</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>[ 0.35783  0.15391 -0.69514]</t>
-        </is>
+      <c r="I142" t="n">
+        <v>0.7968329866019411</v>
       </c>
       <c r="J142" t="n">
         <v>0.55862034481525</v>
@@ -6723,10 +6441,8 @@
           <t>testModels/db/18/m1814/m1814.off</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>[0.22933 0.45598 0.52142]</t>
-        </is>
+      <c r="I143" t="n">
+        <v>0.7296480297390275</v>
       </c>
       <c r="J143" t="n">
         <v>0.7130584857292499</v>
@@ -6767,10 +6483,8 @@
           <t>testModels/db/2/m200/m200.off</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>[0.21667 0.17405 0.09835]</t>
-        </is>
+      <c r="I144" t="n">
+        <v>0.2948098828131037</v>
       </c>
       <c r="J144" t="n">
         <v>0.0629806609719</v>
@@ -6811,10 +6525,8 @@
           <t>testModels/db/2/m201/m201.off</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>[0.32969 0.13545 0.34994]</t>
-        </is>
+      <c r="I145" t="n">
+        <v>0.4995024295394319</v>
       </c>
       <c r="J145" t="n">
         <v>0.13366499845625</v>
@@ -6855,10 +6567,8 @@
           <t>testModels/db/2/m202/m202.off</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>[0.16031 0.53395 0.09177]</t>
-        </is>
+      <c r="I146" t="n">
+        <v>0.5650001280664023</v>
       </c>
       <c r="J146" t="n">
         <v>0.0516014193972</v>
@@ -6899,10 +6609,8 @@
           <t>testModels/db/2/m203/m203.off</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>[0.18661 0.41486 0.12281]</t>
-        </is>
+      <c r="I147" t="n">
+        <v>0.471185126747117</v>
       </c>
       <c r="J147" t="n">
         <v>0.06315912987</v>
@@ -6943,10 +6651,8 @@
           <t>testModels/db/2/m204/m204.off</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>[0.1833  0.51217 0.11139]</t>
-        </is>
+      <c r="I148" t="n">
+        <v>0.5552728333083351</v>
       </c>
       <c r="J148" t="n">
         <v>0.09861214600439998</v>
@@ -6987,10 +6693,8 @@
           <t>testModels/db/2/m205/m205.off</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>[0.20338 0.55405 0.116  ]</t>
-        </is>
+      <c r="I149" t="n">
+        <v>0.6014943298523155</v>
       </c>
       <c r="J149" t="n">
         <v>0.070458809638</v>
@@ -7031,10 +6735,8 @@
           <t>testModels/db/2/m206/m206.off</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>[0.16246 0.17742 0.76588]</t>
-        </is>
+      <c r="I150" t="n">
+        <v>0.8027768093249181</v>
       </c>
       <c r="J150" t="n">
         <v>0.0579511642269</v>
@@ -7075,10 +6777,8 @@
           <t>testModels/db/2/m207/m207.off</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>[0.20774 0.76449 0.09746]</t>
-        </is>
+      <c r="I151" t="n">
+        <v>0.7981822167103412</v>
       </c>
       <c r="J151" t="n">
         <v>0.08830113672149997</v>
@@ -7119,10 +6819,8 @@
           <t>testModels/db/2/m208/m208.off</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>[0.19666 0.57249 0.09086]</t>
-        </is>
+      <c r="I152" t="n">
+        <v>0.6121087592214904</v>
       </c>
       <c r="J152" t="n">
         <v>0.0502958286896</v>
@@ -7163,10 +6861,8 @@
           <t>testModels/db/2/m209/m209.off</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>[0.21522 0.65946 0.17456]</t>
-        </is>
+      <c r="I153" t="n">
+        <v>0.7153164380604121</v>
       </c>
       <c r="J153" t="n">
         <v>0.09699395964644997</v>
@@ -7207,10 +6903,8 @@
           <t>testModels/db/2/m210/m210.off</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>[0.30551 0.56034 0.18115]</t>
-        </is>
+      <c r="I154" t="n">
+        <v>0.6634231530029858</v>
       </c>
       <c r="J154" t="n">
         <v>0.3257943964477499</v>
@@ -7251,10 +6945,8 @@
           <t>testModels/db/2/m211/m211.off</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>[0.18333 0.54343 0.12006]</t>
-        </is>
+      <c r="I155" t="n">
+        <v>0.585953083725378</v>
       </c>
       <c r="J155" t="n">
         <v>0.06076322891144999</v>
@@ -7295,10 +6987,8 @@
           <t>testModels/db/2/m212/m212.off</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>[0.28705 0.52404 0.10317]</t>
-        </is>
+      <c r="I156" t="n">
+        <v>0.6063492839013889</v>
       </c>
       <c r="J156" t="n">
         <v>0.07985204410555001</v>
@@ -7339,10 +7029,8 @@
           <t>testModels/db/3/m300/m300.off</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>[0.33935 0.08242 1.22676]</t>
-        </is>
+      <c r="I157" t="n">
+        <v>1.275494816908894</v>
       </c>
       <c r="J157" t="n">
         <v>0.272133783058827</v>
@@ -7383,10 +7071,8 @@
           <t>testModels/db/3/m301/m301.off</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>[ 0.08329  0.09585 -0.75625]</t>
-        </is>
+      <c r="I158" t="n">
+        <v>0.7668358929631715</v>
       </c>
       <c r="J158" t="n">
         <v>0.42176198758065</v>
@@ -7427,10 +7113,8 @@
           <t>testModels/db/3/m302/m302.off</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>[0.40543 0.23625 0.50762]</t>
-        </is>
+      <c r="I159" t="n">
+        <v>0.6912807370527623</v>
       </c>
       <c r="J159" t="n">
         <v>0.44863801136315</v>
@@ -7471,10 +7155,8 @@
           <t>testModels/db/3/m303/m303.off</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>[ 0.34177 -0.05775  0.4675 ]</t>
-        </is>
+      <c r="I160" t="n">
+        <v>0.5819743024468653</v>
       </c>
       <c r="J160" t="n">
         <v>0.4799720971559999</v>
@@ -7515,10 +7197,8 @@
           <t>testModels/db/3/m304/m304.off</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>[ 0.44621 -0.21781  0.71867]</t>
-        </is>
+      <c r="I161" t="n">
+        <v>0.8735197457876698</v>
       </c>
       <c r="J161" t="n">
         <v>0.5246717629299</v>
@@ -7559,10 +7239,8 @@
           <t>testModels/db/3/m305/m305.off</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>[0.32742 0.55    0.17718]</t>
-        </is>
+      <c r="I162" t="n">
+        <v>0.6641498529799693</v>
       </c>
       <c r="J162" t="n">
         <v>0.2091357947613</v>
@@ -7603,10 +7281,8 @@
           <t>testModels/db/3/m306/m306.off</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>[0.38818 0.29526 0.76387]</t>
-        </is>
+      <c r="I163" t="n">
+        <v>0.9062922246344396</v>
       </c>
       <c r="J163" t="n">
         <v>0.5021063473894</v>
@@ -7647,10 +7323,8 @@
           <t>testModels/db/3/m307/m307.off</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>[0.32987 0.44546 0.18796]</t>
-        </is>
+      <c r="I164" t="n">
+        <v>0.5853048029009464</v>
       </c>
       <c r="J164" t="n">
         <v>0.2854492755504</v>
@@ -7691,10 +7365,8 @@
           <t>testModels/db/3/m308/m308.off</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>[ 0.23438 -0.11465 -0.01409]</t>
-        </is>
+      <c r="I165" t="n">
+        <v>0.2612976627589222</v>
       </c>
       <c r="J165" t="n">
         <v>0.1345423657043896</v>
@@ -7735,10 +7407,8 @@
           <t>testModels/db/3/m309/m309.off</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>[ 0.12636 -0.2492  -0.12181]</t>
-        </is>
+      <c r="I166" t="n">
+        <v>0.3047996693557312</v>
       </c>
       <c r="J166" t="n">
         <v>0.05283930541306872</v>
@@ -7779,10 +7449,8 @@
           <t>testModels/db/3/m310/m310.off</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>[ 0.28511 -0.00504 -0.03517]</t>
-        </is>
+      <c r="I167" t="n">
+        <v>0.2873133122593487</v>
       </c>
       <c r="J167" t="n">
         <v>0.1180692170551223</v>
@@ -7823,10 +7491,8 @@
           <t>testModels/db/3/m311/m311.off</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>[0.23408 0.07864 0.07801]</t>
-        </is>
+      <c r="I168" t="n">
+        <v>0.2589699424232592</v>
       </c>
       <c r="J168" t="n">
         <v>0.1477825613933806</v>
@@ -7867,10 +7533,8 @@
           <t>testModels/db/3/m312/m312.off</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>[ 0.26322  0.04064 -0.02771]</t>
-        </is>
+      <c r="I169" t="n">
+        <v>0.2677723957968401</v>
       </c>
       <c r="J169" t="n">
         <v>0.1353662284264502</v>
@@ -7911,10 +7575,8 @@
           <t>testModels/db/4/m400/m400.off</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>[0.40094 0.2333  0.48854]</t>
-        </is>
+      <c r="I170" t="n">
+        <v>0.6736874996811439</v>
       </c>
       <c r="J170" t="n">
         <v>0.5465683954868</v>
@@ -7955,10 +7617,8 @@
           <t>testModels/db/4/m401/m401.off</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>[0.53416 0.07716 0.65824]</t>
-        </is>
+      <c r="I171" t="n">
+        <v>0.8512148037298419</v>
       </c>
       <c r="J171" t="n">
         <v>0.163505925</v>
@@ -7999,10 +7659,8 @@
           <t>testModels/db/4/m402/m402.off</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>[0.32407 0.28076 0.33032]</t>
-        </is>
+      <c r="I172" t="n">
+        <v>0.5412540668923238</v>
       </c>
       <c r="J172" t="n">
         <v>0.3803311612695</v>
@@ -8043,10 +7701,8 @@
           <t>testModels/db/4/m403/m403.off</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>[0.49995 0.20469 0.49994]</t>
-        </is>
+      <c r="I173" t="n">
+        <v>0.7360560226147552</v>
       </c>
       <c r="J173" t="n">
         <v>0.4723955749999999</v>
@@ -8087,10 +7743,8 @@
           <t>testModels/db/4/m404/m404.off</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>[0.40153 0.13608 0.43336]</t>
-        </is>
+      <c r="I174" t="n">
+        <v>0.6062568140491283</v>
       </c>
       <c r="J174" t="n">
         <v>0.2758108135843</v>
@@ -8131,10 +7785,8 @@
           <t>testModels/db/4/m405/m405.off</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>[0.49764 0.34261 0.4703 ]</t>
-        </is>
+      <c r="I175" t="n">
+        <v>0.7656466655144938</v>
       </c>
       <c r="J175" t="n">
         <v>0.7374751118261998</v>
@@ -8175,10 +7827,8 @@
           <t>testModels/db/4/m406/m406.off</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>[0.36491 0.26604 0.35223]</t>
-        </is>
+      <c r="I176" t="n">
+        <v>0.5727114092479244</v>
       </c>
       <c r="J176" t="n">
         <v>0.4214042623551</v>
@@ -8219,10 +7869,8 @@
           <t>testModels/db/4/m407/m407.off</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>[0.41214 0.49648 0.3599 ]</t>
-        </is>
+      <c r="I177" t="n">
+        <v>0.7388373022554811</v>
       </c>
       <c r="J177" t="n">
         <v>0.5377887483226499</v>
@@ -8263,10 +7911,8 @@
           <t>testModels/db/4/m408/m408.off</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>[0.33435 0.14474 0.52846]</t>
-        </is>
+      <c r="I178" t="n">
+        <v>0.6418806266942023</v>
       </c>
       <c r="J178" t="n">
         <v>0.334412281809</v>
@@ -8307,10 +7953,8 @@
           <t>testModels/db/4/m409/m409.off</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>[ 0.55001 -0.00152  0.31359]</t>
-        </is>
+      <c r="I179" t="n">
+        <v>0.633128834637152</v>
       </c>
       <c r="J179" t="n">
         <v>0.12750341215795</v>
@@ -8351,10 +7995,8 @@
           <t>testModels/db/4/m410/m410.off</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>[ 0.50344 -0.39155  0.48966]</t>
-        </is>
+      <c r="I180" t="n">
+        <v>0.8040751622962321</v>
       </c>
       <c r="J180" t="n">
         <v>0.36472700513595</v>
@@ -8395,10 +8037,8 @@
           <t>testModels/db/4/m411/m411.off</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>[0.47111 0.29202 0.12119]</t>
-        </is>
+      <c r="I181" t="n">
+        <v>0.5673686192841481</v>
       </c>
       <c r="J181" t="n">
         <v>0.2742882714080499</v>
@@ -8439,10 +8079,8 @@
           <t>testModels/db/4/m412/m412.off</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>[0.52098 0.04239 0.3057 ]</t>
-        </is>
+      <c r="I182" t="n">
+        <v>0.6055354349551082</v>
       </c>
       <c r="J182" t="n">
         <v>0.04766319038249999</v>
@@ -8483,10 +8121,8 @@
           <t>testModels/db/5/m500/m500.off</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>[0.49232 0.46093 0.3065 ]</t>
-        </is>
+      <c r="I183" t="n">
+        <v>0.740793984655466</v>
       </c>
       <c r="J183" t="n">
         <v>0.774133244696</v>
@@ -8527,10 +8163,8 @@
           <t>testModels/db/5/m501/m501.off</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>[0.35125 0.43282 0.35123]</t>
-        </is>
+      <c r="I184" t="n">
+        <v>0.6588412181605431</v>
       </c>
       <c r="J184" t="n">
         <v>0.4045155493718</v>
@@ -8571,10 +8205,8 @@
           <t>testModels/db/5/m502/m502.off</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>[0.35003 0.52918 0.35001]</t>
-        </is>
+      <c r="I185" t="n">
+        <v>0.7246083651851024</v>
       </c>
       <c r="J185" t="n">
         <v>0.4013836450465499</v>
@@ -8615,10 +8247,8 @@
           <t>testModels/db/5/m503/m503.off</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>[0.45515 0.54141 0.26296]</t>
-        </is>
+      <c r="I186" t="n">
+        <v>0.754608296946927</v>
       </c>
       <c r="J186" t="n">
         <v>0.44607162209075</v>
@@ -8659,10 +8289,8 @@
           <t>testModels/db/5/m504/m504.off</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>[0.41692 0.31743 0.39763]</t>
-        </is>
+      <c r="I187" t="n">
+        <v>0.657789951852266</v>
       </c>
       <c r="J187" t="n">
         <v>0.50407117646765</v>
@@ -8703,10 +8331,8 @@
           <t>testModels/db/5/m505/m505.off</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>[0.45747 0.34161 0.5173 ]</t>
-        </is>
+      <c r="I188" t="n">
+        <v>0.7704377465745151</v>
       </c>
       <c r="J188" t="n">
         <v>0.5421435584800499</v>
@@ -8747,10 +8373,8 @@
           <t>testModels/db/5/m506/m506.off</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>[0.3771  0.16824 0.35383]</t>
-        </is>
+      <c r="I189" t="n">
+        <v>0.5437897527694318</v>
       </c>
       <c r="J189" t="n">
         <v>0.2279900718197999</v>
@@ -8791,10 +8415,8 @@
           <t>testModels/db/5/m507/m507.off</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>[0.40162 0.23655 0.2912 ]</t>
-        </is>
+      <c r="I190" t="n">
+        <v>0.5495868890426785</v>
       </c>
       <c r="J190" t="n">
         <v>0.41517676746315</v>
@@ -8835,10 +8457,8 @@
           <t>testModels/db/5/m508/m508.off</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>[0.37656 0.37351 0.32389]</t>
-        </is>
+      <c r="I191" t="n">
+        <v>0.6214631070286883</v>
       </c>
       <c r="J191" t="n">
         <v>0.4471125239474999</v>
@@ -8879,10 +8499,8 @@
           <t>testModels/db/5/m509/m509.off</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>[0.39358 0.42875 0.36946]</t>
-        </is>
+      <c r="I192" t="n">
+        <v>0.689373729035565</v>
       </c>
       <c r="J192" t="n">
         <v>0.5659933238063999</v>
@@ -8923,10 +8541,8 @@
           <t>testModels/db/5/m510/m510.off</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>[ 0.31644 -0.37851  0.2736 ]</t>
-        </is>
+      <c r="I193" t="n">
+        <v>0.5641498460595107</v>
       </c>
       <c r="J193" t="n">
         <v>0.2760294710088</v>
@@ -8967,10 +8583,8 @@
           <t>testModels/db/5/m511/m511.off</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>[0.48776 0.50831 0.66421]</t>
-        </is>
+      <c r="I194" t="n">
+        <v>0.9682295669190819</v>
       </c>
       <c r="J194" t="n">
         <v>0.7889463070987</v>
@@ -9011,10 +8625,8 @@
           <t>testModels/db/5/m512/m512.off</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>[0.4113  0.324   0.41169]</t>
-        </is>
+      <c r="I195" t="n">
+        <v>0.6660548679857683</v>
       </c>
       <c r="J195" t="n">
         <v>0.56704613894055</v>
@@ -9055,10 +8667,8 @@
           <t>testModels/db/6/m600/m600.off</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>[0.2576  0.84482 0.46378]</t>
-        </is>
+      <c r="I196" t="n">
+        <v>0.9975832605519875</v>
       </c>
       <c r="J196" t="n">
         <v>0.3289688236004499</v>
@@ -9099,10 +8709,8 @@
           <t>testModels/db/6/m601/m601.off</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>[0.32694 0.52692 0.36069]</t>
-        </is>
+      <c r="I197" t="n">
+        <v>0.7173779527946508</v>
       </c>
       <c r="J197" t="n">
         <v>0.8049836529864999</v>
@@ -9143,10 +8751,8 @@
           <t>testModels/db/6/m602/m602.off</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>[0.21671 0.49866 0.45769]</t>
-        </is>
+      <c r="I198" t="n">
+        <v>0.7107106887155397</v>
       </c>
       <c r="J198" t="n">
         <v>0.2173434360375</v>
@@ -9187,10 +8793,8 @@
           <t>testModels/db/6/m603/m603.off</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>[0.30416 0.49274 0.64283]</t>
-        </is>
+      <c r="I199" t="n">
+        <v>0.8651792668165202</v>
       </c>
       <c r="J199" t="n">
         <v>0.4357544367391</v>
@@ -9231,10 +8835,8 @@
           <t>testModels/db/6/m604/m604.off</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>[0.24486 0.22149 0.10704]</t>
-        </is>
+      <c r="I200" t="n">
+        <v>0.3470908542920413</v>
       </c>
       <c r="J200" t="n">
         <v>0.083922626992</v>
@@ -9275,10 +8877,8 @@
           <t>testModels/db/6/m605/m605.off</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>[0.26351 0.19087 0.32873]</t>
-        </is>
+      <c r="I201" t="n">
+        <v>0.4625212177846422</v>
       </c>
       <c r="J201" t="n">
         <v>0.36795691912105</v>
@@ -9319,10 +8919,8 @@
           <t>testModels/db/6/m606/m606.off</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>[ 0.52206 -0.04326  0.07172]</t>
-        </is>
+      <c r="I202" t="n">
+        <v>0.5287336557623648</v>
       </c>
       <c r="J202" t="n">
         <v>0.3354520743954</v>
@@ -9363,10 +8961,8 @@
           <t>testModels/db/6/m607/m607.off</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>[0.20979 2.3303  1.84333]</t>
-        </is>
+      <c r="I203" t="n">
+        <v>2.97862239633214</v>
       </c>
       <c r="J203" t="n">
         <v>0.2491597883831999</v>
@@ -9407,10 +9003,8 @@
           <t>testModels/db/6/m608/m608.off</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>[0.34098 0.08768 0.03102]</t>
-        </is>
+      <c r="I204" t="n">
+        <v>0.3534369058200094</v>
       </c>
       <c r="J204" t="n">
         <v>0.6166739930119999</v>
@@ -9451,10 +9045,8 @@
           <t>testModels/db/6/m609/m609.off</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>[0.11931 0.15132 0.251  ]</t>
-        </is>
+      <c r="I205" t="n">
+        <v>0.316434615409602</v>
       </c>
       <c r="J205" t="n">
         <v>0.1239595846008</v>
@@ -9495,10 +9087,8 @@
           <t>testModels/db/6/m610/m610.off</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>[0.4902  0.36764 0.38151]</t>
-        </is>
+      <c r="I206" t="n">
+        <v>0.7218031856560362</v>
       </c>
       <c r="J206" t="n">
         <v>0.3066715312519999</v>
@@ -9539,10 +9129,8 @@
           <t>testModels/db/6/m611/m611.off</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>[0.6069  0.04979 0.23218]</t>
-        </is>
+      <c r="I207" t="n">
+        <v>0.6517020269898955</v>
       </c>
       <c r="J207" t="n">
         <v>0.337626976131</v>
@@ -9583,10 +9171,8 @@
           <t>testModels/db/6/m612/m612.off</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>[0.3938  0.197   0.44858]</t>
-        </is>
+      <c r="I208" t="n">
+        <v>0.6285804801766731</v>
       </c>
       <c r="J208" t="n">
         <v>0.6165689174602</v>
@@ -9627,10 +9213,8 @@
           <t>testModels/db/7/m700/m700.off</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>[0.1467  0.33229 0.06295]</t>
-        </is>
+      <c r="I209" t="n">
+        <v>0.3686454845230034</v>
       </c>
       <c r="J209" t="n">
         <v>0.027180761887565</v>
@@ -9671,10 +9255,8 @@
           <t>testModels/db/7/m701/m701.off</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>[0.03452 0.166   0.38486]</t>
-        </is>
+      <c r="I210" t="n">
+        <v>0.4205559755155684</v>
       </c>
       <c r="J210" t="n">
         <v>0.005102765082699999</v>
@@ -9715,10 +9297,8 @@
           <t>testModels/db/7/m702/m702.off</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>[0.07429 0.07428 0.23926]</t>
-        </is>
+      <c r="I211" t="n">
+        <v>0.261309265844208</v>
       </c>
       <c r="J211" t="n">
         <v>0.0092317409798</v>
@@ -9759,10 +9339,8 @@
           <t>testModels/db/7/m703/m703.off</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>[0.03788 0.07291 0.39827]</t>
-        </is>
+      <c r="I212" t="n">
+        <v>0.4066528654874887</v>
       </c>
       <c r="J212" t="n">
         <v>0.002345430056895</v>
@@ -9803,10 +9381,8 @@
           <t>testModels/db/7/m704/m704.off</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>[0.04005 0.05927 0.33505]</t>
-        </is>
+      <c r="I213" t="n">
+        <v>0.3426018239453588</v>
       </c>
       <c r="J213" t="n">
         <v>0.001738359126875</v>
@@ -9847,10 +9423,8 @@
           <t>testModels/db/7/m705/m705.off</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>[0.24593 0.24572 0.05964]</t>
-        </is>
+      <c r="I214" t="n">
+        <v>0.3527274951791061</v>
       </c>
       <c r="J214" t="n">
         <v>0.02916633158573999</v>
@@ -9891,10 +9465,8 @@
           <t>testModels/db/7/m706/m706.off</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>[ 0.09956 -1.62382 -0.29342]</t>
-        </is>
+      <c r="I215" t="n">
+        <v>1.653113822556624</v>
       </c>
       <c r="J215" t="n">
         <v>0.01502658194752</v>
@@ -9935,10 +9507,8 @@
           <t>testModels/db/7/m707/m707.off</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>[0.15029 0.32941 0.04555]</t>
-        </is>
+      <c r="I216" t="n">
+        <v>0.3649288564355794</v>
       </c>
       <c r="J216" t="n">
         <v>0.009433590992994999</v>
@@ -9979,10 +9549,8 @@
           <t>testModels/db/7/m708/m708.off</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>[0.2343  0.67857 0.04457]</t>
-        </is>
+      <c r="I217" t="n">
+        <v>0.7192654525196647</v>
       </c>
       <c r="J217" t="n">
         <v>0.0156089468078</v>
@@ -10023,10 +9591,8 @@
           <t>testModels/db/7/m709/m709.off</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>[0.12743 0.05072 0.73616]</t>
-        </is>
+      <c r="I218" t="n">
+        <v>0.7488291165068052</v>
       </c>
       <c r="J218" t="n">
         <v>0.01000608285012</v>
@@ -10067,10 +9633,8 @@
           <t>testModels/db/7/m710/m710.off</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>[0.12764 0.05082 0.55873]</t>
-        </is>
+      <c r="I219" t="n">
+        <v>0.5753770261076903</v>
       </c>
       <c r="J219" t="n">
         <v>0.010036128300715</v>
@@ -10111,10 +9675,8 @@
           <t>testModels/db/7/m711/m711.off</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>[0.12612 0.04422 0.41518]</t>
-        </is>
+      <c r="I220" t="n">
+        <v>0.4361623866390801</v>
       </c>
       <c r="J220" t="n">
         <v>0.0059225081146</v>
@@ -10155,10 +9717,8 @@
           <t>testModels/db/7/m712/m712.off</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>[0.6791  0.04682 0.11797]</t>
-        </is>
+      <c r="I221" t="n">
+        <v>0.6908561025698483</v>
       </c>
       <c r="J221" t="n">
         <v>0.0055064394</v>
@@ -10199,10 +9759,8 @@
           <t>testModels/db/8/m800/m800.off</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>[0.34241 0.611   0.3418 ]</t>
-        </is>
+      <c r="I222" t="n">
+        <v>0.7793533532512145</v>
       </c>
       <c r="J222" t="n">
         <v>0.4692020714198</v>
@@ -10243,10 +9801,8 @@
           <t>testModels/db/8/m801/m801.off</t>
         </is>
       </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>[0.25362 0.53328 0.21781]</t>
-        </is>
+      <c r="I223" t="n">
+        <v>0.6294068538400275</v>
       </c>
       <c r="J223" t="n">
         <v>0.2195227768589999</v>
@@ -10287,10 +9843,8 @@
           <t>testModels/db/8/m802/m802.off</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>[ 0.29464 -2.5854   0.21186]</t>
-        </is>
+      <c r="I224" t="n">
+        <v>2.610747824521273</v>
       </c>
       <c r="J224" t="n">
         <v>0.4212982889336</v>
@@ -10331,10 +9885,8 @@
           <t>testModels/db/8/m803/m803.off</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>[0.28753 7.03473 0.74185]</t>
-        </is>
+      <c r="I225" t="n">
+        <v>7.079580740501704</v>
       </c>
       <c r="J225" t="n">
         <v>0.30128957545635</v>
@@ -10375,10 +9927,8 @@
           <t>testModels/db/8/m804/m804.off</t>
         </is>
       </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>[0.36359 0.37657 0.37865]</t>
-        </is>
+      <c r="I226" t="n">
+        <v>0.6460485190928317</v>
       </c>
       <c r="J226" t="n">
         <v>0.4143275475168</v>
@@ -10419,10 +9969,8 @@
           <t>testModels/db/8/m805/m805.off</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>[0.37738 0.63646 0.29416]</t>
-        </is>
+      <c r="I227" t="n">
+        <v>0.7962567321333174</v>
       </c>
       <c r="J227" t="n">
         <v>0.4718550028118</v>
@@ -10463,10 +10011,8 @@
           <t>testModels/db/8/m806/m806.off</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>[0.19164 0.54717 0.23847]</t>
-        </is>
+      <c r="I228" t="n">
+        <v>0.6268887507624301</v>
       </c>
       <c r="J228" t="n">
         <v>0.12238963667975</v>
@@ -10507,10 +10053,8 @@
           <t>testModels/db/8/m807/m807.off</t>
         </is>
       </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>[0.215   0.57754 0.14523]</t>
-        </is>
+      <c r="I229" t="n">
+        <v>0.6331449943282442</v>
       </c>
       <c r="J229" t="n">
         <v>0.136760518</v>
@@ -10551,10 +10095,8 @@
           <t>testModels/db/8/m808/m808.off</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>[ 0.27902 20.89506  2.97992]</t>
-        </is>
+      <c r="I230" t="n">
+        <v>21.10832560523566</v>
       </c>
       <c r="J230" t="n">
         <v>0.29952589509265</v>
@@ -10595,10 +10137,8 @@
           <t>testModels/db/8/m809/m809.off</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>[0.13359 0.41339 0.08314]</t>
-        </is>
+      <c r="I231" t="n">
+        <v>0.4423214917244146</v>
       </c>
       <c r="J231" t="n">
         <v>0.04148136539820001</v>
@@ -10639,10 +10179,8 @@
           <t>testModels/db/8/m810/m810.off</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>[0.14771 0.49444 0.21337]</t>
-        </is>
+      <c r="I232" t="n">
+        <v>0.5584035751321208</v>
       </c>
       <c r="J232" t="n">
         <v>0.1273507914384</v>
@@ -10683,10 +10221,8 @@
           <t>testModels/db/8/m811/m811.off</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>[0.28163 1.02733 0.29182]</t>
-        </is>
+      <c r="I233" t="n">
+        <v>1.104476624916185</v>
       </c>
       <c r="J233" t="n">
         <v>0.2592673744301999</v>
@@ -10727,10 +10263,8 @@
           <t>testModels/db/8/m812/m812.off</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>[0.24258 1.15872 0.25171]</t>
-        </is>
+      <c r="I234" t="n">
+        <v>1.210301467677619</v>
       </c>
       <c r="J234" t="n">
         <v>0.18636813187305</v>
@@ -10771,10 +10305,8 @@
           <t>testModels/db/9/m900/m900.off</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>[0.5     0.60787 0.21153]</t>
-        </is>
+      <c r="I235" t="n">
+        <v>0.8150144859999663</v>
       </c>
       <c r="J235" t="n">
         <v>0.2008387393843999</v>
@@ -10815,10 +10347,8 @@
           <t>testModels/db/9/m901/m901.off</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>[0.49823 0.59489 0.38976]</t>
-        </is>
+      <c r="I236" t="n">
+        <v>0.8683544604370087</v>
       </c>
       <c r="J236" t="n">
         <v>0.4992543045531</v>
@@ -10859,10 +10389,8 @@
           <t>testModels/db/9/m902/m902.off</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>[0.49915 0.46546 0.23075]</t>
-        </is>
+      <c r="I237" t="n">
+        <v>0.7204514683276981</v>
       </c>
       <c r="J237" t="n">
         <v>0.2234783074855499</v>
@@ -10903,10 +10431,8 @@
           <t>testModels/db/9/m903/m903.off</t>
         </is>
       </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>[0.58441 0.21262 0.13059]</t>
-        </is>
+      <c r="I238" t="n">
+        <v>0.6354507231863391</v>
       </c>
       <c r="J238" t="n">
         <v>0.0451911105855</v>
@@ -10947,10 +10473,8 @@
           <t>testModels/db/9/m904/m904.off</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>[ 0.21548 -0.29478  0.21548]</t>
-        </is>
+      <c r="I239" t="n">
+        <v>0.4239753447226846</v>
       </c>
       <c r="J239" t="n">
         <v>0.13786748118095</v>
@@ -10991,10 +10515,8 @@
           <t>testModels/db/9/m905/m905.off</t>
         </is>
       </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>[0.49083 1.70803 0.80287]</t>
-        </is>
+      <c r="I240" t="n">
+        <v>1.950102583589145</v>
       </c>
       <c r="J240" t="n">
         <v>0.7364851249999999</v>
@@ -11035,10 +10557,8 @@
           <t>testModels/db/9/m906/m906.off</t>
         </is>
       </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>[0.38697 0.10285 0.51253]</t>
-        </is>
+      <c r="I241" t="n">
+        <v>0.6503986406336092</v>
       </c>
       <c r="J241" t="n">
         <v>0.2187877917004</v>
@@ -11079,10 +10599,8 @@
           <t>testModels/db/9/m907/m907.off</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>[ 0.24412  3.20385 35.46056]</t>
-        </is>
+      <c r="I242" t="n">
+        <v>35.60583620048602</v>
       </c>
       <c r="J242" t="n">
         <v>0.1806036165228</v>
@@ -11123,10 +10641,8 @@
           <t>testModels/db/9/m908/m908.off</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>[0.5     0.37471 0.27004]</t>
-        </is>
+      <c r="I243" t="n">
+        <v>0.6806853857961497</v>
       </c>
       <c r="J243" t="n">
         <v>0.1606127350113</v>
@@ -11167,10 +10683,8 @@
           <t>testModels/db/9/m909/m909.off</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>[0.36429 0.39875 0.5    ]</t>
-        </is>
+      <c r="I244" t="n">
+        <v>0.736009067081599</v>
       </c>
       <c r="J244" t="n">
         <v>0.2699627205685499</v>
@@ -11211,10 +10725,8 @@
           <t>testModels/db/9/m910/m910.off</t>
         </is>
       </c>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>[1.24503 0.52705 1.56593]</t>
-        </is>
+      <c r="I245" t="n">
+        <v>2.068818970307112</v>
       </c>
       <c r="J245" t="n">
         <v>0.3648737378448</v>
@@ -11255,10 +10767,8 @@
           <t>testModels/db/9/m911/m911.off</t>
         </is>
       </c>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>[-0.05817 14.26451 -2.7911 ]</t>
-        </is>
+      <c r="I246" t="n">
+        <v>14.53512791946737</v>
       </c>
       <c r="J246" t="n">
         <v>0.20469828125</v>
@@ -11299,10 +10809,8 @@
           <t>testModels/db/9/m912/m912.off</t>
         </is>
       </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>[0.5    0.4696 0.2625]</t>
-        </is>
+      <c r="I247" t="n">
+        <v>0.7344602083317461</v>
       </c>
       <c r="J247" t="n">
         <v>0.21434375</v>

--- a/features/original.xlsx
+++ b/features/original.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.5833692785551206</v>
+        <v>0.001793481914314723</v>
       </c>
       <c r="J2" t="n">
         <v>0.30655993840855</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.4551239187853133</v>
+        <v>0.009421257492652046</v>
       </c>
       <c r="J3" t="n">
         <v>0.13669153135125</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.5509480836102678</v>
+        <v>7.047142610478104e-05</v>
       </c>
       <c r="J4" t="n">
         <v>0.2757459366555</v>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.7138964227799601</v>
+        <v>0.01678664946916616</v>
       </c>
       <c r="J5" t="n">
         <v>0.4575223871524</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.7167299028897499</v>
+        <v>0.007368912643881783</v>
       </c>
       <c r="J6" t="n">
         <v>0.15520719289875</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.5891684456837839</v>
+        <v>0.0004472611170850529</v>
       </c>
       <c r="J7" t="n">
         <v>0.2412601344584</v>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.7350670881757851</v>
+        <v>6.300032651522804e-05</v>
       </c>
       <c r="J8" t="n">
         <v>0.4137792986902</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.6769725559850669</v>
+        <v>0.0002464801286247599</v>
       </c>
       <c r="J9" t="n">
         <v>0.2864681436477</v>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.6975254655816926</v>
+        <v>0.002273308857763802</v>
       </c>
       <c r="J10" t="n">
         <v>0.3486246117801</v>
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>11.0604390210595</v>
+        <v>2.782450977354335e-06</v>
       </c>
       <c r="J11" t="n">
         <v>0.35013334705725</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0.617230475763601</v>
+        <v>0.0003402090231630163</v>
       </c>
       <c r="J12" t="n">
         <v>0.21949979381205</v>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.8750635992922768</v>
+        <v>6.972879174341145e-07</v>
       </c>
       <c r="J13" t="n">
         <v>0.2406917928752999</v>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.5797146577155331</v>
+        <v>0.000218783538282722</v>
       </c>
       <c r="J14" t="n">
         <v>0.1520326298799</v>
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.7798726009303663</v>
+        <v>1.357700364831402e-06</v>
       </c>
       <c r="J15" t="n">
         <v>0.14984652717595</v>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.7004238388061579</v>
+        <v>0.004247094361877303</v>
       </c>
       <c r="J16" t="n">
         <v>0.1849215228111</v>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.720381260007417</v>
+        <v>0.0005588252959402673</v>
       </c>
       <c r="J17" t="n">
         <v>0.21408164502945</v>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.7169114809430549</v>
+        <v>0.002091314995300867</v>
       </c>
       <c r="J18" t="n">
         <v>0.11349285504</v>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.7041051577722928</v>
+        <v>3.642878060211404e-05</v>
       </c>
       <c r="J19" t="n">
         <v>0.1958584251483</v>
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.7883864757508037</v>
+        <v>0.0001312738378516782</v>
       </c>
       <c r="J20" t="n">
         <v>0.2158320410406</v>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.5665445074166562</v>
+        <v>4.146057073049578e-18</v>
       </c>
       <c r="J21" t="n">
         <v>0.3382912707369999</v>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0.5943193461023402</v>
+        <v>0.009278401090593923</v>
       </c>
       <c r="J22" t="n">
         <v>0.2939200007275</v>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.5773744061375005</v>
+        <v>5.531906435236371e-05</v>
       </c>
       <c r="J23" t="n">
         <v>0.24167553026045</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.8421914177505204</v>
+        <v>0.0004289473306310774</v>
       </c>
       <c r="J24" t="n">
         <v>0.5465292191511999</v>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0.9287522775164535</v>
+        <v>0.01847285090499221</v>
       </c>
       <c r="J25" t="n">
         <v>0.6396504912319999</v>
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.5665998934600771</v>
+        <v>2.089618220405142e-06</v>
       </c>
       <c r="J26" t="n">
         <v>0.36339438</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>36.76001108224993</v>
+        <v>4.233779113642803e-05</v>
       </c>
       <c r="J27" t="n">
         <v>0.6687993559893</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2.829112919506064</v>
+        <v>4.283659981082424e-05</v>
       </c>
       <c r="J28" t="n">
         <v>0.8344160736335999</v>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1.60035386373809</v>
+        <v>0.0001367444090314725</v>
       </c>
       <c r="J29" t="n">
         <v>0.58610156302355</v>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3.047092386015169</v>
+        <v>0.0003362158151038526</v>
       </c>
       <c r="J30" t="n">
         <v>0.20376973537075</v>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1.876525832695281</v>
+        <v>2.723700399517196e-05</v>
       </c>
       <c r="J31" t="n">
         <v>0.4711576637420999</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>14.94397686443064</v>
+        <v>1.524948379948155e-05</v>
       </c>
       <c r="J32" t="n">
         <v>0.50159135133015</v>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.4602829826751681</v>
+        <v>0.004310154546601433</v>
       </c>
       <c r="J33" t="n">
         <v>0.6686612839449999</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2.312477163242846</v>
+        <v>8.102559573961921e-06</v>
       </c>
       <c r="J34" t="n">
         <v>0.3602333179622</v>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2.218883589454054</v>
+        <v>2.923878146768488e-05</v>
       </c>
       <c r="J35" t="n">
         <v>0.4932343272991999</v>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1.40129883032089</v>
+        <v>6.574050954809194e-07</v>
       </c>
       <c r="J36" t="n">
         <v>0.66857728021875</v>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>6.697467331631407</v>
+        <v>8.565080544614218e-05</v>
       </c>
       <c r="J37" t="n">
         <v>0.4852904050862999</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0.5374154606745417</v>
+        <v>0.002216699458297266</v>
       </c>
       <c r="J38" t="n">
         <v>0.0358110831519</v>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0.5894297571576562</v>
+        <v>0.02548060254482325</v>
       </c>
       <c r="J39" t="n">
         <v>0.00567314313805</v>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.6681650375107182</v>
+        <v>0.003192924768976218</v>
       </c>
       <c r="J40" t="n">
         <v>0.005296771457279999</v>
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.7051657940854634</v>
+        <v>3.132484393748478e-05</v>
       </c>
       <c r="J41" t="n">
         <v>0.007662401278960001</v>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0.5468003297544165</v>
+        <v>0.02038734968189133</v>
       </c>
       <c r="J42" t="n">
         <v>0.01177359342705</v>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.6450712313608011</v>
+        <v>0.005910411841748326</v>
       </c>
       <c r="J43" t="n">
         <v>0.0176481641208</v>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.4422728383787655</v>
+        <v>0.0005632016325058834</v>
       </c>
       <c r="J44" t="n">
         <v>0.014774983832475</v>
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0.5086847653847676</v>
+        <v>1.49320485627063e-05</v>
       </c>
       <c r="J45" t="n">
         <v>0.0201794797352</v>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2.66430241025552</v>
+        <v>0.0009194758518708444</v>
       </c>
       <c r="J46" t="n">
         <v>0.03613536741282</v>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>555.5409493419526</v>
+        <v>1.071309340495198e-06</v>
       </c>
       <c r="J47" t="n">
         <v>0.07049502607000001</v>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0.5298898577961842</v>
+        <v>1.656666854554012e-05</v>
       </c>
       <c r="J48" t="n">
         <v>0.04253667849274999</v>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0.5934552605671437</v>
+        <v>0.0003842511587600554</v>
       </c>
       <c r="J49" t="n">
         <v>0.0555498363525</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3.475545362880868</v>
+        <v>0.0260124821353036</v>
       </c>
       <c r="J50" t="n">
         <v>0.03610291686859999</v>
@@ -2578,7 +2578,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.5612599461755092</v>
+        <v>0.08225174022666439</v>
       </c>
       <c r="J51" t="n">
         <v>0.12001996886445</v>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0.3580824644805655</v>
+        <v>0.004867110475535905</v>
       </c>
       <c r="J52" t="n">
         <v>0.1842149637729</v>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0.5499636795036806</v>
+        <v>0.001925913889645696</v>
       </c>
       <c r="J53" t="n">
         <v>0.1072671295525</v>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0.6285065483059072</v>
+        <v>6.64153247317221e-06</v>
       </c>
       <c r="J54" t="n">
         <v>0.11261987743</v>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0.6605424659875109</v>
+        <v>0.02095072862612524</v>
       </c>
       <c r="J55" t="n">
         <v>0.1879373359802</v>
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2.767969582236098</v>
+        <v>0.0003319920024058687</v>
       </c>
       <c r="J56" t="n">
         <v>0.1366358164875</v>
@@ -2830,7 +2830,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.5692872062278712</v>
+        <v>0.0003774770817171904</v>
       </c>
       <c r="J57" t="n">
         <v>0.1560866223667202</v>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.7885412833955276</v>
+        <v>0.001879963568493681</v>
       </c>
       <c r="J58" t="n">
         <v>0.04203211683450001</v>
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0.8508020822459635</v>
+        <v>0.02956743766984856</v>
       </c>
       <c r="J59" t="n">
         <v>0.12773090537</v>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0.7126481134184162</v>
+        <v>0.008992479400562768</v>
       </c>
       <c r="J60" t="n">
         <v>0.216677963555</v>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.206089011229017</v>
+        <v>5.313320868655468e-05</v>
       </c>
       <c r="J61" t="n">
         <v>0.124648111575</v>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2.812198903068106</v>
+        <v>0.05313087227214005</v>
       </c>
       <c r="J62" t="n">
         <v>0.2484029286024999</v>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2.017612802001679</v>
+        <v>0.003596308311506804</v>
       </c>
       <c r="J63" t="n">
         <v>0.1672867212288</v>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.5890943699485118</v>
+        <v>0.03612760290439766</v>
       </c>
       <c r="J64" t="n">
         <v>0.09872842770584998</v>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0.5552752156943827</v>
+        <v>0.003205464041230005</v>
       </c>
       <c r="J65" t="n">
         <v>0.066256415535</v>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.3319983216080078</v>
+        <v>0.01892621760267958</v>
       </c>
       <c r="J66" t="n">
         <v>0.0470046237255</v>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1.117499070233687</v>
+        <v>0.006625527011815732</v>
       </c>
       <c r="J67" t="n">
         <v>0.1985021710586999</v>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.6405115886122699</v>
+        <v>1.150663247492724e-05</v>
       </c>
       <c r="J68" t="n">
         <v>0.07990405931970002</v>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.6219743019925619</v>
+        <v>5.702297723145046e-06</v>
       </c>
       <c r="J69" t="n">
         <v>0.0331246069806</v>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1.636563159574256</v>
+        <v>3.626460424735004e-05</v>
       </c>
       <c r="J70" t="n">
         <v>0.1974030053342999</v>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0.8687734293818027</v>
+        <v>8.92013285656328e-06</v>
       </c>
       <c r="J71" t="n">
         <v>0.2160193265505</v>
@@ -3460,7 +3460,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0.6345127315821533</v>
+        <v>0.006495782608636592</v>
       </c>
       <c r="J72" t="n">
         <v>0.19138752451875</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.4346234580226721</v>
+        <v>0.0004905858879519725</v>
       </c>
       <c r="J73" t="n">
         <v>0.14159001367225</v>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.7370804741394653</v>
+        <v>0.0001908135631863433</v>
       </c>
       <c r="J74" t="n">
         <v>0.1952923078799999</v>
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0.6822714190403661</v>
+        <v>0.0001760522075167385</v>
       </c>
       <c r="J75" t="n">
         <v>0.1431480521615</v>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.5996034562190253</v>
+        <v>0.0002222569818545038</v>
       </c>
       <c r="J76" t="n">
         <v>0.2215414359629999</v>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1.16974626638147</v>
+        <v>1.564321772560627e-05</v>
       </c>
       <c r="J77" t="n">
         <v>0.2061737382922</v>
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.6404811368568801</v>
+        <v>0.004650767773787421</v>
       </c>
       <c r="J78" t="n">
         <v>0.585685399061</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3.564486434977824</v>
+        <v>0.003778142549031315</v>
       </c>
       <c r="J79" t="n">
         <v>0.5856046431026</v>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.819742337942043</v>
+        <v>0.002428103683995126</v>
       </c>
       <c r="J80" t="n">
         <v>0.4645027603037999</v>
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.6586212464423078</v>
+        <v>0.0001677771843976089</v>
       </c>
       <c r="J81" t="n">
         <v>0.2329240077266</v>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.3613023257726861</v>
+        <v>0.001551553288259476</v>
       </c>
       <c r="J82" t="n">
         <v>0.5865306699874999</v>
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.8639761027006455</v>
+        <v>679.2136211201491</v>
       </c>
       <c r="J83" t="n">
         <v>0.0841694023968</v>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.8382463080197116</v>
+        <v>1.19065598898668e-05</v>
       </c>
       <c r="J84" t="n">
         <v>0.17019194710475</v>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0.5546446857438891</v>
+        <v>9.679353327118671e-05</v>
       </c>
       <c r="J85" t="n">
         <v>0.24976478682495</v>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1.287513252233688</v>
+        <v>0.0004835662590541355</v>
       </c>
       <c r="J86" t="n">
         <v>0.1642592688858</v>
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1.323723885002757</v>
+        <v>0.0007107505262834584</v>
       </c>
       <c r="J87" t="n">
         <v>0.1278829525601129</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.642768959615704</v>
+        <v>0.0001693310309115441</v>
       </c>
       <c r="J88" t="n">
         <v>0.0939039850931</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0.7738656385434007</v>
+        <v>9.42928205599857e-06</v>
       </c>
       <c r="J89" t="n">
         <v>0.08440098270834998</v>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0.6549786956999486</v>
+        <v>4.091711315905501e-05</v>
       </c>
       <c r="J90" t="n">
         <v>0.1361507547867</v>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.7422720498921764</v>
+        <v>2.176811112323662e-07</v>
       </c>
       <c r="J91" t="n">
         <v>0.19576849474065</v>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.4548392093646955</v>
+        <v>5.113005089931471e-05</v>
       </c>
       <c r="J92" t="n">
         <v>0.0826927006095</v>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0.3789775151125117</v>
+        <v>9.24599019032595e-05</v>
       </c>
       <c r="J93" t="n">
         <v>0.03216136113819999</v>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0.5468981341886293</v>
+        <v>0.0006006491569922103</v>
       </c>
       <c r="J94" t="n">
         <v>0.0758695732669</v>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0.4651962912917554</v>
+        <v>0.002583840889721703</v>
       </c>
       <c r="J95" t="n">
         <v>0.0645418395294</v>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1.560915220978554</v>
+        <v>0.0009829744967274968</v>
       </c>
       <c r="J96" t="n">
         <v>0.1288943364284</v>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0.5178890063493991</v>
+        <v>1.391080968433011e-05</v>
       </c>
       <c r="J97" t="n">
         <v>0.07374694566604999</v>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0.5926709516310176</v>
+        <v>8.376356172034971e-05</v>
       </c>
       <c r="J98" t="n">
         <v>0.07039702126274998</v>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.6414435012033664</v>
+        <v>0.00081893796598662</v>
       </c>
       <c r="J99" t="n">
         <v>0.1811462751618</v>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0.5404144798045344</v>
+        <v>6.232310040837054e-06</v>
       </c>
       <c r="J100" t="n">
         <v>0.09692012567019999</v>
@@ -4678,7 +4678,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0.6713896582725891</v>
+        <v>1.593762919103137e-05</v>
       </c>
       <c r="J101" t="n">
         <v>0.119308459153</v>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.5751799931608572</v>
+        <v>0.0001960344431400701</v>
       </c>
       <c r="J102" t="n">
         <v>0.07504459125004999</v>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0.4938009535455633</v>
+        <v>0.016456660138762</v>
       </c>
       <c r="J103" t="n">
         <v>0.16730878970505</v>
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0.5129148151804925</v>
+        <v>0.0009607499211917115</v>
       </c>
       <c r="J104" t="n">
         <v>0.267326072757</v>
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>10.65330892710382</v>
+        <v>0.004348995220782737</v>
       </c>
       <c r="J105" t="n">
         <v>0.1372117698392</v>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0.4736077918143534</v>
+        <v>0.001840046520566422</v>
       </c>
       <c r="J106" t="n">
         <v>0.12268194633695</v>
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.4837704005043448</v>
+        <v>0.005124564684779795</v>
       </c>
       <c r="J107" t="n">
         <v>0.14381334482895</v>
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.5900303134020558</v>
+        <v>0.01049341355350456</v>
       </c>
       <c r="J108" t="n">
         <v>0.3810551544445499</v>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.5786225054700455</v>
+        <v>0.0001552625254698269</v>
       </c>
       <c r="J109" t="n">
         <v>0.3432074538341999</v>
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>9.621629683250177</v>
+        <v>0.0004381289402268271</v>
       </c>
       <c r="J110" t="n">
         <v>0.2316390123008</v>
@@ -5098,7 +5098,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.7503495583547535</v>
+        <v>0.004650105459198159</v>
       </c>
       <c r="J111" t="n">
         <v>0.6079999999999999</v>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0.5293811403815504</v>
+        <v>0.004632889751165827</v>
       </c>
       <c r="J112" t="n">
         <v>0.23880042525455</v>
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0.5935444082093195</v>
+        <v>0.0004118738454751172</v>
       </c>
       <c r="J113" t="n">
         <v>0.3663335584208999</v>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.7198678966021049</v>
+        <v>0.012202725588805</v>
       </c>
       <c r="J114" t="n">
         <v>0.22536144437375</v>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>4.360426081208259</v>
+        <v>0.0003964504380004362</v>
       </c>
       <c r="J115" t="n">
         <v>0.1513558239525</v>
@@ -5308,7 +5308,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.6198455781716755</v>
+        <v>0.0002717290994425789</v>
       </c>
       <c r="J116" t="n">
         <v>0.38632799271675</v>
@@ -5350,7 +5350,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0.7912623713546214</v>
+        <v>0.003016688618358068</v>
       </c>
       <c r="J117" t="n">
         <v>0.2997184795742999</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.6476045935389062</v>
+        <v>0.008731148553569419</v>
       </c>
       <c r="J118" t="n">
         <v>0.2787690292414</v>
@@ -5434,7 +5434,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0.74768074137693</v>
+        <v>0.0966343635851583</v>
       </c>
       <c r="J119" t="n">
         <v>0.6194081680999999</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0.6565078561121291</v>
+        <v>0.0001412595908962503</v>
       </c>
       <c r="J120" t="n">
         <v>0.5461226671774999</v>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0.5795370022426829</v>
+        <v>0.355811354815864</v>
       </c>
       <c r="J121" t="n">
         <v>0.02653413475437499</v>
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>1.924747619700219</v>
+        <v>0.004831823722597714</v>
       </c>
       <c r="J122" t="n">
         <v>0.014289598375</v>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>2.87391802916773</v>
+        <v>1.16891075195434e-05</v>
       </c>
       <c r="J123" t="n">
         <v>0.12699258673075</v>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0.5480399341627323</v>
+        <v>0.03163655983323321</v>
       </c>
       <c r="J124" t="n">
         <v>0.01399797760203499</v>
@@ -5686,7 +5686,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.02282710625452686</v>
+        <v>0.04210443985232854</v>
       </c>
       <c r="J125" t="n">
         <v>0.005889478087669998</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0.5770248902467106</v>
+        <v>8.109901772057798e-17</v>
       </c>
       <c r="J126" t="n">
         <v>0.0468769388463</v>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0.5483873210121538</v>
+        <v>0.01708242160080772</v>
       </c>
       <c r="J127" t="n">
         <v>0.022203345375</v>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0.5631075208341388</v>
+        <v>0.003204771179196002</v>
       </c>
       <c r="J128" t="n">
         <v>0.0275369728818</v>
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0.6213244117082173</v>
+        <v>0.0006989875561513183</v>
       </c>
       <c r="J129" t="n">
         <v>0.5039622732186</v>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1.10978267848802</v>
+        <v>0.0003167325993143125</v>
       </c>
       <c r="J130" t="n">
         <v>0.5839181688284999</v>
@@ -5938,7 +5938,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0.5709874283546265</v>
+        <v>0.01426911929297707</v>
       </c>
       <c r="J131" t="n">
         <v>0.3518480536242</v>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>3.339593683144616</v>
+        <v>0.01010857591584978</v>
       </c>
       <c r="J132" t="n">
         <v>0.5595389763159</v>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.5727008617910611</v>
+        <v>0.00160869801999915</v>
       </c>
       <c r="J133" t="n">
         <v>0.2981086693236</v>
@@ -6064,7 +6064,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0.3106496813581565</v>
+        <v>0.05585136694616956</v>
       </c>
       <c r="J134" t="n">
         <v>0.25429138871805</v>
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0.6023279965570014</v>
+        <v>6.313794951037923e-05</v>
       </c>
       <c r="J135" t="n">
         <v>0.3667566974668</v>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.6667638443153735</v>
+        <v>8.01556738810055e-06</v>
       </c>
       <c r="J136" t="n">
         <v>0.1942775707323</v>
@@ -6190,7 +6190,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.7098625048574279</v>
+        <v>2.793843336812309e-05</v>
       </c>
       <c r="J137" t="n">
         <v>0.60615035958075</v>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0.5967372119898237</v>
+        <v>2.753692665508491e-06</v>
       </c>
       <c r="J138" t="n">
         <v>0.2841935748727499</v>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>0.6526083143767877</v>
+        <v>0.003587442400444031</v>
       </c>
       <c r="J139" t="n">
         <v>0.231584768836</v>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1.476636120981594</v>
+        <v>0.03473961182413352</v>
       </c>
       <c r="J140" t="n">
         <v>0.5604020983959999</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1.103140169297351</v>
+        <v>0.008564102720700538</v>
       </c>
       <c r="J141" t="n">
         <v>0.09693337393699998</v>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0.7968329866019411</v>
+        <v>0.00136404120888125</v>
       </c>
       <c r="J142" t="n">
         <v>0.55862034481525</v>
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0.7296480297390275</v>
+        <v>0.0001896231235768128</v>
       </c>
       <c r="J143" t="n">
         <v>0.7130584857292499</v>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0.2948098828131037</v>
+        <v>4.060183569892322e-05</v>
       </c>
       <c r="J144" t="n">
         <v>0.0629806609719</v>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0.4995024295394319</v>
+        <v>7.625655632678672e-05</v>
       </c>
       <c r="J145" t="n">
         <v>0.13366499845625</v>
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0.5650001280664023</v>
+        <v>0.002308707286611319</v>
       </c>
       <c r="J146" t="n">
         <v>0.0516014193972</v>
@@ -6610,7 +6610,7 @@
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0.471185126747117</v>
+        <v>0.01096502883562999</v>
       </c>
       <c r="J147" t="n">
         <v>0.06315912987</v>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0.5552728333083351</v>
+        <v>0.003968610235328433</v>
       </c>
       <c r="J148" t="n">
         <v>0.09861214600439998</v>
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0.6014943298523155</v>
+        <v>0.004361342229544978</v>
       </c>
       <c r="J149" t="n">
         <v>0.070458809638</v>
@@ -6736,7 +6736,7 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0.8027768093249181</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
         <v>0.0579511642269</v>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0.7981822167103412</v>
+        <v>2.932644537782799e-05</v>
       </c>
       <c r="J151" t="n">
         <v>0.08830113672149997</v>
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>0.6121087592214904</v>
+        <v>0.0007138296037172225</v>
       </c>
       <c r="J152" t="n">
         <v>0.0502958286896</v>
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="I153" t="n">
-        <v>0.7153164380604121</v>
+        <v>0.008123293444329891</v>
       </c>
       <c r="J153" t="n">
         <v>0.09699395964644997</v>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0.6634231530029858</v>
+        <v>0.006079028308046464</v>
       </c>
       <c r="J154" t="n">
         <v>0.3257943964477499</v>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0.585953083725378</v>
+        <v>5.036066833041378e-05</v>
       </c>
       <c r="J155" t="n">
         <v>0.06076322891144999</v>
@@ -6988,7 +6988,7 @@
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0.6063492839013889</v>
+        <v>9.74765996081417e-05</v>
       </c>
       <c r="J156" t="n">
         <v>0.07985204410555001</v>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="I157" t="n">
-        <v>1.275494816908894</v>
+        <v>0.001125740093344335</v>
       </c>
       <c r="J157" t="n">
         <v>0.272133783058827</v>
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>0.7668358929631715</v>
+        <v>6.343760096331126e-05</v>
       </c>
       <c r="J158" t="n">
         <v>0.42176198758065</v>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0.6912807370527623</v>
+        <v>0.0005403213525536135</v>
       </c>
       <c r="J159" t="n">
         <v>0.44863801136315</v>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0.5819743024468653</v>
+        <v>2.737534175586138e-06</v>
       </c>
       <c r="J160" t="n">
         <v>0.4799720971559999</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0.8735197457876698</v>
+        <v>0.0001255887494055153</v>
       </c>
       <c r="J161" t="n">
         <v>0.5246717629299</v>
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0.6641498529799693</v>
+        <v>1.530234894175536e-06</v>
       </c>
       <c r="J162" t="n">
         <v>0.2091357947613</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0.9062922246344396</v>
+        <v>4.043732256860246e-06</v>
       </c>
       <c r="J163" t="n">
         <v>0.5021063473894</v>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0.5853048029009464</v>
+        <v>6.110904576964582e-05</v>
       </c>
       <c r="J164" t="n">
         <v>0.2854492755504</v>
@@ -7366,7 +7366,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0.2612976627589222</v>
+        <v>0.02221952502760313</v>
       </c>
       <c r="J165" t="n">
         <v>0.1345423657043896</v>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0.3047996693557312</v>
+        <v>0.01770711137264885</v>
       </c>
       <c r="J166" t="n">
         <v>0.05283930541306872</v>
@@ -7450,7 +7450,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0.2873133122593487</v>
+        <v>0.000529117665447853</v>
       </c>
       <c r="J167" t="n">
         <v>0.1180692170551223</v>
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>0.2589699424232592</v>
+        <v>0.0005776321453976982</v>
       </c>
       <c r="J168" t="n">
         <v>0.1477825613933806</v>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0.2677723957968401</v>
+        <v>0.002553376036097653</v>
       </c>
       <c r="J169" t="n">
         <v>0.1353662284264502</v>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0.6736874996811439</v>
+        <v>0.00116446165667279</v>
       </c>
       <c r="J170" t="n">
         <v>0.5465683954868</v>
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0.8512148037298419</v>
+        <v>1.370851566399452e-05</v>
       </c>
       <c r="J171" t="n">
         <v>0.163505925</v>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0.5412540668923238</v>
+        <v>1.385094693917152e-06</v>
       </c>
       <c r="J172" t="n">
         <v>0.3803311612695</v>
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.7360560226147552</v>
+        <v>3.97865212524839e-06</v>
       </c>
       <c r="J173" t="n">
         <v>0.4723955749999999</v>
@@ -7744,7 +7744,7 @@
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0.6062568140491283</v>
+        <v>5.21951864195198e-05</v>
       </c>
       <c r="J174" t="n">
         <v>0.2758108135843</v>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0.7656466655144938</v>
+        <v>0.003825219124087519</v>
       </c>
       <c r="J175" t="n">
         <v>0.7374751118261998</v>
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0.5727114092479244</v>
+        <v>0.0005318998183657489</v>
       </c>
       <c r="J176" t="n">
         <v>0.4214042623551</v>
@@ -7870,7 +7870,7 @@
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0.7388373022554811</v>
+        <v>0.0008674858295832715</v>
       </c>
       <c r="J177" t="n">
         <v>0.5377887483226499</v>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0.6418806266942023</v>
+        <v>0.0007074850663470644</v>
       </c>
       <c r="J178" t="n">
         <v>0.334412281809</v>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0.633128834637152</v>
+        <v>0.0270845865303225</v>
       </c>
       <c r="J179" t="n">
         <v>0.12750341215795</v>
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0.8040751622962321</v>
+        <v>0.4426122174716408</v>
       </c>
       <c r="J180" t="n">
         <v>0.36472700513595</v>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.5673686192841481</v>
+        <v>0.3557567608741596</v>
       </c>
       <c r="J181" t="n">
         <v>0.2742882714080499</v>
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.6055354349551082</v>
+        <v>0.01313352881167657</v>
       </c>
       <c r="J182" t="n">
         <v>0.04766319038249999</v>
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0.740793984655466</v>
+        <v>0.0005768296215497732</v>
       </c>
       <c r="J183" t="n">
         <v>0.774133244696</v>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0.6588412181605431</v>
+        <v>0.0001625845650226333</v>
       </c>
       <c r="J184" t="n">
         <v>0.4045155493718</v>
@@ -8206,7 +8206,7 @@
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0.7246083651851024</v>
+        <v>7.59752233853203e-05</v>
       </c>
       <c r="J185" t="n">
         <v>0.4013836450465499</v>
@@ -8248,7 +8248,7 @@
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0.754608296946927</v>
+        <v>0.0001076143860255203</v>
       </c>
       <c r="J186" t="n">
         <v>0.44607162209075</v>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.657789951852266</v>
+        <v>1.821043528043247e-06</v>
       </c>
       <c r="J187" t="n">
         <v>0.50407117646765</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0.7704377465745151</v>
+        <v>0.005287009581156718</v>
       </c>
       <c r="J188" t="n">
         <v>0.5421435584800499</v>
@@ -8374,7 +8374,7 @@
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0.5437897527694318</v>
+        <v>5.74634563740896e-08</v>
       </c>
       <c r="J189" t="n">
         <v>0.2279900718197999</v>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.5495868890426785</v>
+        <v>1.077802227048823e-06</v>
       </c>
       <c r="J190" t="n">
         <v>0.41517676746315</v>
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0.6214631070286883</v>
+        <v>2.593299697940728e-05</v>
       </c>
       <c r="J191" t="n">
         <v>0.4471125239474999</v>
@@ -8500,7 +8500,7 @@
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.689373729035565</v>
+        <v>0.0001716282019401185</v>
       </c>
       <c r="J192" t="n">
         <v>0.5659933238063999</v>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0.5641498460595107</v>
+        <v>0.000258848194620239</v>
       </c>
       <c r="J193" t="n">
         <v>0.2760294710088</v>
@@ -8584,7 +8584,7 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0.9682295669190819</v>
+        <v>0.02952676835366942</v>
       </c>
       <c r="J194" t="n">
         <v>0.7889463070987</v>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.6660548679857683</v>
+        <v>0.00597425611556052</v>
       </c>
       <c r="J195" t="n">
         <v>0.56704613894055</v>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.9975832605519875</v>
+        <v>2.339344859553409e-06</v>
       </c>
       <c r="J196" t="n">
         <v>0.3289688236004499</v>
@@ -8710,7 +8710,7 @@
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0.7173779527946508</v>
+        <v>0.0003385274669732913</v>
       </c>
       <c r="J197" t="n">
         <v>0.8049836529864999</v>
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0.7107106887155397</v>
+        <v>0.0002470483090971274</v>
       </c>
       <c r="J198" t="n">
         <v>0.2173434360375</v>
@@ -8794,7 +8794,7 @@
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0.8651792668165202</v>
+        <v>2.914375723485236e-17</v>
       </c>
       <c r="J199" t="n">
         <v>0.4357544367391</v>
@@ -8836,7 +8836,7 @@
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0.3470908542920413</v>
+        <v>0.02392678107992483</v>
       </c>
       <c r="J200" t="n">
         <v>0.083922626992</v>
@@ -8878,7 +8878,7 @@
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0.4625212177846422</v>
+        <v>0.001556176566971516</v>
       </c>
       <c r="J201" t="n">
         <v>0.36795691912105</v>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0.5287336557623648</v>
+        <v>0.1455394554793153</v>
       </c>
       <c r="J202" t="n">
         <v>0.3354520743954</v>
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="I203" t="n">
-        <v>2.97862239633214</v>
+        <v>1.595780916046108e-05</v>
       </c>
       <c r="J203" t="n">
         <v>0.2491597883831999</v>
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0.3534369058200094</v>
+        <v>0.06977622716189189</v>
       </c>
       <c r="J204" t="n">
         <v>0.6166739930119999</v>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0.316434615409602</v>
+        <v>0.0003560311298754342</v>
       </c>
       <c r="J205" t="n">
         <v>0.1239595846008</v>
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0.7218031856560362</v>
+        <v>1.322216065421235e-05</v>
       </c>
       <c r="J206" t="n">
         <v>0.3066715312519999</v>
@@ -9130,7 +9130,7 @@
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0.6517020269898955</v>
+        <v>0.07156237214333767</v>
       </c>
       <c r="J207" t="n">
         <v>0.337626976131</v>
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0.6285804801766731</v>
+        <v>0.004817828152591141</v>
       </c>
       <c r="J208" t="n">
         <v>0.6165689174602</v>
@@ -9214,7 +9214,7 @@
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0.3686454845230034</v>
+        <v>0.006127806391694524</v>
       </c>
       <c r="J209" t="n">
         <v>0.027180761887565</v>
@@ -9256,7 +9256,7 @@
         </is>
       </c>
       <c r="I210" t="n">
-        <v>0.4205559755155684</v>
+        <v>0.0005984744284004732</v>
       </c>
       <c r="J210" t="n">
         <v>0.005102765082699999</v>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0.261309265844208</v>
+        <v>0.0002847790346095218</v>
       </c>
       <c r="J211" t="n">
         <v>0.0092317409798</v>
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0.4066528654874887</v>
+        <v>0.0002235735918136678</v>
       </c>
       <c r="J212" t="n">
         <v>0.002345430056895</v>
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0.3426018239453588</v>
+        <v>0.006128970192427374</v>
       </c>
       <c r="J213" t="n">
         <v>0.001738359126875</v>
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0.3527274951791061</v>
+        <v>1.234126847698507e-05</v>
       </c>
       <c r="J214" t="n">
         <v>0.02916633158573999</v>
@@ -9466,7 +9466,7 @@
         </is>
       </c>
       <c r="I215" t="n">
-        <v>1.653113822556624</v>
+        <v>0.0009535577663811821</v>
       </c>
       <c r="J215" t="n">
         <v>0.01502658194752</v>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0.3649288564355794</v>
+        <v>0.002268465316220351</v>
       </c>
       <c r="J216" t="n">
         <v>0.009433590992994999</v>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0.7192654525196647</v>
+        <v>0.00114975061993454</v>
       </c>
       <c r="J217" t="n">
         <v>0.0156089468078</v>
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0.7488291165068052</v>
+        <v>3.688702483669353e-10</v>
       </c>
       <c r="J218" t="n">
         <v>0.01000608285012</v>
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0.5753770261076903</v>
+        <v>0.002791498229158006</v>
       </c>
       <c r="J219" t="n">
         <v>0.010036128300715</v>
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0.4361623866390801</v>
+        <v>1.323730764882064e-06</v>
       </c>
       <c r="J220" t="n">
         <v>0.0059225081146</v>
@@ -9718,7 +9718,7 @@
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0.6908561025698483</v>
+        <v>0.0001123195238224734</v>
       </c>
       <c r="J221" t="n">
         <v>0.0055064394</v>
@@ -9760,7 +9760,7 @@
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0.7793533532512145</v>
+        <v>0.00812702684995144</v>
       </c>
       <c r="J222" t="n">
         <v>0.4692020714198</v>
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0.6294068538400275</v>
+        <v>1.358508697092423e-06</v>
       </c>
       <c r="J223" t="n">
         <v>0.2195227768589999</v>
@@ -9844,7 +9844,7 @@
         </is>
       </c>
       <c r="I224" t="n">
-        <v>2.610747824521273</v>
+        <v>0.004247908474894545</v>
       </c>
       <c r="J224" t="n">
         <v>0.4212982889336</v>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="I225" t="n">
-        <v>7.079580740501704</v>
+        <v>0.0001037529325980196</v>
       </c>
       <c r="J225" t="n">
         <v>0.30128957545635</v>
@@ -9928,7 +9928,7 @@
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0.6460485190928317</v>
+        <v>0.01537983826672012</v>
       </c>
       <c r="J226" t="n">
         <v>0.4143275475168</v>
@@ -9970,7 +9970,7 @@
         </is>
       </c>
       <c r="I227" t="n">
-        <v>0.7962567321333174</v>
+        <v>0.116866150939756</v>
       </c>
       <c r="J227" t="n">
         <v>0.4718550028118</v>
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="I228" t="n">
-        <v>0.6268887507624301</v>
+        <v>4.846774764679632e-07</v>
       </c>
       <c r="J228" t="n">
         <v>0.12238963667975</v>
@@ -10054,7 +10054,7 @@
         </is>
       </c>
       <c r="I229" t="n">
-        <v>0.6331449943282442</v>
+        <v>0.001059873439281649</v>
       </c>
       <c r="J229" t="n">
         <v>0.136760518</v>
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="I230" t="n">
-        <v>21.10832560523566</v>
+        <v>0.0004088909541396282</v>
       </c>
       <c r="J230" t="n">
         <v>0.29952589509265</v>
@@ -10138,7 +10138,7 @@
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0.4423214917244146</v>
+        <v>0.2568093840536789</v>
       </c>
       <c r="J231" t="n">
         <v>0.04148136539820001</v>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0.5584035751321208</v>
+        <v>3.198751202509308e-06</v>
       </c>
       <c r="J232" t="n">
         <v>0.1273507914384</v>
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="I233" t="n">
-        <v>1.104476624916185</v>
+        <v>0.001809178132954829</v>
       </c>
       <c r="J233" t="n">
         <v>0.2592673744301999</v>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>1.210301467677619</v>
+        <v>0.001487269066335444</v>
       </c>
       <c r="J234" t="n">
         <v>0.18636813187305</v>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="I235" t="n">
-        <v>0.8150144859999663</v>
+        <v>0.143892598781574</v>
       </c>
       <c r="J235" t="n">
         <v>0.2008387393843999</v>
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0.8683544604370087</v>
+        <v>0.001253506298299776</v>
       </c>
       <c r="J236" t="n">
         <v>0.4992543045531</v>
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="I237" t="n">
-        <v>0.7204514683276981</v>
+        <v>0.0007061049399183545</v>
       </c>
       <c r="J237" t="n">
         <v>0.2234783074855499</v>
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="I238" t="n">
-        <v>0.6354507231863391</v>
+        <v>0.2068840114275194</v>
       </c>
       <c r="J238" t="n">
         <v>0.0451911105855</v>
@@ -10474,7 +10474,7 @@
         </is>
       </c>
       <c r="I239" t="n">
-        <v>0.4239753447226846</v>
+        <v>0.06393356854310067</v>
       </c>
       <c r="J239" t="n">
         <v>0.13786748118095</v>
@@ -10516,7 +10516,7 @@
         </is>
       </c>
       <c r="I240" t="n">
-        <v>1.950102583589145</v>
+        <v>0.000618761059223623</v>
       </c>
       <c r="J240" t="n">
         <v>0.7364851249999999</v>
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="I241" t="n">
-        <v>0.6503986406336092</v>
+        <v>0.0008311733008580644</v>
       </c>
       <c r="J241" t="n">
         <v>0.2187877917004</v>
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="I242" t="n">
-        <v>35.60583620048602</v>
+        <v>0.00368537026196214</v>
       </c>
       <c r="J242" t="n">
         <v>0.1806036165228</v>
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0.6806853857961497</v>
+        <v>0.004808424773004803</v>
       </c>
       <c r="J243" t="n">
         <v>0.1606127350113</v>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0.736009067081599</v>
+        <v>0.128452284217476</v>
       </c>
       <c r="J244" t="n">
         <v>0.2699627205685499</v>
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>2.068818970307112</v>
+        <v>29344711.68136203</v>
       </c>
       <c r="J245" t="n">
         <v>0.3648737378448</v>
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="I246" t="n">
-        <v>14.53512791946737</v>
+        <v>0.338793618121415</v>
       </c>
       <c r="J246" t="n">
         <v>0.20469828125</v>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="I247" t="n">
-        <v>0.7344602083317461</v>
+        <v>0.00206235815385321</v>
       </c>
       <c r="J247" t="n">
         <v>0.21434375</v>

--- a/features/original.xlsx
+++ b/features/original.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L247"/>
+  <dimension ref="A1:M247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>axis-aligned_bounding_box_distance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>barycentre_distance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>subsampled_outlier</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>supersampled_outlier</t>
         </is>
@@ -511,7 +516,8 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64255, 0.54754, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.64255 0.54754 0.975  ]]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -520,15 +526,18 @@
         </is>
       </c>
       <c r="I2" t="n">
+        <v>1.247764346373946</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.001793481914314723</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.30655993840855</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
       <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,7 +562,8 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42485, 0.38484, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.42485 0.38484 0.975  ]]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,15 +572,18 @@
         </is>
       </c>
       <c r="I3" t="n">
+        <v>1.091729107906352</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.009421257492652046</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.13669153135125</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
       <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -595,7 +608,8 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.61683, 0.51544, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.61683 0.51544 0.975  ]]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -604,15 +618,18 @@
         </is>
       </c>
       <c r="I4" t="n">
+        <v>1.222005353977224</v>
+      </c>
+      <c r="J4" t="n">
         <v>7.047142610478104e-05</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.2757459366555</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
       <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -637,7 +654,8 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.93141, 0.55633, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.93141 0.55633 0.975  ]]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -646,15 +664,18 @@
         </is>
       </c>
       <c r="I5" t="n">
+        <v>1.416469389383336</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.01678664946916616</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.4575223871524</v>
       </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
       <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -679,7 +700,8 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55675, 0.975  , 0.33225]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.55675 0.975   0.33225]]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -688,15 +710,18 @@
         </is>
       </c>
       <c r="I6" t="n">
+        <v>1.131217147611368</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.007368912643881783</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.15520719289875</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
       <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -721,7 +746,8 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.62131, 0.45088, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.62131 0.45088 0.975  ]]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -730,15 +756,18 @@
         </is>
       </c>
       <c r="I7" t="n">
+        <v>1.199775150734503</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.0004472611170850529</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.2412601344584</v>
       </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
       <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -763,7 +792,8 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.66815, 0.70223, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.66815 0.70223 0.975  ]]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -772,15 +802,18 @@
         </is>
       </c>
       <c r="I8" t="n">
+        <v>1.332207126385758</v>
+      </c>
+      <c r="J8" t="n">
         <v>6.300032651522804e-05</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.4137792986902</v>
       </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
       <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -805,7 +838,8 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.57083, 0.57745, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.57083 0.57745 0.975  ]]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -814,15 +848,18 @@
         </is>
       </c>
       <c r="I9" t="n">
+        <v>1.227043079666317</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.0002464801286247599</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.2864681436477</v>
       </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
       <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -847,7 +884,8 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.47849, 0.975  , 0.83422]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.47849 0.975   0.83422]]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -856,15 +894,18 @@
         </is>
       </c>
       <c r="I10" t="n">
+        <v>1.32777728494089</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.002273308857763802</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.3486246117801</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
       <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -889,7 +930,8 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83044, 0.975  , 0.48259]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83044 0.975   0.48259]]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -898,15 +940,18 @@
         </is>
       </c>
       <c r="I11" t="n">
+        <v>1.326882396022345</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.782450977354335e-06</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0.35013334705725</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
       <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -931,7 +976,8 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55803, 0.45847, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.55803 0.45847 0.975  ]]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -940,15 +986,18 @@
         </is>
       </c>
       <c r="I12" t="n">
+        <v>1.172398149487622</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.0003402090231630163</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>0.21949979381205</v>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
       <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -973,7 +1022,8 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40879, 0.68516, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.40879 0.68516 0.975  ]]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -982,15 +1032,18 @@
         </is>
       </c>
       <c r="I13" t="n">
+        <v>1.218852574791964</v>
+      </c>
+      <c r="J13" t="n">
         <v>6.972879174341145e-07</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>0.2406917928752999</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
       <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1015,7 +1068,8 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.401  , 0.45062, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.401   0.45062 0.975  ]]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1024,15 +1078,18 @@
         </is>
       </c>
       <c r="I14" t="n">
+        <v>1.106811067727912</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.000218783538282722</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>0.1520326298799</v>
       </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
       <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1057,7 +1114,8 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.24866, 0.73023, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.24866 0.73023 0.975  ]]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1066,15 +1124,18 @@
         </is>
       </c>
       <c r="I15" t="n">
+        <v>1.204105584696791</v>
+      </c>
+      <c r="J15" t="n">
         <v>1.357700364831402e-06</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>0.14984652717595</v>
       </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
       <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1099,7 +1160,8 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.78159, 0.28228]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.78159 0.28228]]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1108,15 +1170,18 @@
         </is>
       </c>
       <c r="I16" t="n">
+        <v>1.241420934077157</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.004247094361877303</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>0.1849215228111</v>
       </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
       <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1141,7 +1206,8 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26955, 0.975  , 0.94648]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.26955 0.975   0.94648]]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1150,15 +1216,18 @@
         </is>
       </c>
       <c r="I17" t="n">
+        <v>1.345894655967546</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.0005588252959402673</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>0.21408164502945</v>
       </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
       <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1183,7 +1252,8 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21348, 0.65884, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.21348 0.65884 0.975  ]]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1192,15 +1262,18 @@
         </is>
       </c>
       <c r="I18" t="n">
+        <v>1.157487734708234</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.002091314995300867</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>0.11349285504</v>
       </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
       <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1225,7 +1298,8 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26388, 0.88806, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.26388 0.88806 0.975  ]]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1234,15 +1308,18 @@
         </is>
       </c>
       <c r="I19" t="n">
+        <v>1.305542201865953</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.642878060211404e-05</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>0.1958584251483</v>
       </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
       <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1267,7 +1344,8 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.90712, 0.28255]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.90712 0.28255]]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1276,15 +1354,18 @@
         </is>
       </c>
       <c r="I20" t="n">
+        <v>1.321726970771574</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.0001312738378516782</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>0.2158320410406</v>
       </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
       <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1309,7 +1390,8 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83322, 0.975  , 0.46559]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83322 0.975   0.46559]]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1318,15 +1400,18 @@
         </is>
       </c>
       <c r="I21" t="n">
+        <v>1.322815845100519</v>
+      </c>
+      <c r="J21" t="n">
         <v>4.146057073049578e-18</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>0.3382912707369999</v>
       </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
       <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1351,7 +1436,8 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.47055, 0.7194 , 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.47055 0.7194  0.975  ]]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1360,15 +1446,18 @@
         </is>
       </c>
       <c r="I22" t="n">
+        <v>1.258254653756941</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.009278401090593923</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>0.2939200007275</v>
       </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
       <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1393,7 +1482,8 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41453, 0.67808, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.41453 0.67808 0.975  ]]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1402,15 +1492,18 @@
         </is>
       </c>
       <c r="I23" t="n">
+        <v>1.216860383331629</v>
+      </c>
+      <c r="J23" t="n">
         <v>5.531906435236371e-05</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>0.24167553026045</v>
       </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
       <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1435,7 +1528,8 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.93706, 0.975  , 0.65577]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.93706 0.975   0.65577]]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1444,15 +1538,18 @@
         </is>
       </c>
       <c r="I24" t="n">
+        <v>1.460209537666427</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.0004289473306310774</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>0.5465292191511999</v>
       </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
       <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1477,7 +1574,8 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.87974, 0.975  , 0.81274]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.87974 0.975   0.81274]]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1486,15 +1584,18 @@
         </is>
       </c>
       <c r="I25" t="n">
+        <v>1.501206540465368</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.01847285090499221</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>0.6396504912319999</v>
       </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
       <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1519,7 +1620,8 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.66253, 0.975  , 0.625  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.66253 0.975   0.625  ]]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1528,15 +1630,18 @@
         </is>
       </c>
       <c r="I26" t="n">
+        <v>1.29187832289113</v>
+      </c>
+      <c r="J26" t="n">
         <v>2.089618220405142e-06</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>0.36339438</v>
       </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
       <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1561,7 +1666,8 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.76804, 0.97246]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.76804 0.97246]]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1570,15 +1676,18 @@
         </is>
       </c>
       <c r="I27" t="n">
+        <v>1.533717126726112</v>
+      </c>
+      <c r="J27" t="n">
         <v>4.233779113642803e-05</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>0.6687993559893</v>
       </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
       <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1603,7 +1712,8 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.96129, 0.975  , 0.9631 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.96129 0.975   0.9631 ]]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1612,15 +1722,18 @@
         </is>
       </c>
       <c r="I28" t="n">
+        <v>1.630695773326527</v>
+      </c>
+      <c r="J28" t="n">
         <v>4.283659981082424e-05</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>0.8344160736335999</v>
       </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
       <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1645,7 +1758,8 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.74481, 0.8821 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.74481 0.8821 ]]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1654,15 +1768,18 @@
         </is>
       </c>
       <c r="I29" t="n">
+        <v>1.468075992815767</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.0001367444090314725</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>0.58610156302355</v>
       </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
       <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1687,7 +1804,8 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.4855 , 0.975  , 0.49079]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.4855  0.975   0.49079]]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1696,15 +1814,18 @@
         </is>
       </c>
       <c r="I30" t="n">
+        <v>1.153913704410343</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.0003362158151038526</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>0.20376973537075</v>
       </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
       <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1729,7 +1850,8 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.57974, 0.91903]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.57974 0.91903]]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1738,15 +1860,18 @@
         </is>
       </c>
       <c r="I31" t="n">
+        <v>1.417577701364197</v>
+      </c>
+      <c r="J31" t="n">
         <v>2.723700399517196e-05</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>0.4711576637420999</v>
       </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
       <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1771,7 +1896,8 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75817, 0.975  , 0.74515]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75817 0.975   0.74515]]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1780,15 +1906,18 @@
         </is>
       </c>
       <c r="I32" t="n">
+        <v>1.399518280284327</v>
+      </c>
+      <c r="J32" t="n">
         <v>1.524948379948155e-05</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>0.50159135133015</v>
       </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
       <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1813,7 +1942,8 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.92355, 0.80832, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.92355 0.80832 0.975  ]]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1822,15 +1952,18 @@
         </is>
       </c>
       <c r="I33" t="n">
+        <v>1.524298349465747</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.004310154546601433</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>0.6686612839449999</v>
       </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
       <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1855,7 +1988,8 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64057, 0.975  , 0.641  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.64057 0.975   0.641  ]]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1864,15 +1998,18 @@
         </is>
       </c>
       <c r="I34" t="n">
+        <v>1.288753708734528</v>
+      </c>
+      <c r="J34" t="n">
         <v>8.102559573961921e-06</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>0.3602333179622</v>
       </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
       <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1897,7 +2034,8 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.69178, 0.80365]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.69178 0.80365]]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1906,15 +2044,18 @@
         </is>
       </c>
       <c r="I35" t="n">
+        <v>1.397641926378856</v>
+      </c>
+      <c r="J35" t="n">
         <v>2.923878146768488e-05</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>0.4932343272991999</v>
       </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
       <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1939,7 +2080,8 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.87074, 0.975  , 0.85713]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.87074 0.975   0.85713]]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1948,15 +2090,18 @@
         </is>
       </c>
       <c r="I36" t="n">
+        <v>1.519939676648386</v>
+      </c>
+      <c r="J36" t="n">
         <v>6.574050954809194e-07</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>0.66857728021875</v>
       </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
       <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1981,7 +2126,8 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.58112, 0.94357]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.58112 0.94357]]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1990,15 +2136,18 @@
         </is>
       </c>
       <c r="I37" t="n">
+        <v>1.433712606667389</v>
+      </c>
+      <c r="J37" t="n">
         <v>8.565080544614218e-05</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>0.4852904050862999</v>
       </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
       <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2023,7 +2172,8 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.23916, 0.975  , 0.20102]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.23916 0.975   0.20102]]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2032,15 +2182,18 @@
         </is>
       </c>
       <c r="I38" t="n">
+        <v>0.9896192890829281</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.002216699458297266</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>0.0358110831519</v>
       </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
       <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2065,7 +2218,8 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22878, 0.975  , 0.0543 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.22878 0.975   0.0543 ]]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2074,15 +2228,18 @@
         </is>
       </c>
       <c r="I39" t="n">
+        <v>0.9720523942896545</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.02548060254482325</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>0.00567314313805</v>
       </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
       <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2107,7 +2264,8 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.20107, 0.975  , 0.05667]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.20107 0.975   0.05667]]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2116,15 +2274,18 @@
         </is>
       </c>
       <c r="I40" t="n">
+        <v>0.9666966432365637</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.003192924768976218</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>0.005296771457279999</v>
       </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
       <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2149,7 +2310,8 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.19853, 0.975  , 0.07148]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.19853 0.975   0.07148]]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2158,15 +2320,18 @@
         </is>
       </c>
       <c r="I41" t="n">
+        <v>0.9668362906719834</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.132484393748478e-05</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>0.007662401278960001</v>
       </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
       <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2191,7 +2356,8 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.27899, 0.975  , 0.07379]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.27899 0.975   0.07379]]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2200,15 +2366,18 @@
         </is>
       </c>
       <c r="I42" t="n">
+        <v>0.9845779591674039</v>
+      </c>
+      <c r="J42" t="n">
         <v>0.02038734968189133</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>0.01177359342705</v>
       </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
       <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2233,7 +2402,8 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.28098, 0.09757]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.28098 0.09757]]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2242,15 +2412,18 @@
         </is>
       </c>
       <c r="I43" t="n">
+        <v>0.9865568195988511</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.005910411841748326</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>0.0176481641208</v>
       </c>
-      <c r="K43" t="b">
-        <v>0</v>
-      </c>
       <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2275,7 +2448,8 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.29605, 0.08238]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.29605 0.08238]]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2284,15 +2458,18 @@
         </is>
       </c>
       <c r="I44" t="n">
+        <v>0.9895766878171949</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.0005632016325058834</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>0.014774983832475</v>
       </c>
-      <c r="K44" t="b">
-        <v>0</v>
-      </c>
       <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2317,7 +2494,8 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.30425, 0.10107]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.30425 0.10107]]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2326,15 +2504,18 @@
         </is>
       </c>
       <c r="I45" t="n">
+        <v>0.9931090745698581</v>
+      </c>
+      <c r="J45" t="n">
         <v>1.49320485627063e-05</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>0.0201794797352</v>
       </c>
-      <c r="K45" t="b">
-        <v>0</v>
-      </c>
       <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2359,7 +2540,8 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.53273, 0.09992]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.53273 0.09992]]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2368,15 +2550,18 @@
         </is>
       </c>
       <c r="I46" t="n">
+        <v>1.079769051431814</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.0009194758518708444</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>0.03613536741282</v>
       </c>
-      <c r="K46" t="b">
-        <v>0</v>
-      </c>
       <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2401,7 +2586,8 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5864 , 0.975  , 0.15718]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.5864  0.975   0.15718]]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2410,15 +2596,18 @@
         </is>
       </c>
       <c r="I47" t="n">
+        <v>1.111369087225752</v>
+      </c>
+      <c r="J47" t="n">
         <v>1.071309340495198e-06</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>0.07049502607000001</v>
       </c>
-      <c r="K47" t="b">
-        <v>0</v>
-      </c>
       <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2443,7 +2632,8 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.14673, 0.975  , 0.39283]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.14673 0.975   0.39283]]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2452,15 +2642,18 @@
         </is>
       </c>
       <c r="I48" t="n">
+        <v>1.025972733435933</v>
+      </c>
+      <c r="J48" t="n">
         <v>1.656666854554012e-05</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>0.04253667849274999</v>
       </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
       <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2485,7 +2678,8 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.45527, 0.975  , 0.1609 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.45527 0.975   0.1609 ]]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2494,15 +2688,18 @@
         </is>
       </c>
       <c r="I49" t="n">
+        <v>1.051715190547802</v>
+      </c>
+      <c r="J49" t="n">
         <v>0.0003842511587600554</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>0.0555498363525</v>
       </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
       <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2527,7 +2724,8 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.43172, 0.975  , 0.11844]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.43172 0.975   0.11844]]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2536,15 +2734,18 @@
         </is>
       </c>
       <c r="I50" t="n">
+        <v>1.037619817247628</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.0260124821353036</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>0.03610291686859999</v>
       </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
       <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2569,7 +2770,8 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.48372, 0.30041, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.48372 0.30041 0.975  ]]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2578,15 +2780,18 @@
         </is>
       </c>
       <c r="I51" t="n">
+        <v>1.090310127790254</v>
+      </c>
+      <c r="J51" t="n">
         <v>0.08225174022666439</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>0.12001996886445</v>
       </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
       <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2611,7 +2816,8 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.67776, 0.32206]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.67776 0.32206]]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2620,15 +2826,18 @@
         </is>
       </c>
       <c r="I52" t="n">
+        <v>1.190312041006475</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.004867110475535905</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>0.1842149637729</v>
       </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
       <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2653,7 +2862,8 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.56605, 0.23369, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.56605 0.23369 0.975  ]]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2662,15 +2872,18 @@
         </is>
       </c>
       <c r="I53" t="n">
+        <v>1.113010345470787</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.001925913889645696</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>0.1072671295525</v>
       </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
       <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2695,7 +2908,8 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.49208, 0.975  , 0.27881]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.49208 0.975   0.27881]]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2704,15 +2918,18 @@
         </is>
       </c>
       <c r="I54" t="n">
+        <v>1.088614120992834</v>
+      </c>
+      <c r="J54" t="n">
         <v>6.64153247317221e-06</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>0.11261987743</v>
       </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
       <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2737,7 +2954,8 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.66672, 0.33328, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.66672 0.33328 0.975  ]]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2746,15 +2964,18 @@
         </is>
       </c>
       <c r="I55" t="n">
+        <v>1.187157298157241</v>
+      </c>
+      <c r="J55" t="n">
         <v>0.02095072862612524</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>0.1879373359802</v>
       </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
       <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2779,7 +3000,8 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.77429, 0.21695]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.77429 0.21695]]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2788,15 +3010,18 @@
         </is>
       </c>
       <c r="I56" t="n">
+        <v>1.225066446983591</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.0003319920024058687</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>0.1366358164875</v>
       </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
       <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2821,7 +3046,8 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83682, 0.2553 , 0.85985]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83682 0.2553  0.85985]]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2830,15 +3056,18 @@
         </is>
       </c>
       <c r="I57" t="n">
+        <v>1.187037960655429</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.0003774770817171904</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>0.1560866223667202</v>
       </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
       <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2863,7 +3092,8 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.14863, 0.38288]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.14863 0.38288]]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2872,15 +3102,18 @@
         </is>
       </c>
       <c r="I58" t="n">
+        <v>1.022673126677826</v>
+      </c>
+      <c r="J58" t="n">
         <v>0.001879963568493681</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>0.04203211683450001</v>
       </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
       <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2905,7 +3138,8 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.7186 , 0.21885, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.7186  0.21885 0.975  ]]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2914,15 +3148,18 @@
         </is>
       </c>
       <c r="I59" t="n">
+        <v>1.192121316693901</v>
+      </c>
+      <c r="J59" t="n">
         <v>0.02956743766984856</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>0.12773090537</v>
       </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
       <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2947,7 +3184,8 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.93665, 0.27519, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.93665 0.27519 0.975  ]]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2956,15 +3194,18 @@
         </is>
       </c>
       <c r="I60" t="n">
+        <v>1.340223398204941</v>
+      </c>
+      <c r="J60" t="n">
         <v>0.008992479400562768</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>0.216677963555</v>
       </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
       <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2989,7 +3230,8 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67786, 0.22598, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.67786 0.22598 0.975  ]]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2998,15 +3240,18 @@
         </is>
       </c>
       <c r="I61" t="n">
+        <v>1.170092787015201</v>
+      </c>
+      <c r="J61" t="n">
         <v>5.313320868655468e-05</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>0.124648111575</v>
       </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
       <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +3276,8 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.9181 , 0.31777, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.9181  0.31777 0.975  ]]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3040,15 +3286,18 @@
         </is>
       </c>
       <c r="I62" t="n">
+        <v>1.33635370999934</v>
+      </c>
+      <c r="J62" t="n">
         <v>0.05313087227214005</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>0.2484029286024999</v>
       </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
       <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3073,7 +3322,8 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.62558, 0.3182 , 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.62558 0.3182  0.975  ]]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3082,15 +3332,18 @@
         </is>
       </c>
       <c r="I63" t="n">
+        <v>1.161533519702294</v>
+      </c>
+      <c r="J63" t="n">
         <v>0.003596308311506804</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>0.1672867212288</v>
       </c>
-      <c r="K63" t="b">
-        <v>0</v>
-      </c>
       <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3115,7 +3368,8 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72352, 0.17378, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.72352 0.17378 0.975  ]]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3124,15 +3378,18 @@
         </is>
       </c>
       <c r="I64" t="n">
+        <v>1.188512175002848</v>
+      </c>
+      <c r="J64" t="n">
         <v>0.03612760290439766</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>0.09872842770584998</v>
       </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
       <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3157,7 +3414,8 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64902, 0.13676, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.64902 0.13676 0.975  ]]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3166,15 +3424,18 @@
         </is>
       </c>
       <c r="I65" t="n">
+        <v>1.142099984950967</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.003205464041230005</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>0.066256415535</v>
       </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
       <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3199,7 +3460,8 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21188, 0.28975, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.21188 0.28975 0.975  ]]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3208,15 +3470,18 @@
         </is>
       </c>
       <c r="I66" t="n">
+        <v>1.003753298246636</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.01892621760267958</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>0.0470046237255</v>
       </c>
-      <c r="K66" t="b">
-        <v>0</v>
-      </c>
       <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3241,7 +3506,8 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.33293, 0.70357]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.33293 0.70357]]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3250,15 +3516,18 @@
         </is>
       </c>
       <c r="I67" t="n">
+        <v>1.207384372731816</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.006625527011815732</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>0.1985021710586999</v>
       </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
       <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3283,7 +3552,8 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26651, 0.37327, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.26651 0.37327 0.975  ]]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3292,15 +3562,18 @@
         </is>
       </c>
       <c r="I68" t="n">
+        <v>1.040248930533937</v>
+      </c>
+      <c r="J68" t="n">
         <v>1.150663247492724e-05</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>0.07990405931970002</v>
       </c>
-      <c r="K68" t="b">
-        <v>0</v>
-      </c>
       <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3325,7 +3598,8 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.2711 , 0.16668]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.2711  0.16668]]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3334,15 +3608,18 @@
         </is>
       </c>
       <c r="I69" t="n">
+        <v>0.9915332012923218</v>
+      </c>
+      <c r="J69" t="n">
         <v>5.702297723145046e-06</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>0.0331246069806</v>
       </c>
-      <c r="K69" t="b">
-        <v>0</v>
-      </c>
       <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3367,7 +3644,8 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75196, 0.31084, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75196 0.31084 0.975  ]]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3376,15 +3654,18 @@
         </is>
       </c>
       <c r="I70" t="n">
+        <v>1.229909159252422</v>
+      </c>
+      <c r="J70" t="n">
         <v>3.626460424735004e-05</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>0.1974030053342999</v>
       </c>
-      <c r="K70" t="b">
-        <v>0</v>
-      </c>
       <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3409,7 +3690,8 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75396, 0.33694, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75396 0.33694 0.975  ]]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3418,15 +3700,18 @@
         </is>
       </c>
       <c r="I71" t="n">
+        <v>1.237408868510728</v>
+      </c>
+      <c r="J71" t="n">
         <v>8.92013285656328e-06</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>0.2160193265505</v>
       </c>
-      <c r="K71" t="b">
-        <v>0</v>
-      </c>
       <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3451,7 +3736,8 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.91534, 0.25128, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.91534 0.25128 0.975  ]]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3460,15 +3746,18 @@
         </is>
       </c>
       <c r="I72" t="n">
+        <v>1.321513067604706</v>
+      </c>
+      <c r="J72" t="n">
         <v>0.006495782608636592</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>0.19138752451875</v>
       </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
       <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3493,7 +3782,8 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.26252, 0.65248]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.26252 0.65248]]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3502,15 +3792,18 @@
         </is>
       </c>
       <c r="I73" t="n">
+        <v>1.16303680111766</v>
+      </c>
+      <c r="J73" t="n">
         <v>0.0004905858879519725</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>0.14159001367225</v>
       </c>
-      <c r="K73" t="b">
-        <v>0</v>
-      </c>
       <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3535,7 +3828,8 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.77452, 0.29927, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.77452 0.29927 0.975  ]]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3544,15 +3838,18 @@
         </is>
       </c>
       <c r="I74" t="n">
+        <v>1.24076761051375</v>
+      </c>
+      <c r="J74" t="n">
         <v>0.0001908135631863433</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>0.1952923078799999</v>
       </c>
-      <c r="K74" t="b">
-        <v>0</v>
-      </c>
       <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3577,7 +3874,8 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.85188, 0.20723, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.85188 0.20723 0.975  ]]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3586,15 +3884,18 @@
         </is>
       </c>
       <c r="I75" t="n">
+        <v>1.272570883503548</v>
+      </c>
+      <c r="J75" t="n">
         <v>0.0001760522075167385</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>0.1431480521615</v>
       </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
       <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3619,7 +3920,8 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.31124, 0.83969]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.31124 0.83969]]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3628,15 +3930,18 @@
         </is>
       </c>
       <c r="I76" t="n">
+        <v>1.283806548857342</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.0002222569818545038</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>0.2215414359629999</v>
       </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
       <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3661,7 +3966,8 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.63011, 0.975  , 0.38365]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.63011 0.975   0.38365]]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3670,15 +3976,18 @@
         </is>
       </c>
       <c r="I77" t="n">
+        <v>1.182071486786227</v>
+      </c>
+      <c r="J77" t="n">
         <v>1.564321772560627e-05</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>0.2061737382922</v>
       </c>
-      <c r="K77" t="b">
-        <v>0</v>
-      </c>
       <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3703,7 +4012,8 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.77176, 0.975  , 0.85058]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.77176 0.975   0.85058]]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3712,15 +4022,18 @@
         </is>
       </c>
       <c r="I78" t="n">
+        <v>1.463466544722154</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.004650767773787421</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>0.585685399061</v>
       </c>
-      <c r="K78" t="b">
-        <v>0</v>
-      </c>
       <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3745,7 +4058,8 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.80858, 0.975  , 0.81168]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.80858 0.975   0.81168]]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3754,15 +4068,18 @@
         </is>
       </c>
       <c r="I79" t="n">
+        <v>1.461287598956824</v>
+      </c>
+      <c r="J79" t="n">
         <v>0.003778142549031315</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>0.5856046431026</v>
       </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
       <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3787,7 +4104,8 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.61235, 0.85747]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.61235 0.85747]]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3796,15 +4114,18 @@
         </is>
       </c>
       <c r="I80" t="n">
+        <v>1.39301410057185</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.002428103683995126</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>0.4645027603037999</v>
       </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
       <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3829,7 +4150,8 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.61512, 0.44048, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.61512 0.44048 0.975  ]]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3838,15 +4160,18 @@
         </is>
       </c>
       <c r="I81" t="n">
+        <v>1.193047784770166</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.0001677771843976089</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>0.2329240077266</v>
       </c>
-      <c r="K81" t="b">
-        <v>0</v>
-      </c>
       <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3871,7 +4196,8 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.81075, 0.975  , 0.81075]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.81075 0.975   0.81075]]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3880,15 +4206,18 @@
         </is>
       </c>
       <c r="I82" t="n">
+        <v>1.461951233970887</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.001551553288259476</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>0.5865306699874999</v>
       </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
       <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3913,7 +4242,8 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.2069 , 0.51207]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.2069  0.51207]]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3922,15 +4252,18 @@
         </is>
       </c>
       <c r="I83" t="n">
+        <v>1.082971592789026</v>
+      </c>
+      <c r="J83" t="n">
         <v>679.2136211201491</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>0.0841694023968</v>
       </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
       <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3955,7 +4288,8 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.81469, 0.975  , 0.25186]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.81469 0.975   0.25186]]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3964,15 +4298,18 @@
         </is>
       </c>
       <c r="I84" t="n">
+        <v>1.256018789232868</v>
+      </c>
+      <c r="J84" t="n">
         <v>1.19065598898668e-05</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>0.17019194710475</v>
       </c>
-      <c r="K84" t="b">
-        <v>0</v>
-      </c>
       <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3997,7 +4334,8 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83165, 0.35093, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83165 0.35093 0.975  ]]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4006,15 +4344,18 @@
         </is>
       </c>
       <c r="I85" t="n">
+        <v>1.28818178928364</v>
+      </c>
+      <c r="J85" t="n">
         <v>9.679353327118671e-05</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>0.24976478682495</v>
       </c>
-      <c r="K85" t="b">
-        <v>0</v>
-      </c>
       <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4039,7 +4380,8 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.23856, 0.83462]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.23856 0.83462]]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4048,15 +4390,18 @@
         </is>
       </c>
       <c r="I86" t="n">
+        <v>1.266331911754576</v>
+      </c>
+      <c r="J86" t="n">
         <v>0.0004835662590541355</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>0.1642592688858</v>
       </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
       <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4081,7 +4426,8 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.13148, 0.025  , 0.025  ]), TrackedArray([0.975  , 0.73856, 0.23747]))</t>
+          <t>[[0.13148 0.025   0.025  ]
+ [0.975   0.73856 0.23747]]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4090,15 +4436,18 @@
         </is>
       </c>
       <c r="I87" t="n">
+        <v>1.125089991908647</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.0007107505262834584</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>0.1278829525601129</v>
       </c>
-      <c r="K87" t="b">
-        <v>0</v>
-      </c>
       <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4123,7 +4472,8 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.29427, 0.39209]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.29427 0.39209]]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4132,15 +4482,18 @@
         </is>
       </c>
       <c r="I88" t="n">
+        <v>1.053452762170663</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.0001693310309115441</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>0.0939039850931</v>
       </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
       <c r="L88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4165,7 +4518,8 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.30212, 0.34559]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.30212 0.34559]]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4174,15 +4528,18 @@
         </is>
       </c>
       <c r="I89" t="n">
+        <v>1.040228699089772</v>
+      </c>
+      <c r="J89" t="n">
         <v>9.42928205599857e-06</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>0.08440098270834998</v>
       </c>
-      <c r="K89" t="b">
-        <v>0</v>
-      </c>
       <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4207,7 +4564,8 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42768, 0.38091, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.42768 0.38091 0.975  ]]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4216,15 +4574,18 @@
         </is>
       </c>
       <c r="I90" t="n">
+        <v>1.091476554304764</v>
+      </c>
+      <c r="J90" t="n">
         <v>4.091711315905501e-05</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>0.1361507547867</v>
       </c>
-      <c r="K90" t="b">
-        <v>0</v>
-      </c>
       <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4249,7 +4610,8 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.536  , 0.42827, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.536   0.42827 0.975  ]]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4258,15 +4620,18 @@
         </is>
       </c>
       <c r="I91" t="n">
+        <v>1.151628885765723</v>
+      </c>
+      <c r="J91" t="n">
         <v>2.176811112323662e-07</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>0.19576849474065</v>
       </c>
-      <c r="K91" t="b">
-        <v>0</v>
-      </c>
       <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4291,7 +4656,8 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.20641, 0.50484]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.20641 0.50484]]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4300,15 +4666,18 @@
         </is>
       </c>
       <c r="I92" t="n">
+        <v>1.079652612677337</v>
+      </c>
+      <c r="J92" t="n">
         <v>5.113005089931471e-05</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>0.0826927006095</v>
       </c>
-      <c r="K92" t="b">
-        <v>0</v>
-      </c>
       <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4333,7 +4702,8 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.21629, 0.20197]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.21629 0.20197]]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4342,15 +4712,18 @@
         </is>
       </c>
       <c r="I93" t="n">
+        <v>0.9850955238513674</v>
+      </c>
+      <c r="J93" t="n">
         <v>9.24599019032595e-05</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>0.03216136113819999</v>
       </c>
-      <c r="K93" t="b">
-        <v>0</v>
-      </c>
       <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4375,7 +4748,8 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.45047, 0.21271, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.45047 0.21271 0.975  ]]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4384,15 +4758,18 @@
         </is>
       </c>
       <c r="I94" t="n">
+        <v>1.057712489538154</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.0006006491569922103</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>0.0758695732669</v>
       </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
       <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4417,7 +4794,8 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.39131, 0.21047, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.39131 0.21047 0.975  ]]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4426,15 +4804,18 @@
         </is>
       </c>
       <c r="I95" t="n">
+        <v>1.034930094656156</v>
+      </c>
+      <c r="J95" t="n">
         <v>0.002583840889721703</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>0.0645418395294</v>
       </c>
-      <c r="K95" t="b">
-        <v>0</v>
-      </c>
       <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4459,7 +4840,8 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5629 , 0.975  , 0.27724]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.5629  0.975   0.27724]]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4468,15 +4850,18 @@
         </is>
       </c>
       <c r="I96" t="n">
+        <v>1.120473811072798</v>
+      </c>
+      <c r="J96" t="n">
         <v>0.0009829744967274968</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>0.1288943364284</v>
       </c>
-      <c r="K96" t="b">
-        <v>0</v>
-      </c>
       <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4501,7 +4886,8 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.43774, 0.21308, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.43774 0.21308 0.975  ]]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4510,15 +4896,18 @@
         </is>
       </c>
       <c r="I97" t="n">
+        <v>1.052724059135156</v>
+      </c>
+      <c r="J97" t="n">
         <v>1.391080968433011e-05</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>0.07374694566604999</v>
       </c>
-      <c r="K97" t="b">
-        <v>0</v>
-      </c>
       <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4543,7 +4932,8 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.21263, 0.41993]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.21263 0.41993]]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4552,15 +4942,18 @@
         </is>
       </c>
       <c r="I98" t="n">
+        <v>1.045788806860162</v>
+      </c>
+      <c r="J98" t="n">
         <v>8.376356172034971e-05</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>0.07039702126274998</v>
       </c>
-      <c r="K98" t="b">
-        <v>0</v>
-      </c>
       <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4585,7 +4978,8 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55257, 0.38643, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.55257 0.38643 0.975  ]]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4594,15 +4988,18 @@
         </is>
       </c>
       <c r="I99" t="n">
+        <v>1.145190124264089</v>
+      </c>
+      <c r="J99" t="n">
         <v>0.00081893796598662</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>0.1811462751618</v>
       </c>
-      <c r="K99" t="b">
-        <v>0</v>
-      </c>
       <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4627,7 +5024,8 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.48804, 0.24533, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.48804 0.24533 0.975  ]]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4636,15 +5034,18 @@
         </is>
       </c>
       <c r="I100" t="n">
+        <v>1.079559209518866</v>
+      </c>
+      <c r="J100" t="n">
         <v>6.232310040837054e-06</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>0.09692012567019999</v>
       </c>
-      <c r="K100" t="b">
-        <v>0</v>
-      </c>
       <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4669,7 +5070,8 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.58091, 0.25091, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.58091 0.25091 0.975  ]]</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4678,15 +5080,18 @@
         </is>
       </c>
       <c r="I101" t="n">
+        <v>1.123642765070821</v>
+      </c>
+      <c r="J101" t="n">
         <v>1.593762919103137e-05</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>0.119308459153</v>
       </c>
-      <c r="K101" t="b">
-        <v>0</v>
-      </c>
       <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4711,7 +5116,8 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.08612]), TrackedArray([0.975  , 0.37961, 0.30889]))</t>
+          <t>[[0.025   0.025   0.08612]
+ [0.975   0.37961 0.30889]]</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4720,15 +5126,18 @@
         </is>
       </c>
       <c r="I102" t="n">
+        <v>1.038206148721539</v>
+      </c>
+      <c r="J102" t="n">
         <v>0.0001960344431400701</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>0.07504459125004999</v>
       </c>
-      <c r="K102" t="b">
-        <v>0</v>
-      </c>
       <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4753,7 +5162,8 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.44467, 0.975  , 0.44465]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.44467 0.975   0.44465]]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4762,15 +5172,18 @@
         </is>
       </c>
       <c r="I103" t="n">
+        <v>1.120146879405554</v>
+      </c>
+      <c r="J103" t="n">
         <v>0.016456660138762</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>0.16730878970505</v>
       </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
       <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4795,7 +5208,8 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55613, 0.975  , 0.55481]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.55613 0.975   0.55481]]</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4804,15 +5218,18 @@
         </is>
       </c>
       <c r="I104" t="n">
+        <v>1.210493066471675</v>
+      </c>
+      <c r="J104" t="n">
         <v>0.0009607499211917115</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>0.267326072757</v>
       </c>
-      <c r="K104" t="b">
-        <v>0</v>
-      </c>
       <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4837,7 +5254,8 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40504, 0.975  , 0.40504]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.40504 0.975   0.40504]]</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4846,15 +5264,18 @@
         </is>
       </c>
       <c r="I105" t="n">
+        <v>1.091497541853393</v>
+      </c>
+      <c r="J105" t="n">
         <v>0.004348995220782737</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>0.1372117698392</v>
       </c>
-      <c r="K105" t="b">
-        <v>0</v>
-      </c>
       <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4879,7 +5300,8 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38436, 0.975  , 0.38436]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.38436 0.975   0.38436]]</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4888,15 +5310,18 @@
         </is>
       </c>
       <c r="I106" t="n">
+        <v>1.077393977039968</v>
+      </c>
+      <c r="J106" t="n">
         <v>0.001840046520566422</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>0.12268194633695</v>
       </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
       <c r="L106" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4921,7 +5346,8 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41408, 0.975  , 0.41408]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.41408 0.975   0.41408]]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4930,15 +5356,18 @@
         </is>
       </c>
       <c r="I107" t="n">
+        <v>1.097845588633483</v>
+      </c>
+      <c r="J107" t="n">
         <v>0.005124564684779795</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>0.14381334482895</v>
       </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
       <c r="L107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4963,7 +5392,8 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.65833, 0.975  , 0.65833]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.65833 0.975   0.65833]]</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4972,15 +5402,18 @@
         </is>
       </c>
       <c r="I108" t="n">
+        <v>1.305649791398138</v>
+      </c>
+      <c r="J108" t="n">
         <v>0.01049341355350456</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>0.3810551544445499</v>
       </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
       <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5005,7 +5438,8 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.62958, 0.975  , 0.62256]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.62958 0.975   0.62256]]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5014,15 +5448,18 @@
         </is>
       </c>
       <c r="I109" t="n">
+        <v>1.274790711723693</v>
+      </c>
+      <c r="J109" t="n">
         <v>0.0001552625254698269</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>0.3432074538341999</v>
       </c>
-      <c r="K109" t="b">
-        <v>0</v>
-      </c>
       <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5047,7 +5484,8 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.51879, 0.975  , 0.51879]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.51879 0.975   0.51879]]</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5056,15 +5494,18 @@
         </is>
       </c>
       <c r="I110" t="n">
+        <v>1.179050922788325</v>
+      </c>
+      <c r="J110" t="n">
         <v>0.0004381289402268271</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>0.2316390123008</v>
       </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
       <c r="L110" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5089,7 +5530,8 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.825, 0.975, 0.825]))</t>
+          <t>[[0.025 0.025 0.025]
+ [0.825 0.975 0.825]]</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5098,15 +5540,18 @@
         </is>
       </c>
       <c r="I111" t="n">
+        <v>1.477328670269416</v>
+      </c>
+      <c r="J111" t="n">
         <v>0.004650105459198159</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>0.6079999999999999</v>
       </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
       <c r="L111" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5131,7 +5576,8 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.52637, 0.975  , 0.52637]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.52637 0.975   0.52637]]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5140,15 +5586,18 @@
         </is>
       </c>
       <c r="I112" t="n">
+        <v>1.185427238331396</v>
+      </c>
+      <c r="J112" t="n">
         <v>0.004632889751165827</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>0.23880042525455</v>
       </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
       <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5173,7 +5622,8 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64614, 0.975  , 0.64582]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.64614 0.975   0.64582]]</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5182,15 +5632,18 @@
         </is>
       </c>
       <c r="I113" t="n">
+        <v>1.293726650341949</v>
+      </c>
+      <c r="J113" t="n">
         <v>0.0004118738454751172</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>0.3663335584208999</v>
       </c>
-      <c r="K113" t="b">
-        <v>0</v>
-      </c>
       <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5215,7 +5668,8 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.51206, 0.51206]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.51206 0.51206]]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5224,15 +5678,18 @@
         </is>
       </c>
       <c r="I114" t="n">
+        <v>1.173433059893064</v>
+      </c>
+      <c r="J114" t="n">
         <v>0.012202725588805</v>
       </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>0.22536144437375</v>
       </c>
-      <c r="K114" t="b">
-        <v>0</v>
-      </c>
       <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5257,7 +5714,8 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42415, 0.975  , 0.42415]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.42415 0.975   0.42415]]</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5266,15 +5724,18 @@
         </is>
       </c>
       <c r="I115" t="n">
+        <v>1.105053772406121</v>
+      </c>
+      <c r="J115" t="n">
         <v>0.0003964504380004362</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>0.1513558239525</v>
       </c>
-      <c r="K115" t="b">
-        <v>0</v>
-      </c>
       <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5299,7 +5760,8 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.65212, 0.67346]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.65212 0.67346]]</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5308,15 +5770,18 @@
         </is>
       </c>
       <c r="I116" t="n">
+        <v>1.310067610527793</v>
+      </c>
+      <c r="J116" t="n">
         <v>0.0002717290994425789</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>0.38632799271675</v>
       </c>
-      <c r="K116" t="b">
-        <v>0</v>
-      </c>
       <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5341,7 +5806,8 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.67155, 0.51296]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.67155 0.51296]]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5350,15 +5816,18 @@
         </is>
       </c>
       <c r="I117" t="n">
+        <v>1.248454249236631</v>
+      </c>
+      <c r="J117" t="n">
         <v>0.003016688618358068</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>0.2997184795742999</v>
       </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
       <c r="L117" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5383,7 +5852,8 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.62052, 0.51775]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.62052 0.51775]]</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5392,15 +5862,18 @@
         </is>
       </c>
       <c r="I118" t="n">
+        <v>1.224722447332456</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.008731148553569419</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>0.2787690292414</v>
       </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
       <c r="L118" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5425,7 +5898,8 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.747  , 0.92806, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.747   0.92806 0.975  ]]</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5434,15 +5908,18 @@
         </is>
       </c>
       <c r="I119" t="n">
+        <v>1.496428934991903</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.0966343635851583</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>0.6194081680999999</v>
       </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
       <c r="L119" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5467,7 +5944,8 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84983, 0.975  , 0.72195]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.84983 0.975   0.72195]]</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5476,15 +5954,18 @@
         </is>
       </c>
       <c r="I120" t="n">
+        <v>1.438257793672956</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.0001412595908962503</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>0.5461226671774999</v>
       </c>
-      <c r="K120" t="b">
-        <v>0</v>
-      </c>
       <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5509,7 +5990,8 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55562, 0.975  , 0.07764]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.55562 0.975   0.07764]]</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5518,15 +6000,18 @@
         </is>
       </c>
       <c r="I121" t="n">
+        <v>1.089417952181462</v>
+      </c>
+      <c r="J121" t="n">
         <v>0.355811354815864</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>0.02653413475437499</v>
       </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
       <c r="L121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5551,7 +6036,8 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5    , 0.975  , 0.05667]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.5     0.975   0.05667]]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5560,15 +6046,18 @@
         </is>
       </c>
       <c r="I122" t="n">
+        <v>1.06260424424566</v>
+      </c>
+      <c r="J122" t="n">
         <v>0.004831823722597714</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>0.014289598375</v>
       </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
       <c r="L122" t="b">
+        <v>1</v>
+      </c>
+      <c r="M122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5593,7 +6082,8 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.54525, 0.975  , 0.28195]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.54525 0.975   0.28195]]</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5602,15 +6092,18 @@
         </is>
       </c>
       <c r="I123" t="n">
+        <v>1.113186380187074</v>
+      </c>
+      <c r="J123" t="n">
         <v>1.16891075195434e-05</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>0.12699258673075</v>
       </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
       <c r="L123" t="b">
+        <v>1</v>
+      </c>
+      <c r="M123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5635,7 +6128,8 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.56786, 0.975  , 0.05214]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.56786 0.975   0.05214]]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5644,15 +6138,18 @@
         </is>
       </c>
       <c r="I124" t="n">
+        <v>1.094500095691823</v>
+      </c>
+      <c r="J124" t="n">
         <v>0.03163655983323321</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>0.01399797760203499</v>
       </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
       <c r="L124" t="b">
+        <v>1</v>
+      </c>
+      <c r="M124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5677,7 +6174,8 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.03732, 0.975  , 0.52805]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.03732 0.975   0.52805]]</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5686,15 +6184,18 @@
         </is>
       </c>
       <c r="I125" t="n">
+        <v>1.075038678492751</v>
+      </c>
+      <c r="J125" t="n">
         <v>0.04210443985232854</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>0.005889478087669998</v>
       </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
       <c r="L125" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5719,7 +6220,8 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.54442, 0.975  , 0.12   ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.54442 0.975   0.12   ]]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5728,15 +6230,18 @@
         </is>
       </c>
       <c r="I126" t="n">
+        <v>1.086887700240002</v>
+      </c>
+      <c r="J126" t="n">
         <v>8.109901772057798e-17</v>
       </c>
-      <c r="J126" t="n">
+      <c r="K126" t="n">
         <v>0.0468769388463</v>
       </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
       <c r="L126" t="b">
+        <v>1</v>
+      </c>
+      <c r="M126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5761,7 +6266,8 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.32038, 0.975  , 0.10412]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.32038 0.975   0.10412]]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5770,15 +6276,18 @@
         </is>
       </c>
       <c r="I127" t="n">
+        <v>0.9980030611300749</v>
+      </c>
+      <c r="J127" t="n">
         <v>0.01708242160080772</v>
       </c>
-      <c r="J127" t="n">
+      <c r="K127" t="n">
         <v>0.022203345375</v>
       </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
       <c r="L127" t="b">
+        <v>1</v>
+      </c>
+      <c r="M127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5803,7 +6312,8 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.47673, 0.975  , 0.08917]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.47673 0.975   0.08917]]</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5812,15 +6322,18 @@
         </is>
       </c>
       <c r="I128" t="n">
+        <v>1.053887661808885</v>
+      </c>
+      <c r="J128" t="n">
         <v>0.003204771179196002</v>
       </c>
-      <c r="J128" t="n">
+      <c r="K128" t="n">
         <v>0.0275369728818</v>
       </c>
-      <c r="K128" t="b">
-        <v>0</v>
-      </c>
       <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5845,7 +6358,8 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.8712 , 0.65191]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.8712  0.65191]]</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5854,15 +6368,18 @@
         </is>
       </c>
       <c r="I129" t="n">
+        <v>1.41829552211096</v>
+      </c>
+      <c r="J129" t="n">
         <v>0.0006989875561513183</v>
       </c>
-      <c r="J129" t="n">
+      <c r="K129" t="n">
         <v>0.5039622732186</v>
       </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
       <c r="L129" t="b">
+        <v>1</v>
+      </c>
+      <c r="M129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5887,7 +6404,8 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.78085, 0.83819]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.78085 0.83819]]</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5896,15 +6414,18 @@
         </is>
       </c>
       <c r="I130" t="n">
+        <v>1.461194118391188</v>
+      </c>
+      <c r="J130" t="n">
         <v>0.0003167325993143125</v>
       </c>
-      <c r="J130" t="n">
+      <c r="K130" t="n">
         <v>0.5839181688284999</v>
       </c>
-      <c r="K130" t="b">
-        <v>0</v>
-      </c>
       <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5929,7 +6450,8 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.90526, 0.44575]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.90526 0.44575]]</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5938,15 +6460,18 @@
         </is>
       </c>
       <c r="I131" t="n">
+        <v>1.361756683682147</v>
+      </c>
+      <c r="J131" t="n">
         <v>0.01426911929297707</v>
       </c>
-      <c r="J131" t="n">
+      <c r="K131" t="n">
         <v>0.3518480536242</v>
       </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
       <c r="L131" t="b">
+        <v>1</v>
+      </c>
+      <c r="M131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5971,7 +6496,8 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.73553, 0.975  , 0.85395]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.73553 0.975   0.85395]]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5980,15 +6506,18 @@
         </is>
       </c>
       <c r="I132" t="n">
+        <v>1.447238862622546</v>
+      </c>
+      <c r="J132" t="n">
         <v>0.01010857591584978</v>
       </c>
-      <c r="J132" t="n">
+      <c r="K132" t="n">
         <v>0.5595389763159</v>
       </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
       <c r="L132" t="b">
+        <v>1</v>
+      </c>
+      <c r="M132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6013,7 +6542,8 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70752, 0.975  , 0.48476]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.70752 0.975   0.48476]]</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6022,15 +6552,18 @@
         </is>
       </c>
       <c r="I133" t="n">
+        <v>1.256869168696567</v>
+      </c>
+      <c r="J133" t="n">
         <v>0.00160869801999915</v>
       </c>
-      <c r="J133" t="n">
+      <c r="K133" t="n">
         <v>0.2981086693236</v>
       </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
       <c r="L133" t="b">
+        <v>1</v>
+      </c>
+      <c r="M133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6055,7 +6588,8 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.48994, 0.975  , 0.60072]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.48994 0.975   0.60072]]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6064,15 +6598,18 @@
         </is>
       </c>
       <c r="I134" t="n">
+        <v>1.204210506332676</v>
+      </c>
+      <c r="J134" t="n">
         <v>0.05585136694616956</v>
       </c>
-      <c r="J134" t="n">
+      <c r="K134" t="n">
         <v>0.25429138871805</v>
       </c>
-      <c r="K134" t="b">
-        <v>0</v>
-      </c>
       <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6097,7 +6634,8 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84519, 0.975  , 0.4957 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.84519 0.975   0.4957 ]]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6106,15 +6644,18 @@
         </is>
       </c>
       <c r="I135" t="n">
+        <v>1.340434526613292</v>
+      </c>
+      <c r="J135" t="n">
         <v>6.313794951037923e-05</v>
       </c>
-      <c r="J135" t="n">
+      <c r="K135" t="n">
         <v>0.3667566974668</v>
       </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
       <c r="L135" t="b">
+        <v>1</v>
+      </c>
+      <c r="M135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6139,7 +6680,8 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.29586, 0.78001]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.29586 0.78001]]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6148,15 +6690,18 @@
         </is>
       </c>
       <c r="I136" t="n">
+        <v>1.243342990929293</v>
+      </c>
+      <c r="J136" t="n">
         <v>8.01556738810055e-06</v>
       </c>
-      <c r="J136" t="n">
+      <c r="K136" t="n">
         <v>0.1942775707323</v>
       </c>
-      <c r="K136" t="b">
-        <v>0</v>
-      </c>
       <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6181,7 +6726,8 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75965, 0.975  , 0.89351]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75965 0.975   0.89351]]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6190,15 +6736,18 @@
         </is>
       </c>
       <c r="I137" t="n">
+        <v>1.482066927663525</v>
+      </c>
+      <c r="J137" t="n">
         <v>2.793843336812309e-05</v>
       </c>
-      <c r="J137" t="n">
+      <c r="K137" t="n">
         <v>0.60615035958075</v>
       </c>
-      <c r="K137" t="b">
-        <v>0</v>
-      </c>
       <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6223,7 +6772,8 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.44201, 0.74236]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.44201 0.74236]]</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6232,15 +6782,18 @@
         </is>
       </c>
       <c r="I138" t="n">
+        <v>1.261352918097865</v>
+      </c>
+      <c r="J138" t="n">
         <v>2.753692665508491e-06</v>
       </c>
-      <c r="J138" t="n">
+      <c r="K138" t="n">
         <v>0.2841935748727499</v>
       </c>
-      <c r="K138" t="b">
-        <v>0</v>
-      </c>
       <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6265,7 +6818,8 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.41852, 0.64447]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.41852 0.64447]]</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6274,15 +6828,18 @@
         </is>
       </c>
       <c r="I139" t="n">
+        <v>1.200458176014891</v>
+      </c>
+      <c r="J139" t="n">
         <v>0.003587442400444031</v>
       </c>
-      <c r="J139" t="n">
+      <c r="K139" t="n">
         <v>0.231584768836</v>
       </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
       <c r="L139" t="b">
+        <v>1</v>
+      </c>
+      <c r="M139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6307,7 +6864,8 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.81967, 0.975  , 0.76731]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.81967 0.975   0.76731]]</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6316,15 +6874,18 @@
         </is>
       </c>
       <c r="I140" t="n">
+        <v>1.443965078112694</v>
+      </c>
+      <c r="J140" t="n">
         <v>0.03473961182413352</v>
       </c>
-      <c r="J140" t="n">
+      <c r="K140" t="n">
         <v>0.5604020983959999</v>
       </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
       <c r="L140" t="b">
+        <v>1</v>
+      </c>
+      <c r="M140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6349,7 +6910,8 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.51789, 0.975  , 0.23201]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.51789 0.975   0.23201]]</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6358,15 +6920,18 @@
         </is>
       </c>
       <c r="I141" t="n">
+        <v>1.090089605626987</v>
+      </c>
+      <c r="J141" t="n">
         <v>0.008564102720700538</v>
       </c>
-      <c r="J141" t="n">
+      <c r="K141" t="n">
         <v>0.09693337393699998</v>
       </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
       <c r="L141" t="b">
+        <v>1</v>
+      </c>
+      <c r="M141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6391,7 +6956,8 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.69061, 0.975  , 0.90844]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.69061 0.975   0.90844]]</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6400,15 +6966,18 @@
         </is>
       </c>
       <c r="I142" t="n">
+        <v>1.458079038579871</v>
+      </c>
+      <c r="J142" t="n">
         <v>0.00136404120888125</v>
       </c>
-      <c r="J142" t="n">
+      <c r="K142" t="n">
         <v>0.55862034481525</v>
       </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
       <c r="L142" t="b">
+        <v>1</v>
+      </c>
+      <c r="M142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6433,7 +7002,8 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.8151, 0.975 , 0.975 ]))</t>
+          <t>[[0.025  0.025  0.025 ]
+ [0.8151 0.975  0.975 ]]</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6442,15 +7012,18 @@
         </is>
       </c>
       <c r="I143" t="n">
+        <v>1.558603352054011</v>
+      </c>
+      <c r="J143" t="n">
         <v>0.0001896231235768128</v>
       </c>
-      <c r="J143" t="n">
+      <c r="K143" t="n">
         <v>0.7130584857292499</v>
       </c>
-      <c r="K143" t="b">
-        <v>0</v>
-      </c>
       <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6475,7 +7048,8 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.33925, 0.23597, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.33925 0.23597 0.975  ]]</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6484,15 +7058,18 @@
         </is>
       </c>
       <c r="I144" t="n">
+        <v>1.022623014685764</v>
+      </c>
+      <c r="J144" t="n">
         <v>4.060183569892322e-05</v>
       </c>
-      <c r="J144" t="n">
+      <c r="K144" t="n">
         <v>0.0629806609719</v>
       </c>
-      <c r="K144" t="b">
-        <v>0</v>
-      </c>
       <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6517,7 +7094,8 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.63792, 0.25455, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.63792 0.25455 0.975  ]]</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6526,15 +7104,18 @@
         </is>
       </c>
       <c r="I145" t="n">
+        <v>1.153634497425419</v>
+      </c>
+      <c r="J145" t="n">
         <v>7.625655632678672e-05</v>
       </c>
-      <c r="J145" t="n">
+      <c r="K145" t="n">
         <v>0.13366499845625</v>
       </c>
-      <c r="K145" t="b">
-        <v>0</v>
-      </c>
       <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6559,7 +7140,8 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.29562, 0.975  , 0.22571]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.29562 0.975   0.22571]]</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6568,15 +7150,18 @@
         </is>
       </c>
       <c r="I146" t="n">
+        <v>1.00797922353241</v>
+      </c>
+      <c r="J146" t="n">
         <v>0.002308707286611319</v>
       </c>
-      <c r="J146" t="n">
+      <c r="K146" t="n">
         <v>0.0516014193972</v>
       </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
       <c r="L146" t="b">
+        <v>1</v>
+      </c>
+      <c r="M146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6601,7 +7186,8 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.34261, 0.975  , 0.23433]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.34261 0.975   0.23433]]</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6610,15 +7196,18 @@
         </is>
       </c>
       <c r="I147" t="n">
+        <v>1.023323896568921</v>
+      </c>
+      <c r="J147" t="n">
         <v>0.01096502883562999</v>
       </c>
-      <c r="J147" t="n">
+      <c r="K147" t="n">
         <v>0.06315912987</v>
       </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
       <c r="L147" t="b">
+        <v>1</v>
+      </c>
+      <c r="M147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6643,7 +7232,8 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.34076, 0.975  , 0.35374]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.34076 0.975   0.35374]]</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6652,15 +7242,18 @@
         </is>
       </c>
       <c r="I148" t="n">
+        <v>1.05369500051011</v>
+      </c>
+      <c r="J148" t="n">
         <v>0.003968610235328433</v>
       </c>
-      <c r="J148" t="n">
+      <c r="K148" t="n">
         <v>0.09861214600439998</v>
       </c>
-      <c r="K148" t="b">
-        <v>0</v>
-      </c>
       <c r="L148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6685,7 +7278,8 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38362, 0.975  , 0.23181]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.38362 0.975   0.23181]]</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6694,15 +7288,18 @@
         </is>
       </c>
       <c r="I149" t="n">
+        <v>1.036280791909702</v>
+      </c>
+      <c r="J149" t="n">
         <v>0.004361342229544978</v>
       </c>
-      <c r="J149" t="n">
+      <c r="K149" t="n">
         <v>0.070458809638</v>
       </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
       <c r="L149" t="b">
+        <v>1</v>
+      </c>
+      <c r="M149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6727,7 +7324,8 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.28379, 0.26072, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.28379 0.26072 0.975  ]]</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6736,15 +7334,18 @@
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1.01243998441636</v>
       </c>
       <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.0579511642269</v>
       </c>
-      <c r="K150" t="b">
-        <v>0</v>
-      </c>
       <c r="L150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6769,7 +7370,8 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.35499, 0.975  , 0.30667]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.35499 0.975   0.30667]]</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6778,15 +7380,18 @@
         </is>
       </c>
       <c r="I151" t="n">
+        <v>1.044381179924744</v>
+      </c>
+      <c r="J151" t="n">
         <v>2.932644537782799e-05</v>
       </c>
-      <c r="J151" t="n">
+      <c r="K151" t="n">
         <v>0.08830113672149997</v>
       </c>
-      <c r="K151" t="b">
-        <v>0</v>
-      </c>
       <c r="L151" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6811,7 +7416,8 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.36873, 0.975  , 0.17902]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.36873 0.975   0.17902]]</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6820,15 +7426,18 @@
         </is>
       </c>
       <c r="I152" t="n">
+        <v>1.021946711135175</v>
+      </c>
+      <c r="J152" t="n">
         <v>0.0007138296037172225</v>
       </c>
-      <c r="J152" t="n">
+      <c r="K152" t="n">
         <v>0.0502958286896</v>
       </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
       <c r="L152" t="b">
+        <v>1</v>
+      </c>
+      <c r="M152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6853,7 +7462,8 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38194, 0.975  , 0.31104]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.38194 0.975   0.31104]]</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6862,15 +7472,18 @@
         </is>
       </c>
       <c r="I153" t="n">
+        <v>1.05438392941945</v>
+      </c>
+      <c r="J153" t="n">
         <v>0.008123293444329891</v>
       </c>
-      <c r="J153" t="n">
+      <c r="K153" t="n">
         <v>0.09699395964644997</v>
       </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
       <c r="L153" t="b">
+        <v>1</v>
+      </c>
+      <c r="M153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6895,7 +7508,8 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.62253, 0.975  , 0.59893]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.62253 0.975   0.59893]]</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6904,15 +7518,18 @@
         </is>
       </c>
       <c r="I154" t="n">
+        <v>1.260531743969187</v>
+      </c>
+      <c r="J154" t="n">
         <v>0.006079028308046464</v>
       </c>
-      <c r="J154" t="n">
+      <c r="K154" t="n">
         <v>0.3257943964477499</v>
       </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
       <c r="L154" t="b">
+        <v>1</v>
+      </c>
+      <c r="M154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6937,7 +7554,8 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.33997, 0.975  , 0.22807]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.33997 0.975   0.22807]]</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6946,15 +7564,18 @@
         </is>
       </c>
       <c r="I155" t="n">
+        <v>1.021245736548261</v>
+      </c>
+      <c r="J155" t="n">
         <v>5.036066833041378e-05</v>
       </c>
-      <c r="J155" t="n">
+      <c r="K155" t="n">
         <v>0.06076322891144999</v>
       </c>
-      <c r="K155" t="b">
-        <v>0</v>
-      </c>
       <c r="L155" t="b">
+        <v>0</v>
+      </c>
+      <c r="M155" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6979,7 +7600,8 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5564 , 0.975  , 0.18318]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.5564  0.975   0.18318]]</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6988,15 +7610,18 @@
         </is>
       </c>
       <c r="I156" t="n">
+        <v>1.09995578771967</v>
+      </c>
+      <c r="J156" t="n">
         <v>9.74765996081417e-05</v>
       </c>
-      <c r="J156" t="n">
+      <c r="K156" t="n">
         <v>0.07985204410555001</v>
       </c>
-      <c r="K156" t="b">
-        <v>0</v>
-      </c>
       <c r="L156" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7021,7 +7646,8 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.33993]), TrackedArray([0.6431 , 0.7627 , 0.93675]))</t>
+          <t>[[0.025   0.025   0.33993]
+ [0.6431  0.7627  0.93675]]</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7030,15 +7656,18 @@
         </is>
       </c>
       <c r="I157" t="n">
+        <v>1.132450674582783</v>
+      </c>
+      <c r="J157" t="n">
         <v>0.001125740093344335</v>
       </c>
-      <c r="J157" t="n">
+      <c r="K157" t="n">
         <v>0.272133783058827</v>
       </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
       <c r="L157" t="b">
+        <v>1</v>
+      </c>
+      <c r="M157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7063,7 +7692,8 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75454, 0.975  , 0.63355]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75454 0.975   0.63355]]</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7072,15 +7702,18 @@
         </is>
       </c>
       <c r="I158" t="n">
+        <v>1.343525035825533</v>
+      </c>
+      <c r="J158" t="n">
         <v>6.343760096331126e-05</v>
       </c>
-      <c r="J158" t="n">
+      <c r="K158" t="n">
         <v>0.42176198758065</v>
       </c>
-      <c r="K158" t="b">
-        <v>0</v>
-      </c>
       <c r="L158" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7105,7 +7738,8 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.80541, 0.975  , 0.63013]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.80541 0.975   0.63013]]</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7114,15 +7748,18 @@
         </is>
       </c>
       <c r="I159" t="n">
+        <v>1.37030126512749</v>
+      </c>
+      <c r="J159" t="n">
         <v>0.0005403213525536135</v>
       </c>
-      <c r="J159" t="n">
+      <c r="K159" t="n">
         <v>0.44863801136315</v>
       </c>
-      <c r="K159" t="b">
-        <v>0</v>
-      </c>
       <c r="L159" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7147,7 +7784,8 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.65759, 0.975  , 0.82368]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.65759 0.975   0.82368]]</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7156,15 +7794,18 @@
         </is>
       </c>
       <c r="I160" t="n">
+        <v>1.393037971412122</v>
+      </c>
+      <c r="J160" t="n">
         <v>2.737534175586138e-06</v>
       </c>
-      <c r="J160" t="n">
+      <c r="K160" t="n">
         <v>0.4799720971559999</v>
       </c>
-      <c r="K160" t="b">
-        <v>0</v>
-      </c>
       <c r="L160" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7189,7 +7830,8 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84624, 0.975  , 0.6975 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.84624 0.975   0.6975 ]]</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7198,15 +7840,18 @@
         </is>
       </c>
       <c r="I161" t="n">
+        <v>1.424498514413055</v>
+      </c>
+      <c r="J161" t="n">
         <v>0.0001255887494055153</v>
       </c>
-      <c r="J161" t="n">
+      <c r="K161" t="n">
         <v>0.5246717629299</v>
       </c>
-      <c r="K161" t="b">
-        <v>0</v>
-      </c>
       <c r="L161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7231,7 +7876,8 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.61838, 0.975  , 0.396  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.61838 0.975   0.396  ]]</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7240,15 +7886,18 @@
         </is>
       </c>
       <c r="I162" t="n">
+        <v>1.179932613301709</v>
+      </c>
+      <c r="J162" t="n">
         <v>1.530234894175536e-06</v>
       </c>
-      <c r="J162" t="n">
+      <c r="K162" t="n">
         <v>0.2091357947613</v>
       </c>
-      <c r="K162" t="b">
-        <v>0</v>
-      </c>
       <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7273,7 +7922,8 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.71887, 0.975  , 0.78672]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.71887 0.975   0.78672]]</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7282,15 +7932,18 @@
         </is>
       </c>
       <c r="I163" t="n">
+        <v>1.401488648273685</v>
+      </c>
+      <c r="J163" t="n">
         <v>4.043732256860246e-06</v>
       </c>
-      <c r="J163" t="n">
+      <c r="K163" t="n">
         <v>0.5021063473894</v>
       </c>
-      <c r="K163" t="b">
-        <v>0</v>
-      </c>
       <c r="L163" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7315,7 +7968,8 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.63945, 0.975  , 0.51401]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.63945 0.975   0.51401]]</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7324,15 +7978,18 @@
         </is>
       </c>
       <c r="I164" t="n">
+        <v>1.232551233085262</v>
+      </c>
+      <c r="J164" t="n">
         <v>6.110904576964582e-05</v>
       </c>
-      <c r="J164" t="n">
+      <c r="K164" t="n">
         <v>0.2854492755504</v>
       </c>
-      <c r="K164" t="b">
-        <v>0</v>
-      </c>
       <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7357,7 +8014,8 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.22719, 0.07805, 0.18936]), TrackedArray([0.75438, 0.70673, 0.5953 ]))</t>
+          <t>[[0.22719 0.07805 0.18936]
+ [0.75438 0.70673 0.5953 ]]</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7366,15 +8024,18 @@
         </is>
       </c>
       <c r="I165" t="n">
+        <v>0.9153988025004404</v>
+      </c>
+      <c r="J165" t="n">
         <v>0.02221952502760313</v>
       </c>
-      <c r="J165" t="n">
+      <c r="K165" t="n">
         <v>0.1345423657043896</v>
       </c>
-      <c r="K165" t="b">
-        <v>0</v>
-      </c>
       <c r="L165" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7399,7 +8060,8 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.30229, 0.04558, 0.25926]), TrackedArray([0.6731 , 0.61515, 0.50943]))</t>
+          <t>[[0.30229 0.04558 0.25926]
+ [0.6731  0.61515 0.50943]]</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7408,15 +8070,18 @@
         </is>
       </c>
       <c r="I166" t="n">
+        <v>0.7242293385310278</v>
+      </c>
+      <c r="J166" t="n">
         <v>0.01770711137264885</v>
       </c>
-      <c r="J166" t="n">
+      <c r="K166" t="n">
         <v>0.05283930541306872</v>
       </c>
-      <c r="K166" t="b">
-        <v>0</v>
-      </c>
       <c r="L166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7441,7 +8106,8 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.22674, 0.05685, 0.27614]), TrackedArray([0.71682, 0.74959, 0.62392]))</t>
+          <t>[[0.22674 0.05685 0.27614]
+ [0.71682 0.74959 0.62392]]</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7450,15 +8116,18 @@
         </is>
       </c>
       <c r="I167" t="n">
+        <v>0.9170685199776297</v>
+      </c>
+      <c r="J167" t="n">
         <v>0.000529117665447853</v>
       </c>
-      <c r="J167" t="n">
+      <c r="K167" t="n">
         <v>0.1180692170551223</v>
       </c>
-      <c r="K167" t="b">
-        <v>0</v>
-      </c>
       <c r="L167" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7483,7 +8152,8 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.08813, 0.10002, 0.50198]), TrackedArray([0.65888, 0.91122, 0.82117]))</t>
+          <t>[[0.08813 0.10002 0.50198]
+ [0.65888 0.91122 0.82117]]</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7492,15 +8162,18 @@
         </is>
       </c>
       <c r="I168" t="n">
+        <v>1.041958260379584</v>
+      </c>
+      <c r="J168" t="n">
         <v>0.0005776321453976982</v>
       </c>
-      <c r="J168" t="n">
+      <c r="K168" t="n">
         <v>0.1477825613933806</v>
       </c>
-      <c r="K168" t="b">
-        <v>0</v>
-      </c>
       <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7525,7 +8198,8 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.28297, 0.06398, 0.33871]), TrackedArray([0.81271, 0.77804, 0.69657]))</t>
+          <t>[[0.28297 0.06398 0.33871]
+ [0.81271 0.77804 0.69657]]</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7534,15 +8208,18 @@
         </is>
       </c>
       <c r="I169" t="n">
+        <v>0.958421073282949</v>
+      </c>
+      <c r="J169" t="n">
         <v>0.002553376036097653</v>
       </c>
-      <c r="J169" t="n">
+      <c r="K169" t="n">
         <v>0.1353662284264502</v>
       </c>
-      <c r="K169" t="b">
-        <v>0</v>
-      </c>
       <c r="L169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7567,7 +8244,8 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.77845, 0.7886 , 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.77845 0.7886  0.975  ]]</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7576,15 +8254,18 @@
         </is>
       </c>
       <c r="I170" t="n">
+        <v>1.43292478180573</v>
+      </c>
+      <c r="J170" t="n">
         <v>0.00116446165667279</v>
       </c>
-      <c r="J170" t="n">
+      <c r="K170" t="n">
         <v>0.5465683954868</v>
       </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
       <c r="L170" t="b">
+        <v>1</v>
+      </c>
+      <c r="M170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7609,7 +8290,8 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.20617, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.20617 0.975  ]]</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7618,15 +8300,18 @@
         </is>
       </c>
       <c r="I171" t="n">
+        <v>1.355663147282539</v>
+      </c>
+      <c r="J171" t="n">
         <v>1.370851566399452e-05</v>
       </c>
-      <c r="J171" t="n">
+      <c r="K171" t="n">
         <v>0.163505925</v>
       </c>
-      <c r="K171" t="b">
-        <v>0</v>
-      </c>
       <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7651,7 +8336,8 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.65003, 0.975  , 0.66553]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.65003 0.975   0.66553]]</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7660,15 +8346,18 @@
         </is>
       </c>
       <c r="I172" t="n">
+        <v>1.305157974587368</v>
+      </c>
+      <c r="J172" t="n">
         <v>1.385094693917152e-06</v>
       </c>
-      <c r="J172" t="n">
+      <c r="K172" t="n">
         <v>0.3803311612695</v>
       </c>
-      <c r="K172" t="b">
-        <v>0</v>
-      </c>
       <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7693,7 +8382,8 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.54843, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.54843 0.975  ]]</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7702,15 +8392,18 @@
         </is>
       </c>
       <c r="I173" t="n">
+        <v>1.441866486502825</v>
+      </c>
+      <c r="J173" t="n">
         <v>3.97865212524839e-06</v>
       </c>
-      <c r="J173" t="n">
+      <c r="K173" t="n">
         <v>0.4723955749999999</v>
       </c>
-      <c r="K173" t="b">
-        <v>0</v>
-      </c>
       <c r="L173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7735,7 +8428,8 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.42795, 0.74551]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.42795 0.74551]]</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7744,15 +8438,18 @@
         </is>
       </c>
       <c r="I174" t="n">
+        <v>1.258569343594941</v>
+      </c>
+      <c r="J174" t="n">
         <v>5.21951864195198e-05</v>
       </c>
-      <c r="J174" t="n">
+      <c r="K174" t="n">
         <v>0.2758108135843</v>
       </c>
-      <c r="K174" t="b">
-        <v>0</v>
-      </c>
       <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7777,7 +8474,8 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.86967, 0.94405]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.86967 0.94405]]</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7786,15 +8484,18 @@
         </is>
       </c>
       <c r="I175" t="n">
+        <v>1.568633615103604</v>
+      </c>
+      <c r="J175" t="n">
         <v>0.003825219124087519</v>
       </c>
-      <c r="J175" t="n">
+      <c r="K175" t="n">
         <v>0.7374751118261998</v>
       </c>
-      <c r="K175" t="b">
-        <v>0</v>
-      </c>
       <c r="L175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7819,7 +8520,8 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70378, 0.975  , 0.6785 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.70378 0.975   0.6785 ]]</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7828,15 +8530,18 @@
         </is>
       </c>
       <c r="I176" t="n">
+        <v>1.338023092044752</v>
+      </c>
+      <c r="J176" t="n">
         <v>0.0005318998183657489</v>
       </c>
-      <c r="J176" t="n">
+      <c r="K176" t="n">
         <v>0.4214042623551</v>
       </c>
-      <c r="K176" t="b">
-        <v>0</v>
-      </c>
       <c r="L176" t="b">
+        <v>0</v>
+      </c>
+      <c r="M176" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7861,7 +8566,8 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.79938, 0.975  , 0.75603]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.79938 0.975   0.75603]]</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7870,15 +8576,18 @@
         </is>
       </c>
       <c r="I177" t="n">
+        <v>1.427083181839797</v>
+      </c>
+      <c r="J177" t="n">
         <v>0.0008674858295832715</v>
       </c>
-      <c r="J177" t="n">
+      <c r="K177" t="n">
         <v>0.5377887483226499</v>
       </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
       <c r="L177" t="b">
+        <v>1</v>
+      </c>
+      <c r="M177" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7903,7 +8612,8 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64481, 0.59293, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.64481 0.59293 0.975  ]]</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7912,15 +8622,18 @@
         </is>
       </c>
       <c r="I178" t="n">
+        <v>1.268549202659873</v>
+      </c>
+      <c r="J178" t="n">
         <v>0.0007074850663470644</v>
       </c>
-      <c r="J178" t="n">
+      <c r="K178" t="n">
         <v>0.334412281809</v>
       </c>
-      <c r="K178" t="b">
-        <v>0</v>
-      </c>
       <c r="L178" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7945,7 +8658,8 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.22146, 0.70817]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.22146 0.70817]]</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7954,15 +8668,18 @@
         </is>
       </c>
       <c r="I179" t="n">
+        <v>1.186516203335631</v>
+      </c>
+      <c r="J179" t="n">
         <v>0.0270845865303225</v>
       </c>
-      <c r="J179" t="n">
+      <c r="K179" t="n">
         <v>0.12750341215795</v>
       </c>
-      <c r="K179" t="b">
-        <v>0</v>
-      </c>
       <c r="L179" t="b">
+        <v>0</v>
+      </c>
+      <c r="M179" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7987,7 +8704,8 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.44198, 0.94572]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.44198 0.94572]]</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7996,15 +8714,18 @@
         </is>
       </c>
       <c r="I180" t="n">
+        <v>1.387119430403165</v>
+      </c>
+      <c r="J180" t="n">
         <v>0.4426122174716408</v>
       </c>
-      <c r="J180" t="n">
+      <c r="K180" t="n">
         <v>0.36472700513595</v>
       </c>
-      <c r="K180" t="b">
-        <v>0</v>
-      </c>
       <c r="L180" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8029,7 +8750,8 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.70357, 0.45049]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.70357 0.45049]]</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -8038,15 +8760,18 @@
         </is>
       </c>
       <c r="I181" t="n">
+        <v>1.242577760609774</v>
+      </c>
+      <c r="J181" t="n">
         <v>0.3557567608741596</v>
       </c>
-      <c r="J181" t="n">
+      <c r="K181" t="n">
         <v>0.2742882714080499</v>
       </c>
-      <c r="K181" t="b">
-        <v>0</v>
-      </c>
       <c r="L181" t="b">
+        <v>0</v>
+      </c>
+      <c r="M181" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8071,7 +8796,8 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.12811, 0.51158]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.12811 0.51158]]</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8080,15 +8806,18 @@
         </is>
       </c>
       <c r="I182" t="n">
+        <v>1.072332333898871</v>
+      </c>
+      <c r="J182" t="n">
         <v>0.01313352881167657</v>
       </c>
-      <c r="J182" t="n">
+      <c r="K182" t="n">
         <v>0.04766319038249999</v>
       </c>
-      <c r="K182" t="b">
-        <v>0</v>
-      </c>
       <c r="L182" t="b">
+        <v>0</v>
+      </c>
+      <c r="M182" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8113,7 +8842,8 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.95964, 0.89686, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.95964 0.89686 0.975  ]]</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -8122,15 +8852,18 @@
         </is>
       </c>
       <c r="I183" t="n">
+        <v>1.592543649839464</v>
+      </c>
+      <c r="J183" t="n">
         <v>0.0005768296215497732</v>
       </c>
-      <c r="J183" t="n">
+      <c r="K183" t="n">
         <v>0.774133244696</v>
       </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
       <c r="L183" t="b">
+        <v>1</v>
+      </c>
+      <c r="M183" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8155,7 +8888,8 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67754, 0.975  , 0.67754]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.67754 0.975   0.67754]]</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -8164,15 +8898,18 @@
         </is>
       </c>
       <c r="I184" t="n">
+        <v>1.324428813824284</v>
+      </c>
+      <c r="J184" t="n">
         <v>0.0001625845650226333</v>
       </c>
-      <c r="J184" t="n">
+      <c r="K184" t="n">
         <v>0.4045155493718</v>
       </c>
-      <c r="K184" t="b">
-        <v>0</v>
-      </c>
       <c r="L184" t="b">
+        <v>0</v>
+      </c>
+      <c r="M184" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8197,7 +8934,8 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67501, 0.975  , 0.67501]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.67501 0.975   0.67501]]</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8206,15 +8944,18 @@
         </is>
       </c>
       <c r="I185" t="n">
+        <v>1.321937290531589</v>
+      </c>
+      <c r="J185" t="n">
         <v>7.59752233853203e-05</v>
       </c>
-      <c r="J185" t="n">
+      <c r="K185" t="n">
         <v>0.4013836450465499</v>
       </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
       <c r="L185" t="b">
+        <v>1</v>
+      </c>
+      <c r="M185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8239,7 +8980,8 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.8853, 0.975 , 0.5708]))</t>
+          <t>[[0.025  0.025  0.025 ]
+ [0.8853 0.975  0.5708]]</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8248,15 +8990,18 @@
         </is>
       </c>
       <c r="I186" t="n">
+        <v>1.393023127530193</v>
+      </c>
+      <c r="J186" t="n">
         <v>0.0001076143860255203</v>
       </c>
-      <c r="J186" t="n">
+      <c r="K186" t="n">
         <v>0.44607162209075</v>
       </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
       <c r="L186" t="b">
+        <v>1</v>
+      </c>
+      <c r="M186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8281,7 +9026,8 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.73697, 0.77026]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.73697 0.77026]]</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8290,15 +9036,18 @@
         </is>
       </c>
       <c r="I187" t="n">
+        <v>1.401717149502709</v>
+      </c>
+      <c r="J187" t="n">
         <v>1.821043528043247e-06</v>
       </c>
-      <c r="J187" t="n">
+      <c r="K187" t="n">
         <v>0.50407117646765</v>
       </c>
-      <c r="K187" t="b">
-        <v>0</v>
-      </c>
       <c r="L187" t="b">
+        <v>0</v>
+      </c>
+      <c r="M187" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8323,7 +9072,8 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.65601, 0.92938]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.65601 0.92938]]</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8332,15 +9082,18 @@
         </is>
       </c>
       <c r="I188" t="n">
+        <v>1.455536333060085</v>
+      </c>
+      <c r="J188" t="n">
         <v>0.005287009581156718</v>
       </c>
-      <c r="J188" t="n">
+      <c r="K188" t="n">
         <v>0.5421435584800499</v>
       </c>
-      <c r="K188" t="b">
-        <v>0</v>
-      </c>
       <c r="L188" t="b">
+        <v>0</v>
+      </c>
+      <c r="M188" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8365,7 +9118,8 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.3899 , 0.68268]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.3899  0.68268]]</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8374,15 +9128,18 @@
         </is>
       </c>
       <c r="I189" t="n">
+        <v>1.211693436334868</v>
+      </c>
+      <c r="J189" t="n">
         <v>5.74634563740896e-08</v>
       </c>
-      <c r="J189" t="n">
+      <c r="K189" t="n">
         <v>0.2279900718197999</v>
       </c>
-      <c r="K189" t="b">
-        <v>0</v>
-      </c>
       <c r="L189" t="b">
+        <v>0</v>
+      </c>
+      <c r="M189" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8407,7 +9164,8 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.69504, 0.67724]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.69504 0.67724]]</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8416,15 +9174,18 @@
         </is>
       </c>
       <c r="I190" t="n">
+        <v>1.332994124131836</v>
+      </c>
+      <c r="J190" t="n">
         <v>1.077802227048823e-06</v>
       </c>
-      <c r="J190" t="n">
+      <c r="K190" t="n">
         <v>0.41517676746315</v>
       </c>
-      <c r="K190" t="b">
-        <v>0</v>
-      </c>
       <c r="L190" t="b">
+        <v>0</v>
+      </c>
+      <c r="M190" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8449,7 +9210,8 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.80951, 0.62492]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.80951 0.62492]]</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8458,15 +9220,18 @@
         </is>
       </c>
       <c r="I191" t="n">
+        <v>1.370350199642777</v>
+      </c>
+      <c r="J191" t="n">
         <v>2.593299697940728e-05</v>
       </c>
-      <c r="J191" t="n">
+      <c r="K191" t="n">
         <v>0.4471125239474999</v>
       </c>
-      <c r="K191" t="b">
-        <v>0</v>
-      </c>
       <c r="L191" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8491,7 +9256,8 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.88927, 0.71435]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.88927 0.71435]]</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8500,15 +9266,18 @@
         </is>
       </c>
       <c r="I192" t="n">
+        <v>1.457622721317145</v>
+      </c>
+      <c r="J192" t="n">
         <v>0.0001716282019401185</v>
       </c>
-      <c r="J192" t="n">
+      <c r="K192" t="n">
         <v>0.5659933238063999</v>
       </c>
-      <c r="K192" t="b">
-        <v>0</v>
-      </c>
       <c r="L192" t="b">
+        <v>0</v>
+      </c>
+      <c r="M192" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8533,7 +9302,8 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.60961, 0.975  , 0.52201]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.60961 0.975   0.52201]]</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8542,15 +9312,18 @@
         </is>
       </c>
       <c r="I193" t="n">
+        <v>1.221183570079863</v>
+      </c>
+      <c r="J193" t="n">
         <v>0.000258848194620239</v>
       </c>
-      <c r="J193" t="n">
+      <c r="K193" t="n">
         <v>0.2760294710088</v>
       </c>
-      <c r="K193" t="b">
-        <v>0</v>
-      </c>
       <c r="L193" t="b">
+        <v>0</v>
+      </c>
+      <c r="M193" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8575,7 +9348,8 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.9522 , 0.975  , 0.92067]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.9522  0.975   0.92067]]</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8584,15 +9358,18 @@
         </is>
       </c>
       <c r="I194" t="n">
+        <v>1.601384923037869</v>
+      </c>
+      <c r="J194" t="n">
         <v>0.02952676835366942</v>
       </c>
-      <c r="J194" t="n">
+      <c r="K194" t="n">
         <v>0.7889463070987</v>
       </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
       <c r="L194" t="b">
+        <v>1</v>
+      </c>
+      <c r="M194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8617,7 +9394,8 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.79759, 0.975  , 0.79759]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.79759 0.975   0.79759]]</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8626,15 +9404,18 @@
         </is>
       </c>
       <c r="I195" t="n">
+        <v>1.447854048285945</v>
+      </c>
+      <c r="J195" t="n">
         <v>0.00597425611556052</v>
       </c>
-      <c r="J195" t="n">
+      <c r="K195" t="n">
         <v>0.56704613894055</v>
       </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
       <c r="L195" t="b">
+        <v>1</v>
+      </c>
+      <c r="M195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8659,7 +9440,8 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.49187, 0.76671, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.49187 0.76671 0.975  ]]</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8668,15 +9450,18 @@
         </is>
       </c>
       <c r="I196" t="n">
+        <v>1.292516797561254</v>
+      </c>
+      <c r="J196" t="n">
         <v>2.339344859553409e-06</v>
       </c>
-      <c r="J196" t="n">
+      <c r="K196" t="n">
         <v>0.3289688236004499</v>
       </c>
-      <c r="K196" t="b">
-        <v>0</v>
-      </c>
       <c r="L196" t="b">
+        <v>0</v>
+      </c>
+      <c r="M196" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8701,7 +9486,8 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.93492, 0.95623]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.93492 0.95623]]</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8710,15 +9496,18 @@
         </is>
       </c>
       <c r="I197" t="n">
+        <v>1.611724750479746</v>
+      </c>
+      <c r="J197" t="n">
         <v>0.0003385274669732913</v>
       </c>
-      <c r="J197" t="n">
+      <c r="K197" t="n">
         <v>0.8049836529864999</v>
       </c>
-      <c r="K197" t="b">
-        <v>0</v>
-      </c>
       <c r="L197" t="b">
+        <v>0</v>
+      </c>
+      <c r="M197" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8743,7 +9532,8 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42761, 0.975  , 0.59325]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.42761 0.975   0.59325]]</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8752,15 +9542,18 @@
         </is>
       </c>
       <c r="I198" t="n">
+        <v>1.177922777341961</v>
+      </c>
+      <c r="J198" t="n">
         <v>0.0002470483090971274</v>
       </c>
-      <c r="J198" t="n">
+      <c r="K198" t="n">
         <v>0.2173434360375</v>
       </c>
-      <c r="K198" t="b">
-        <v>0</v>
-      </c>
       <c r="L198" t="b">
+        <v>0</v>
+      </c>
+      <c r="M198" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8785,7 +9578,8 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.58332, 0.84655, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.58332 0.84655 0.975  ]]</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8794,15 +9588,18 @@
         </is>
       </c>
       <c r="I199" t="n">
+        <v>1.374469430393052</v>
+      </c>
+      <c r="J199" t="n">
         <v>2.914375723485236e-17</v>
       </c>
-      <c r="J199" t="n">
+      <c r="K199" t="n">
         <v>0.4357544367391</v>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
       <c r="L199" t="b">
+        <v>1</v>
+      </c>
+      <c r="M199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8827,7 +9624,8 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.69906, 0.975  , 0.15606]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.69906 0.975   0.15606]]</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8836,15 +9634,18 @@
         </is>
       </c>
       <c r="I200" t="n">
+        <v>1.172191349027965</v>
+      </c>
+      <c r="J200" t="n">
         <v>0.02392678107992483</v>
       </c>
-      <c r="J200" t="n">
+      <c r="K200" t="n">
         <v>0.083922626992</v>
       </c>
-      <c r="K200" t="b">
-        <v>0</v>
-      </c>
       <c r="L200" t="b">
+        <v>0</v>
+      </c>
+      <c r="M200" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8869,7 +9670,8 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.50208, 0.975  , 0.83687]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.50208 0.975   0.83687]]</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8878,15 +9680,18 @@
         </is>
       </c>
       <c r="I201" t="n">
+        <v>1.337621205580264</v>
+      </c>
+      <c r="J201" t="n">
         <v>0.001556176566971516</v>
       </c>
-      <c r="J201" t="n">
+      <c r="K201" t="n">
         <v>0.36795691912105</v>
       </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
       <c r="L201" t="b">
+        <v>1</v>
+      </c>
+      <c r="M201" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8911,7 +9716,8 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83864, 0.975  , 0.45899]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83864 0.975   0.45899]]</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8920,15 +9726,18 @@
         </is>
       </c>
       <c r="I202" t="n">
+        <v>1.323951757680392</v>
+      </c>
+      <c r="J202" t="n">
         <v>0.1455394554793153</v>
       </c>
-      <c r="J202" t="n">
+      <c r="K202" t="n">
         <v>0.3354520743954</v>
       </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
       <c r="L202" t="b">
+        <v>1</v>
+      </c>
+      <c r="M202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8953,7 +9762,8 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.34539, 0.975  , 0.84361]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.34539 0.975   0.84361]]</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8962,15 +9772,18 @@
         </is>
       </c>
       <c r="I203" t="n">
+        <v>1.294323791440148</v>
+      </c>
+      <c r="J203" t="n">
         <v>1.595780916046108e-05</v>
       </c>
-      <c r="J203" t="n">
+      <c r="K203" t="n">
         <v>0.2491597883831999</v>
       </c>
-      <c r="K203" t="b">
-        <v>0</v>
-      </c>
       <c r="L203" t="b">
+        <v>0</v>
+      </c>
+      <c r="M203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8995,7 +9808,8 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75998, 0.90819, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75998 0.90819 0.975  ]]</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -9004,15 +9818,18 @@
         </is>
       </c>
       <c r="I204" t="n">
+        <v>1.49088096652818</v>
+      </c>
+      <c r="J204" t="n">
         <v>0.06977622716189189</v>
       </c>
-      <c r="J204" t="n">
+      <c r="K204" t="n">
         <v>0.6166739930119999</v>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
       <c r="L204" t="b">
+        <v>1</v>
+      </c>
+      <c r="M204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9037,7 +9854,8 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21256, 0.72068, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.21256 0.72068 0.975  ]]</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -9046,15 +9864,18 @@
         </is>
       </c>
       <c r="I205" t="n">
+        <v>1.192327702887088</v>
+      </c>
+      <c r="J205" t="n">
         <v>0.0003560311298754342</v>
       </c>
-      <c r="J205" t="n">
+      <c r="K205" t="n">
         <v>0.1239595846008</v>
       </c>
-      <c r="K205" t="b">
-        <v>0</v>
-      </c>
       <c r="L205" t="b">
+        <v>0</v>
+      </c>
+      <c r="M205" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9079,7 +9900,8 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.63777, 0.55181]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.63777 0.55181]]</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -9088,15 +9910,18 @@
         </is>
       </c>
       <c r="I206" t="n">
+        <v>1.247202366003208</v>
+      </c>
+      <c r="J206" t="n">
         <v>1.322216065421235e-05</v>
       </c>
-      <c r="J206" t="n">
+      <c r="K206" t="n">
         <v>0.3066715312519999</v>
       </c>
-      <c r="K206" t="b">
-        <v>0</v>
-      </c>
       <c r="L206" t="b">
+        <v>0</v>
+      </c>
+      <c r="M206" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9121,7 +9946,8 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84401, 0.975  , 0.45893]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.84401 0.975   0.45893]]</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -9130,15 +9956,18 @@
         </is>
       </c>
       <c r="I207" t="n">
+        <v>1.327246228417696</v>
+      </c>
+      <c r="J207" t="n">
         <v>0.07156237214333767</v>
       </c>
-      <c r="J207" t="n">
+      <c r="K207" t="n">
         <v>0.337626976131</v>
       </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
       <c r="L207" t="b">
+        <v>1</v>
+      </c>
+      <c r="M207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9163,7 +9992,8 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75993, 0.90811, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75993 0.90811 0.975  ]]</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -9172,15 +10002,18 @@
         </is>
       </c>
       <c r="I208" t="n">
+        <v>1.490804291311572</v>
+      </c>
+      <c r="J208" t="n">
         <v>0.004817828152591141</v>
       </c>
-      <c r="J208" t="n">
+      <c r="K208" t="n">
         <v>0.6165689174602</v>
       </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
       <c r="L208" t="b">
+        <v>1</v>
+      </c>
+      <c r="M208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9205,7 +10038,8 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41837, 0.975  , 0.09773]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.41837 0.975   0.09773]]</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -9214,15 +10048,18 @@
         </is>
       </c>
       <c r="I209" t="n">
+        <v>1.030791411856293</v>
+      </c>
+      <c r="J209" t="n">
         <v>0.006127806391694524</v>
       </c>
-      <c r="J209" t="n">
+      <c r="K209" t="n">
         <v>0.027180761887565</v>
       </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
       <c r="L209" t="b">
+        <v>1</v>
+      </c>
+      <c r="M209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9247,7 +10084,8 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.04405, 0.30701, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.04405 0.30701 0.975  ]]</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9256,15 +10094,18 @@
         </is>
       </c>
       <c r="I210" t="n">
+        <v>0.991157108167802</v>
+      </c>
+      <c r="J210" t="n">
         <v>0.0005984744284004732</v>
       </c>
-      <c r="J210" t="n">
+      <c r="K210" t="n">
         <v>0.005102765082699999</v>
       </c>
-      <c r="K210" t="b">
-        <v>0</v>
-      </c>
       <c r="L210" t="b">
+        <v>0</v>
+      </c>
+      <c r="M210" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9289,7 +10130,8 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.12358, 0.12358, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.12358 0.12358 0.975  ]]</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -9298,15 +10140,18 @@
         </is>
       </c>
       <c r="I211" t="n">
+        <v>0.9601745904615473</v>
+      </c>
+      <c r="J211" t="n">
         <v>0.0002847790346095218</v>
       </c>
-      <c r="J211" t="n">
+      <c r="K211" t="n">
         <v>0.0092317409798</v>
       </c>
-      <c r="K211" t="b">
-        <v>0</v>
-      </c>
       <c r="L211" t="b">
+        <v>0</v>
+      </c>
+      <c r="M211" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9331,7 +10176,8 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05076, 0.12084, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.05076 0.12084 0.975  ]]</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -9340,15 +10186,18 @@
         </is>
       </c>
       <c r="I212" t="n">
+        <v>0.9551696603394655</v>
+      </c>
+      <c r="J212" t="n">
         <v>0.0002235735918136678</v>
       </c>
-      <c r="J212" t="n">
+      <c r="K212" t="n">
         <v>0.002345430056895</v>
       </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
       <c r="L212" t="b">
+        <v>1</v>
+      </c>
+      <c r="M212" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9373,7 +10222,8 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05493, 0.08613, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.05493 0.08613 0.975  ]]</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9382,15 +10232,18 @@
         </is>
       </c>
       <c r="I213" t="n">
+        <v>0.952435129277186</v>
+      </c>
+      <c r="J213" t="n">
         <v>0.006128970192427374</v>
       </c>
-      <c r="J213" t="n">
+      <c r="K213" t="n">
         <v>0.001738359126875</v>
       </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
       <c r="L213" t="b">
+        <v>1</v>
+      </c>
+      <c r="M213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9415,7 +10268,8 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46607, 0.975  , 0.09461]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.46607 0.975   0.09461]]</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -9424,15 +10278,18 @@
         </is>
       </c>
       <c r="I214" t="n">
+        <v>1.049708040060302</v>
+      </c>
+      <c r="J214" t="n">
         <v>1.234126847698507e-05</v>
       </c>
-      <c r="J214" t="n">
+      <c r="K214" t="n">
         <v>0.02916633158573999</v>
       </c>
-      <c r="K214" t="b">
-        <v>0</v>
-      </c>
       <c r="L214" t="b">
+        <v>0</v>
+      </c>
+      <c r="M214" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9457,7 +10314,8 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.28441, 0.975  , 0.08598]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.28441 0.975   0.08598]]</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -9466,15 +10324,18 @@
         </is>
       </c>
       <c r="I215" t="n">
+        <v>0.9866663496233364</v>
+      </c>
+      <c r="J215" t="n">
         <v>0.0009535577663811821</v>
       </c>
-      <c r="J215" t="n">
+      <c r="K215" t="n">
         <v>0.01502658194752</v>
       </c>
-      <c r="K215" t="b">
-        <v>0</v>
-      </c>
       <c r="L215" t="b">
+        <v>0</v>
+      </c>
+      <c r="M215" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9499,7 +10360,8 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26982, 0.975  , 0.06556]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.26982 0.975   0.06556]]</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -9508,15 +10370,18 @@
         </is>
       </c>
       <c r="I216" t="n">
+        <v>0.9818760525375338</v>
+      </c>
+      <c r="J216" t="n">
         <v>0.002268465316220351</v>
       </c>
-      <c r="J216" t="n">
+      <c r="K216" t="n">
         <v>0.009433590992994999</v>
       </c>
-      <c r="K216" t="b">
-        <v>0</v>
-      </c>
       <c r="L216" t="b">
+        <v>0</v>
+      </c>
+      <c r="M216" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9541,7 +10406,8 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.44427, 0.975  , 0.06419]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.44427 0.975   0.06419]]</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -9550,15 +10416,18 @@
         </is>
       </c>
       <c r="I217" t="n">
+        <v>1.039146547832884</v>
+      </c>
+      <c r="J217" t="n">
         <v>0.00114975061993454</v>
       </c>
-      <c r="J217" t="n">
+      <c r="K217" t="n">
         <v>0.0156089468078</v>
       </c>
-      <c r="K217" t="b">
-        <v>0</v>
-      </c>
       <c r="L217" t="b">
+        <v>0</v>
+      </c>
+      <c r="M217" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9583,7 +10452,8 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22979, 0.07643, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.22979 0.07643 0.975  ]]</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -9592,15 +10462,18 @@
         </is>
       </c>
       <c r="I218" t="n">
+        <v>0.9731828923094004</v>
+      </c>
+      <c r="J218" t="n">
         <v>3.688702483669353e-10</v>
       </c>
-      <c r="J218" t="n">
+      <c r="K218" t="n">
         <v>0.01000608285012</v>
       </c>
-      <c r="K218" t="b">
-        <v>0</v>
-      </c>
       <c r="L218" t="b">
+        <v>0</v>
+      </c>
+      <c r="M218" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9625,7 +10498,8 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22104, 0.07889, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.22104 0.07889 0.975  ]]</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -9634,15 +10508,18 @@
         </is>
       </c>
       <c r="I219" t="n">
+        <v>0.9715126162924544</v>
+      </c>
+      <c r="J219" t="n">
         <v>0.002791498229158006</v>
       </c>
-      <c r="J219" t="n">
+      <c r="K219" t="n">
         <v>0.010036128300715</v>
       </c>
-      <c r="K219" t="b">
-        <v>0</v>
-      </c>
       <c r="L219" t="b">
+        <v>0</v>
+      </c>
+      <c r="M219" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9667,7 +10544,8 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22872, 0.0556 , 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.22872 0.0556  0.975  ]]</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9676,15 +10554,18 @@
         </is>
       </c>
       <c r="I220" t="n">
+        <v>0.9720793767401971</v>
+      </c>
+      <c r="J220" t="n">
         <v>1.323730764882064e-06</v>
       </c>
-      <c r="J220" t="n">
+      <c r="K220" t="n">
         <v>0.0059225081146</v>
       </c>
-      <c r="K220" t="b">
-        <v>0</v>
-      </c>
       <c r="L220" t="b">
+        <v>0</v>
+      </c>
+      <c r="M220" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9709,7 +10590,8 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.0565 , 0.20901]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.0565  0.20901]]</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9718,15 +10600,18 @@
         </is>
       </c>
       <c r="I221" t="n">
+        <v>0.9681689904474322</v>
+      </c>
+      <c r="J221" t="n">
         <v>0.0001123195238224734</v>
       </c>
-      <c r="J221" t="n">
+      <c r="K221" t="n">
         <v>0.0055064394</v>
       </c>
-      <c r="K221" t="b">
-        <v>0</v>
-      </c>
       <c r="L221" t="b">
+        <v>0</v>
+      </c>
+      <c r="M221" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9751,7 +10636,8 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72778, 0.975  , 0.72778]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.72778 0.975   0.72778]]</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -9760,15 +10646,18 @@
         </is>
       </c>
       <c r="I222" t="n">
+        <v>1.374879570932669</v>
+      </c>
+      <c r="J222" t="n">
         <v>0.00812702684995144</v>
       </c>
-      <c r="J222" t="n">
+      <c r="K222" t="n">
         <v>0.4692020714198</v>
       </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
       <c r="L222" t="b">
+        <v>1</v>
+      </c>
+      <c r="M222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9793,7 +10682,8 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46936, 0.975  , 0.54502]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.46936 0.975   0.54502]]</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9802,15 +10692,18 @@
         </is>
       </c>
       <c r="I223" t="n">
+        <v>1.170631239426404</v>
+      </c>
+      <c r="J223" t="n">
         <v>1.358508697092423e-06</v>
       </c>
-      <c r="J223" t="n">
+      <c r="K223" t="n">
         <v>0.2195227768589999</v>
       </c>
-      <c r="K223" t="b">
-        <v>0</v>
-      </c>
       <c r="L223" t="b">
+        <v>0</v>
+      </c>
+      <c r="M223" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9835,7 +10728,8 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.68578, 0.975  , 0.69614]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.68578 0.975   0.69614]]</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9844,15 +10738,18 @@
         </is>
       </c>
       <c r="I224" t="n">
+        <v>1.337741057611674</v>
+      </c>
+      <c r="J224" t="n">
         <v>0.004247908474894545</v>
       </c>
-      <c r="J224" t="n">
+      <c r="K224" t="n">
         <v>0.4212982889336</v>
       </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
       <c r="L224" t="b">
+        <v>1</v>
+      </c>
+      <c r="M224" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9877,7 +10774,8 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5701 , 0.975  , 0.60681]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.5701  0.975   0.60681]]</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9886,15 +10784,18 @@
         </is>
       </c>
       <c r="I225" t="n">
+        <v>1.240218255118832</v>
+      </c>
+      <c r="J225" t="n">
         <v>0.0001037529325980196</v>
       </c>
-      <c r="J225" t="n">
+      <c r="K225" t="n">
         <v>0.30128957545635</v>
       </c>
-      <c r="K225" t="b">
-        <v>0</v>
-      </c>
       <c r="L225" t="b">
+        <v>0</v>
+      </c>
+      <c r="M225" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9919,7 +10820,8 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70218, 0.975  , 0.66904]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.70218 0.975   0.66904]]</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9928,15 +10830,18 @@
         </is>
       </c>
       <c r="I226" t="n">
+        <v>1.332616591348389</v>
+      </c>
+      <c r="J226" t="n">
         <v>0.01537983826672012</v>
       </c>
-      <c r="J226" t="n">
+      <c r="K226" t="n">
         <v>0.4143275475168</v>
       </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
       <c r="L226" t="b">
+        <v>1</v>
+      </c>
+      <c r="M226" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9961,7 +10866,8 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72976, 0.975  , 0.72976]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.72976 0.975   0.72976]]</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9970,15 +10876,18 @@
         </is>
       </c>
       <c r="I227" t="n">
+        <v>1.376909202993429</v>
+      </c>
+      <c r="J227" t="n">
         <v>0.116866150939756</v>
       </c>
-      <c r="J227" t="n">
+      <c r="K227" t="n">
         <v>0.4718550028118</v>
       </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
       <c r="L227" t="b">
+        <v>1</v>
+      </c>
+      <c r="M227" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10003,7 +10912,8 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.35829, 0.975  , 0.41154]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.35829 0.975   0.41154]]</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -10012,15 +10922,18 @@
         </is>
       </c>
       <c r="I228" t="n">
+        <v>1.078424125539669</v>
+      </c>
+      <c r="J228" t="n">
         <v>4.846774764679632e-07</v>
       </c>
-      <c r="J228" t="n">
+      <c r="K228" t="n">
         <v>0.12238963667975</v>
       </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
       <c r="L228" t="b">
+        <v>1</v>
+      </c>
+      <c r="M228" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10045,7 +10958,8 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.405  , 0.975  , 0.40384]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.405   0.975   0.40384]]</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -10054,15 +10968,18 @@
         </is>
       </c>
       <c r="I229" t="n">
+        <v>1.091062890141535</v>
+      </c>
+      <c r="J229" t="n">
         <v>0.001059873439281649</v>
       </c>
-      <c r="J229" t="n">
+      <c r="K229" t="n">
         <v>0.136760518</v>
       </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
       <c r="L229" t="b">
+        <v>1</v>
+      </c>
+      <c r="M229" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10087,7 +11004,8 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55085, 0.975  , 0.62458]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.55085 0.975   0.62458]]</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -10096,15 +11014,18 @@
         </is>
       </c>
       <c r="I230" t="n">
+        <v>1.240369442887884</v>
+      </c>
+      <c r="J230" t="n">
         <v>0.0004088909541396282</v>
       </c>
-      <c r="J230" t="n">
+      <c r="K230" t="n">
         <v>0.29952589509265</v>
       </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
       <c r="L230" t="b">
+        <v>1</v>
+      </c>
+      <c r="M230" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10129,7 +11050,8 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.24254, 0.975  , 0.22572]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.24254 0.975   0.22572]]</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -10138,15 +11060,18 @@
         </is>
       </c>
       <c r="I231" t="n">
+        <v>0.9950438368675021</v>
+      </c>
+      <c r="J231" t="n">
         <v>0.2568093840536789</v>
       </c>
-      <c r="J231" t="n">
+      <c r="K231" t="n">
         <v>0.04148136539820001</v>
       </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
       <c r="L231" t="b">
+        <v>1</v>
+      </c>
+      <c r="M231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10171,7 +11096,8 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38296, 0.975  , 0.3995 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.38296 0.975   0.3995 ]]</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -10180,15 +11106,18 @@
         </is>
       </c>
       <c r="I232" t="n">
+        <v>1.082072302512637</v>
+      </c>
+      <c r="J232" t="n">
         <v>3.198751202509308e-06</v>
       </c>
-      <c r="J232" t="n">
+      <c r="K232" t="n">
         <v>0.1273507914384</v>
       </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
       <c r="L232" t="b">
+        <v>1</v>
+      </c>
+      <c r="M232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10213,7 +11142,8 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.53825, 0.975  , 0.55673]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.53825 0.975   0.55673]]</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -10222,15 +11152,18 @@
         </is>
       </c>
       <c r="I233" t="n">
+        <v>1.203606081237961</v>
+      </c>
+      <c r="J233" t="n">
         <v>0.001809178132954829</v>
       </c>
-      <c r="J233" t="n">
+      <c r="K233" t="n">
         <v>0.2592673744301999</v>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
       <c r="L233" t="b">
+        <v>1</v>
+      </c>
+      <c r="M233" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10255,7 +11188,8 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46015, 0.975  , 0.47582]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.46015 0.975   0.47582]]</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -10264,15 +11198,18 @@
         </is>
       </c>
       <c r="I234" t="n">
+        <v>1.138024389342337</v>
+      </c>
+      <c r="J234" t="n">
         <v>0.001487269066335444</v>
       </c>
-      <c r="J234" t="n">
+      <c r="K234" t="n">
         <v>0.18636813187305</v>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
       <c r="L234" t="b">
+        <v>1</v>
+      </c>
+      <c r="M234" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10297,7 +11234,8 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.61843, 0.38125]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.61843 0.38125]]</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -10306,15 +11244,18 @@
         </is>
       </c>
       <c r="I235" t="n">
+        <v>1.175402018451559</v>
+      </c>
+      <c r="J235" t="n">
         <v>0.143892598781574</v>
       </c>
-      <c r="J235" t="n">
+      <c r="K235" t="n">
         <v>0.2008387393843999</v>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
       <c r="L235" t="b">
+        <v>1</v>
+      </c>
+      <c r="M235" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10339,7 +11280,8 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.74465, 0.75526]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.74465 0.75526]]</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -10348,15 +11290,18 @@
         </is>
       </c>
       <c r="I236" t="n">
+        <v>1.397739036617708</v>
+      </c>
+      <c r="J236" t="n">
         <v>0.001253506298299776</v>
       </c>
-      <c r="J236" t="n">
+      <c r="K236" t="n">
         <v>0.4992543045531</v>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
       <c r="L236" t="b">
+        <v>1</v>
+      </c>
+      <c r="M236" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10381,7 +11326,8 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.59618, 0.43685]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.59618 0.43685]]</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -10390,15 +11336,18 @@
         </is>
       </c>
       <c r="I237" t="n">
+        <v>1.182525827862546</v>
+      </c>
+      <c r="J237" t="n">
         <v>0.0007061049399183545</v>
       </c>
-      <c r="J237" t="n">
+      <c r="K237" t="n">
         <v>0.2234783074855499</v>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
       <c r="L237" t="b">
+        <v>1</v>
+      </c>
+      <c r="M237" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10423,7 +11372,8 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.25027, 0.23617]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.25027 0.23617]]</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -10432,15 +11382,18 @@
         </is>
       </c>
       <c r="I238" t="n">
+        <v>0.9989184525220264</v>
+      </c>
+      <c r="J238" t="n">
         <v>0.2068840114275194</v>
       </c>
-      <c r="J238" t="n">
+      <c r="K238" t="n">
         <v>0.0451911105855</v>
       </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
       <c r="L238" t="b">
+        <v>1</v>
+      </c>
+      <c r="M238" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10465,7 +11418,8 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40595, 0.975  , 0.40595]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.40595 0.975   0.40595]]</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -10474,15 +11428,18 @@
         </is>
       </c>
       <c r="I239" t="n">
+        <v>1.092129721599957</v>
+      </c>
+      <c r="J239" t="n">
         <v>0.06393356854310067</v>
       </c>
-      <c r="J239" t="n">
+      <c r="K239" t="n">
         <v>0.13786748118095</v>
       </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
       <c r="L239" t="b">
+        <v>1</v>
+      </c>
+      <c r="M239" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10507,7 +11464,8 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.84105, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.84105 0.975  ]]</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -10516,15 +11474,18 @@
         </is>
       </c>
       <c r="I240" t="n">
+        <v>1.571921627340244</v>
+      </c>
+      <c r="J240" t="n">
         <v>0.000618761059223623</v>
       </c>
-      <c r="J240" t="n">
+      <c r="K240" t="n">
         <v>0.7364851249999999</v>
       </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
       <c r="L240" t="b">
+        <v>1</v>
+      </c>
+      <c r="M240" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10549,7 +11510,8 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.73251, 0.35051, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.73251 0.35051 0.975  ]]</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -10558,15 +11520,18 @@
         </is>
       </c>
       <c r="I241" t="n">
+        <v>1.2284260829472</v>
+      </c>
+      <c r="J241" t="n">
         <v>0.0008311733008580644</v>
       </c>
-      <c r="J241" t="n">
+      <c r="K241" t="n">
         <v>0.2187877917004</v>
       </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
       <c r="L241" t="b">
+        <v>1</v>
+      </c>
+      <c r="M241" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10591,7 +11556,8 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46091, 0.975  , 0.46112]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.46091 0.975   0.46112]]</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -10600,15 +11566,18 @@
         </is>
       </c>
       <c r="I242" t="n">
+        <v>1.132571490393432</v>
+      </c>
+      <c r="J242" t="n">
         <v>0.00368537026196214</v>
       </c>
-      <c r="J242" t="n">
+      <c r="K242" t="n">
         <v>0.1806036165228</v>
       </c>
-      <c r="K242" t="b">
-        <v>1</v>
-      </c>
       <c r="L242" t="b">
+        <v>1</v>
+      </c>
+      <c r="M242" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10633,7 +11602,8 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.38093, 0.5    ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.38093 0.5    ]]</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -10642,15 +11612,18 @@
         </is>
       </c>
       <c r="I243" t="n">
+        <v>1.120183435573389</v>
+      </c>
+      <c r="J243" t="n">
         <v>0.004808424773004803</v>
       </c>
-      <c r="J243" t="n">
+      <c r="K243" t="n">
         <v>0.1606127350113</v>
       </c>
-      <c r="K243" t="b">
-        <v>1</v>
-      </c>
       <c r="L243" t="b">
+        <v>1</v>
+      </c>
+      <c r="M243" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10675,7 +11648,8 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70357, 0.44378, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.70357 0.44378 0.975  ]]</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -10684,15 +11658,18 @@
         </is>
       </c>
       <c r="I244" t="n">
+        <v>1.240296114999156</v>
+      </c>
+      <c r="J244" t="n">
         <v>0.128452284217476</v>
       </c>
-      <c r="J244" t="n">
+      <c r="K244" t="n">
         <v>0.2699627205685499</v>
       </c>
-      <c r="K244" t="b">
-        <v>0</v>
-      </c>
       <c r="L244" t="b">
+        <v>0</v>
+      </c>
+      <c r="M244" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10717,7 +11694,8 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.5461 , 0.76205]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.5461  0.76205]]</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -10726,15 +11704,18 @@
         </is>
       </c>
       <c r="I245" t="n">
+        <v>1.310452664132513</v>
+      </c>
+      <c r="J245" t="n">
         <v>29344711.68136203</v>
       </c>
-      <c r="J245" t="n">
+      <c r="K245" t="n">
         <v>0.3648737378448</v>
       </c>
-      <c r="K245" t="b">
-        <v>1</v>
-      </c>
       <c r="L245" t="b">
+        <v>1</v>
+      </c>
+      <c r="M245" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10759,7 +11740,8 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.47863, 0.5    ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.47863 0.5    ]]</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -10768,15 +11750,18 @@
         </is>
       </c>
       <c r="I246" t="n">
+        <v>1.154946163518023</v>
+      </c>
+      <c r="J246" t="n">
         <v>0.338793618121415</v>
       </c>
-      <c r="J246" t="n">
+      <c r="K246" t="n">
         <v>0.20469828125</v>
       </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
       <c r="L246" t="b">
+        <v>1</v>
+      </c>
+      <c r="M246" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10801,7 +11786,8 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975, 0.5  , 0.5  ]))</t>
+          <t>[[0.025 0.025 0.025]
+ [0.975 0.5   0.5  ]]</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -10810,15 +11796,18 @@
         </is>
       </c>
       <c r="I247" t="n">
+        <v>1.16350762782201</v>
+      </c>
+      <c r="J247" t="n">
         <v>0.00206235815385321</v>
       </c>
-      <c r="J247" t="n">
+      <c r="K247" t="n">
         <v>0.21434375</v>
       </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
       <c r="L247" t="b">
+        <v>1</v>
+      </c>
+      <c r="M247" t="b">
         <v>0</v>
       </c>
     </row>
